--- a/Doc/Datasheet/NTC.xlsx
+++ b/Doc/Datasheet/NTC.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20413"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20416"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Lab\PowerSource\Datasheet\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Lab\CNCPowerSupply\Doc\Datasheet\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D0EA0605-1E56-4509-9252-D7DD5ACB0C75}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{53E201F0-C518-4BF5-9475-D9C497F7B2C0}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="25200" windowHeight="11685" xr2:uid="{FDA495EA-3626-4E37-8131-E5F3C3AF6CCF}"/>
   </bookViews>
@@ -1354,922 +1354,922 @@
                 <c:formatCode>0.000_ </c:formatCode>
                 <c:ptCount val="306"/>
                 <c:pt idx="0">
-                  <c:v>1.9974896796366551E-2</c:v>
+                  <c:v>2.9800251032036331</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>2.0990607819522455E-2</c:v>
+                  <c:v>2.9790093921804774</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>2.2091864553368305E-2</c:v>
+                  <c:v>2.9779081354466319</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>2.3283579131968352E-2</c:v>
+                  <c:v>2.9767164208680317</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>2.4570838074691861E-2</c:v>
+                  <c:v>2.9754291619253079</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>2.5958914954176071E-2</c:v>
+                  <c:v>2.9740410850458239</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>2.7453377933714697E-2</c:v>
+                  <c:v>2.9725466220662855</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>2.9060061582598586E-2</c:v>
+                  <c:v>2.9709399384174016</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>3.0784950744078811E-2</c:v>
+                  <c:v>2.9692150492559213</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>3.2634280807571157E-2</c:v>
+                  <c:v>2.9673657191924288</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>3.461456315684816E-2</c:v>
+                  <c:v>2.9653854368431518</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>3.6732333310755538E-2</c:v>
+                  <c:v>2.9632676666892444</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>3.8994656902330831E-2</c:v>
+                  <c:v>2.9610053430976691</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>4.1408475522011101E-2</c:v>
+                  <c:v>2.9585915244779888</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>4.3980997713611962E-2</c:v>
+                  <c:v>2.9560190022863879</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>4.6719681908548708E-2</c:v>
+                  <c:v>2.9532803180914513</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>4.9632333529281321E-2</c:v>
+                  <c:v>2.950367666470719</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>5.2726443246153963E-2</c:v>
+                  <c:v>2.9472735567538457</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>5.6010169222213392E-2</c:v>
+                  <c:v>2.9439898307777868</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>5.9491411718542331E-2</c:v>
+                  <c:v>2.9405085882814577</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>6.3178553345550836E-2</c:v>
+                  <c:v>2.9368214466544491</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>6.7079610652813065E-2</c:v>
+                  <c:v>2.9329203893471871</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>7.1203490486001692E-2</c:v>
+                  <c:v>2.9287965095139983</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>7.5558246834323814E-2</c:v>
+                  <c:v>2.9244417531656763</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>8.0152801937310267E-2</c:v>
+                  <c:v>2.9198471980626897</c:v>
                 </c:pt>
                 <c:pt idx="25">
-                  <c:v>8.4996081740912652E-2</c:v>
+                  <c:v>2.9150039182590874</c:v>
                 </c:pt>
                 <c:pt idx="26">
-                  <c:v>9.0096998044703447E-2</c:v>
+                  <c:v>2.9099030019552967</c:v>
                 </c:pt>
                 <c:pt idx="27">
-                  <c:v>9.5463777928232907E-2</c:v>
+                  <c:v>2.904536222071767</c:v>
                 </c:pt>
                 <c:pt idx="28">
-                  <c:v>0.10110643424137906</c:v>
+                  <c:v>2.898893565758621</c:v>
                 </c:pt>
                 <c:pt idx="29">
-                  <c:v>0.10703305879227237</c:v>
+                  <c:v>2.8929669412077277</c:v>
                 </c:pt>
                 <c:pt idx="30">
-                  <c:v>0.11325301204819277</c:v>
+                  <c:v>2.8867469879518071</c:v>
                 </c:pt>
                 <c:pt idx="31">
-                  <c:v>0.11977675651339205</c:v>
+                  <c:v>2.8802232434866077</c:v>
                 </c:pt>
                 <c:pt idx="32">
-                  <c:v>0.1266106945629237</c:v>
+                  <c:v>2.8733893054370765</c:v>
                 </c:pt>
                 <c:pt idx="33">
-                  <c:v>0.13376720711148213</c:v>
+                  <c:v>2.8662327928885176</c:v>
                 </c:pt>
                 <c:pt idx="34">
-                  <c:v>0.14125185205220908</c:v>
+                  <c:v>2.8587481479477908</c:v>
                 </c:pt>
                 <c:pt idx="35">
-                  <c:v>0.14907699139371128</c:v>
+                  <c:v>2.8509230086062884</c:v>
                 </c:pt>
                 <c:pt idx="36">
-                  <c:v>0.15725076590045023</c:v>
+                  <c:v>2.8427492340995495</c:v>
                 </c:pt>
                 <c:pt idx="37">
-                  <c:v>0.16578210352798425</c:v>
+                  <c:v>2.8342178964720155</c:v>
                 </c:pt>
                 <c:pt idx="38">
-                  <c:v>0.17468027933978289</c:v>
+                  <c:v>2.8253197206602172</c:v>
                 </c:pt>
                 <c:pt idx="39">
-                  <c:v>0.18395423323048421</c:v>
+                  <c:v>2.8160457667695158</c:v>
                 </c:pt>
                 <c:pt idx="40">
-                  <c:v>0.19361323490640656</c:v>
+                  <c:v>2.8063867650935936</c:v>
                 </c:pt>
                 <c:pt idx="41">
-                  <c:v>0.20366569359724168</c:v>
+                  <c:v>2.7963343064027582</c:v>
                 </c:pt>
                 <c:pt idx="42">
-                  <c:v>0.21412073068319701</c:v>
+                  <c:v>2.7858792693168026</c:v>
                 </c:pt>
                 <c:pt idx="43">
-                  <c:v>0.22498695554353498</c:v>
+                  <c:v>2.7750130444564651</c:v>
                 </c:pt>
                 <c:pt idx="44">
-                  <c:v>0.2362727223979838</c:v>
+                  <c:v>2.7637272776020163</c:v>
                 </c:pt>
                 <c:pt idx="45">
-                  <c:v>0.24798664741399173</c:v>
+                  <c:v>2.7520133525860082</c:v>
                 </c:pt>
                 <c:pt idx="46">
-                  <c:v>0.26013608253509068</c:v>
+                  <c:v>2.7398639174649095</c:v>
                 </c:pt>
                 <c:pt idx="47">
-                  <c:v>0.27272991034729543</c:v>
+                  <c:v>2.7272700896527047</c:v>
                 </c:pt>
                 <c:pt idx="48">
-                  <c:v>0.28577450972444041</c:v>
+                  <c:v>2.7142254902755596</c:v>
                 </c:pt>
                 <c:pt idx="49">
-                  <c:v>0.29927791244104651</c:v>
+                  <c:v>2.7007220875589537</c:v>
                 </c:pt>
                 <c:pt idx="50">
-                  <c:v>0.31324771229197351</c:v>
+                  <c:v>2.6867522877080265</c:v>
                 </c:pt>
                 <c:pt idx="51">
-                  <c:v>0.32768902543889411</c:v>
+                  <c:v>2.6723109745611056</c:v>
                 </c:pt>
                 <c:pt idx="52">
-                  <c:v>0.34260888158853886</c:v>
+                  <c:v>2.6573911184114611</c:v>
                 </c:pt>
                 <c:pt idx="53">
-                  <c:v>0.35801340645947594</c:v>
+                  <c:v>2.641986593540524</c:v>
                 </c:pt>
                 <c:pt idx="54">
-                  <c:v>0.37390711722916264</c:v>
+                  <c:v>2.6260928827708376</c:v>
                 </c:pt>
                 <c:pt idx="55">
-                  <c:v>0.38877247160030881</c:v>
+                  <c:v>2.6112275283996911</c:v>
                 </c:pt>
                 <c:pt idx="56">
-                  <c:v>0.40718140942523889</c:v>
+                  <c:v>2.5928185905747609</c:v>
                 </c:pt>
                 <c:pt idx="57">
-                  <c:v>0.42456963393666386</c:v>
+                  <c:v>2.575430366063336</c:v>
                 </c:pt>
                 <c:pt idx="58">
-                  <c:v>0.44246260249599118</c:v>
+                  <c:v>2.5575373975040088</c:v>
                 </c:pt>
                 <c:pt idx="59">
-                  <c:v>0.46086413659882269</c:v>
+                  <c:v>2.5391358634011771</c:v>
                 </c:pt>
                 <c:pt idx="60">
-                  <c:v>0.47977297551116238</c:v>
+                  <c:v>2.5202270244888378</c:v>
                 </c:pt>
                 <c:pt idx="61">
-                  <c:v>0.49919102730681131</c:v>
+                  <c:v>2.5008089726931888</c:v>
                 </c:pt>
                 <c:pt idx="62">
-                  <c:v>0.5191190439373522</c:v>
+                  <c:v>2.4808809560626472</c:v>
                 </c:pt>
                 <c:pt idx="63">
-                  <c:v>0.53955595692736269</c:v>
+                  <c:v>2.4604440430726369</c:v>
                 </c:pt>
                 <c:pt idx="64">
-                  <c:v>0.5605002365231494</c:v>
+                  <c:v>2.4394997634768503</c:v>
                 </c:pt>
                 <c:pt idx="65">
-                  <c:v>0.5819472532915102</c:v>
+                  <c:v>2.41805274670849</c:v>
                 </c:pt>
                 <c:pt idx="66">
-                  <c:v>0.60389577015983964</c:v>
+                  <c:v>2.3961042298401605</c:v>
                 </c:pt>
                 <c:pt idx="67">
-                  <c:v>0.62634096936259809</c:v>
+                  <c:v>2.3736590306374019</c:v>
                 </c:pt>
                 <c:pt idx="68">
-                  <c:v>0.64927589620795245</c:v>
+                  <c:v>2.3507241037920474</c:v>
                 </c:pt>
                 <c:pt idx="69">
-                  <c:v>0.67269387657737179</c:v>
+                  <c:v>2.3273061234226282</c:v>
                 </c:pt>
                 <c:pt idx="70">
-                  <c:v>0.69658525017785156</c:v>
+                  <c:v>2.3034147498221484</c:v>
                 </c:pt>
                 <c:pt idx="71">
-                  <c:v>0.72094366924536113</c:v>
+                  <c:v>2.279056330754639</c:v>
                 </c:pt>
                 <c:pt idx="72">
-                  <c:v>0.74576342903082482</c:v>
+                  <c:v>2.2542365709691752</c:v>
                 </c:pt>
                 <c:pt idx="73">
-                  <c:v>0.77102267134748514</c:v>
+                  <c:v>2.2289773286525145</c:v>
                 </c:pt>
                 <c:pt idx="74">
-                  <c:v>0.79671819907784103</c:v>
+                  <c:v>2.2032818009221589</c:v>
                 </c:pt>
                 <c:pt idx="75">
-                  <c:v>0.82283873527935669</c:v>
+                  <c:v>2.1771612647206435</c:v>
                 </c:pt>
                 <c:pt idx="76">
-                  <c:v>0.84935665751048151</c:v>
+                  <c:v>2.1506433424895186</c:v>
                 </c:pt>
                 <c:pt idx="77">
-                  <c:v>0.87627168150942458</c:v>
+                  <c:v>2.1237283184905755</c:v>
                 </c:pt>
                 <c:pt idx="78">
-                  <c:v>0.90356234259751744</c:v>
+                  <c:v>2.0964376574024826</c:v>
                 </c:pt>
                 <c:pt idx="79">
-                  <c:v>0.93120323345463185</c:v>
+                  <c:v>2.0687967665453679</c:v>
                 </c:pt>
                 <c:pt idx="80">
-                  <c:v>0.95918367346938771</c:v>
+                  <c:v>2.0408163265306123</c:v>
                 </c:pt>
                 <c:pt idx="81">
-                  <c:v>0.98749177090190909</c:v>
+                  <c:v>2.0125082290980907</c:v>
                 </c:pt>
                 <c:pt idx="82">
-                  <c:v>1.016091722095311</c:v>
+                  <c:v>1.983908277904689</c:v>
                 </c:pt>
                 <c:pt idx="83">
-                  <c:v>1.0449708001067204</c:v>
+                  <c:v>1.9550291998932794</c:v>
                 </c:pt>
                 <c:pt idx="84">
-                  <c:v>1.074105673715644</c:v>
+                  <c:v>1.9258943262843564</c:v>
                 </c:pt>
                 <c:pt idx="85">
-                  <c:v>1.1034677059610734</c:v>
+                  <c:v>1.8965322940389266</c:v>
                 </c:pt>
                 <c:pt idx="86">
-                  <c:v>1.1330488657457631</c:v>
+                  <c:v>1.8669511342542369</c:v>
                 </c:pt>
                 <c:pt idx="87">
-                  <c:v>1.1628098764617594</c:v>
+                  <c:v>1.8371901235382408</c:v>
                 </c:pt>
                 <c:pt idx="88">
-                  <c:v>1.1927420378124602</c:v>
+                  <c:v>1.8072579621875398</c:v>
                 </c:pt>
                 <c:pt idx="89">
-                  <c:v>1.2228013424797717</c:v>
+                  <c:v>1.7771986575202283</c:v>
                 </c:pt>
                 <c:pt idx="90">
-                  <c:v>1.2529769310062915</c:v>
+                  <c:v>1.7470230689937085</c:v>
                 </c:pt>
                 <c:pt idx="91">
-                  <c:v>1.2832414132037351</c:v>
+                  <c:v>1.7167585867962651</c:v>
                 </c:pt>
                 <c:pt idx="92">
-                  <c:v>1.3135707697897354</c:v>
+                  <c:v>1.6864292302102644</c:v>
                 </c:pt>
                 <c:pt idx="93">
-                  <c:v>1.3439322886880933</c:v>
+                  <c:v>1.6560677113119067</c:v>
                 </c:pt>
                 <c:pt idx="94">
-                  <c:v>1.3743091903272024</c:v>
+                  <c:v>1.6256908096727973</c:v>
                 </c:pt>
                 <c:pt idx="95">
-                  <c:v>1.4046622833233713</c:v>
+                  <c:v>1.5953377166766289</c:v>
                 </c:pt>
                 <c:pt idx="96">
-                  <c:v>1.4349830549873295</c:v>
+                  <c:v>1.5650169450126705</c:v>
                 </c:pt>
                 <c:pt idx="97">
-                  <c:v>1.4652395302920089</c:v>
+                  <c:v>1.5347604697079915</c:v>
                 </c:pt>
                 <c:pt idx="98">
-                  <c:v>1.4954024329455184</c:v>
+                  <c:v>1.5045975670544816</c:v>
                 </c:pt>
                 <c:pt idx="99">
-                  <c:v>1.5254457330794529</c:v>
+                  <c:v>1.4745542669205469</c:v>
                 </c:pt>
                 <c:pt idx="100">
-                  <c:v>1.5553643523727581</c:v>
+                  <c:v>1.4446356476272424</c:v>
                 </c:pt>
                 <c:pt idx="101">
-                  <c:v>1.5851245615612914</c:v>
+                  <c:v>1.4148754384387086</c:v>
                 </c:pt>
                 <c:pt idx="102">
-                  <c:v>1.6146948684768043</c:v>
+                  <c:v>1.3853051315231952</c:v>
                 </c:pt>
                 <c:pt idx="103">
-                  <c:v>1.6440464530572265</c:v>
+                  <c:v>1.355953546942773</c:v>
                 </c:pt>
                 <c:pt idx="104">
-                  <c:v>1.6731933072267708</c:v>
+                  <c:v>1.3268066927732287</c:v>
                 </c:pt>
                 <c:pt idx="105">
-                  <c:v>1.7020762916465475</c:v>
+                  <c:v>1.2979237083534525</c:v>
                 </c:pt>
                 <c:pt idx="106">
-                  <c:v>1.7307196602388639</c:v>
+                  <c:v>1.2692803397611363</c:v>
                 </c:pt>
                 <c:pt idx="107">
-                  <c:v>1.759069813862967</c:v>
+                  <c:v>1.2409301861370325</c:v>
                 </c:pt>
                 <c:pt idx="108">
-                  <c:v>1.787117544170955</c:v>
+                  <c:v>1.2128824558290452</c:v>
                 </c:pt>
                 <c:pt idx="109">
-                  <c:v>1.814835313348693</c:v>
+                  <c:v>1.1851646866513073</c:v>
                 </c:pt>
                 <c:pt idx="110">
-                  <c:v>1.8422221641537537</c:v>
+                  <c:v>1.1577778358462465</c:v>
                 </c:pt>
                 <c:pt idx="111">
-                  <c:v>1.8692827787352511</c:v>
+                  <c:v>1.1307172212647485</c:v>
                 </c:pt>
                 <c:pt idx="112">
-                  <c:v>1.8959767641996559</c:v>
+                  <c:v>1.1040232358003443</c:v>
                 </c:pt>
                 <c:pt idx="113">
-                  <c:v>1.9222903885480573</c:v>
+                  <c:v>1.0777096114519429</c:v>
                 </c:pt>
                 <c:pt idx="114">
-                  <c:v>1.9482134468179182</c:v>
+                  <c:v>1.051786553182082</c:v>
                 </c:pt>
                 <c:pt idx="115">
-                  <c:v>1.9737670954827331</c:v>
+                  <c:v>1.0262329045172671</c:v>
                 </c:pt>
                 <c:pt idx="116">
-                  <c:v>1.9988942287245353</c:v>
+                  <c:v>1.0011057712754647</c:v>
                 </c:pt>
                 <c:pt idx="117">
-                  <c:v>2.0235942478257125</c:v>
+                  <c:v>0.9764057521742876</c:v>
                 </c:pt>
                 <c:pt idx="118">
-                  <c:v>2.0479005388447518</c:v>
+                  <c:v>0.95209946115524824</c:v>
                 </c:pt>
                 <c:pt idx="119">
-                  <c:v>2.0717927619495424</c:v>
+                  <c:v>0.92820723805045757</c:v>
                 </c:pt>
                 <c:pt idx="120">
-                  <c:v>2.0952211126961484</c:v>
+                  <c:v>0.9047788873038517</c:v>
                 </c:pt>
                 <c:pt idx="121">
-                  <c:v>2.1182303012093442</c:v>
+                  <c:v>0.88176969879065592</c:v>
                 </c:pt>
                 <c:pt idx="122">
-                  <c:v>2.1408074336121952</c:v>
+                  <c:v>0.85919256638780495</c:v>
                 </c:pt>
                 <c:pt idx="123">
-                  <c:v>2.1629416005767848</c:v>
+                  <c:v>0.83705839942321569</c:v>
                 </c:pt>
                 <c:pt idx="124">
-                  <c:v>2.1846239657897182</c:v>
+                  <c:v>0.81537603421028171</c:v>
                 </c:pt>
                 <c:pt idx="125">
-                  <c:v>2.2058478434317359</c:v>
+                  <c:v>0.79415215656826388</c:v>
                 </c:pt>
                 <c:pt idx="126">
-                  <c:v>2.2266439264733751</c:v>
+                  <c:v>0.77335607352662517</c:v>
                 </c:pt>
                 <c:pt idx="127">
-                  <c:v>2.2469761438064735</c:v>
+                  <c:v>0.75302385619352685</c:v>
                 </c:pt>
                 <c:pt idx="128">
-                  <c:v>2.2668810289389065</c:v>
+                  <c:v>0.73311897106109314</c:v>
                 </c:pt>
                 <c:pt idx="129">
-                  <c:v>2.286325825752785</c:v>
+                  <c:v>0.71367417424721502</c:v>
                 </c:pt>
                 <c:pt idx="130">
-                  <c:v>2.305352996958896</c:v>
+                  <c:v>0.69464700304110405</c:v>
                 </c:pt>
                 <c:pt idx="131">
-                  <c:v>2.3239332157631893</c:v>
+                  <c:v>0.67606678423681044</c:v>
                 </c:pt>
                 <c:pt idx="132">
-                  <c:v>2.3420759762802517</c:v>
+                  <c:v>0.65792402371974812</c:v>
                 </c:pt>
                 <c:pt idx="133">
-                  <c:v>2.3597931415373803</c:v>
+                  <c:v>0.64020685846261993</c:v>
                 </c:pt>
                 <c:pt idx="134">
-                  <c:v>2.3770989277766539</c:v>
+                  <c:v>0.62290107222334612</c:v>
                 </c:pt>
                 <c:pt idx="135">
-                  <c:v>2.3939692349485551</c:v>
+                  <c:v>0.60603076505144493</c:v>
                 </c:pt>
                 <c:pt idx="136">
-                  <c:v>2.4104212253829322</c:v>
+                  <c:v>0.58957877461706776</c:v>
                 </c:pt>
                 <c:pt idx="137">
-                  <c:v>2.4264743843466587</c:v>
+                  <c:v>0.57352561565334104</c:v>
                 </c:pt>
                 <c:pt idx="138">
-                  <c:v>2.4421081801964077</c:v>
+                  <c:v>0.55789181980359215</c:v>
                 </c:pt>
                 <c:pt idx="139">
-                  <c:v>2.4573450216978339</c:v>
+                  <c:v>0.54265497830216636</c:v>
                 </c:pt>
                 <c:pt idx="140">
-                  <c:v>2.4721662137284124</c:v>
+                  <c:v>0.52783378627158761</c:v>
                 </c:pt>
                 <c:pt idx="141">
-                  <c:v>2.4866409184699223</c:v>
+                  <c:v>0.5133590815300777</c:v>
                 </c:pt>
                 <c:pt idx="142">
-                  <c:v>2.5007537733004632</c:v>
+                  <c:v>0.49924622669953711</c:v>
                 </c:pt>
                 <c:pt idx="143">
-                  <c:v>2.514444682216991</c:v>
+                  <c:v>0.48555531778300881</c:v>
                 </c:pt>
                 <c:pt idx="144">
-                  <c:v>2.5277877375403368</c:v>
+                  <c:v>0.47221226245966291</c:v>
                 </c:pt>
                 <c:pt idx="145">
-                  <c:v>2.5407694386881703</c:v>
+                  <c:v>0.45923056131182993</c:v>
                 </c:pt>
                 <c:pt idx="146">
-                  <c:v>2.5534226729445852</c:v>
+                  <c:v>0.44657732705541481</c:v>
                 </c:pt>
                 <c:pt idx="147">
-                  <c:v>2.5656889147681778</c:v>
+                  <c:v>0.43431108523182183</c:v>
                 </c:pt>
                 <c:pt idx="148">
-                  <c:v>2.5776494031187731</c:v>
+                  <c:v>0.422350596881227</c:v>
                 </c:pt>
                 <c:pt idx="149">
-                  <c:v>2.5892939124047381</c:v>
+                  <c:v>0.41070608759526217</c:v>
                 </c:pt>
                 <c:pt idx="150">
-                  <c:v>2.6005643778011396</c:v>
+                  <c:v>0.3994356221988602</c:v>
                 </c:pt>
                 <c:pt idx="151">
-                  <c:v>2.6115947397666233</c:v>
+                  <c:v>0.38840526023337651</c:v>
                 </c:pt>
                 <c:pt idx="152">
-                  <c:v>2.6222800818300169</c:v>
+                  <c:v>0.37771991816998329</c:v>
                 </c:pt>
                 <c:pt idx="153">
-                  <c:v>2.6326599200866352</c:v>
+                  <c:v>0.36734007991336493</c:v>
                 </c:pt>
                 <c:pt idx="154">
-                  <c:v>2.6427259436968176</c:v>
+                  <c:v>0.35727405630318254</c:v>
                 </c:pt>
                 <c:pt idx="155">
-                  <c:v>2.6517217384762941</c:v>
+                  <c:v>0.34827826152370561</c:v>
                 </c:pt>
                 <c:pt idx="156">
-                  <c:v>2.6620851112034134</c:v>
+                  <c:v>0.33791488879658649</c:v>
                 </c:pt>
                 <c:pt idx="157">
-                  <c:v>2.6713146278157738</c:v>
+                  <c:v>0.328685372184226</c:v>
                 </c:pt>
                 <c:pt idx="158">
-                  <c:v>2.6803026270767591</c:v>
+                  <c:v>0.31969737292324063</c:v>
                 </c:pt>
                 <c:pt idx="159">
-                  <c:v>2.6890435777629444</c:v>
+                  <c:v>0.31095642223705539</c:v>
                 </c:pt>
                 <c:pt idx="160">
-                  <c:v>2.6975320451501821</c:v>
+                  <c:v>0.30246795484981825</c:v>
                 </c:pt>
                 <c:pt idx="161">
-                  <c:v>2.7057626988543686</c:v>
+                  <c:v>0.2942373011456314</c:v>
                 </c:pt>
                 <c:pt idx="162">
-                  <c:v>2.7137825509555977</c:v>
+                  <c:v>0.28621744904440205</c:v>
                 </c:pt>
                 <c:pt idx="163">
-                  <c:v>2.7215348684591483</c:v>
+                  <c:v>0.27846513154085201</c:v>
                 </c:pt>
                 <c:pt idx="164">
-                  <c:v>2.7290674718383463</c:v>
+                  <c:v>0.27093252816165375</c:v>
                 </c:pt>
                 <c:pt idx="165">
-                  <c:v>2.7364294447571176</c:v>
+                  <c:v>0.26357055524288237</c:v>
                 </c:pt>
                 <c:pt idx="166">
-                  <c:v>2.7435109156710902</c:v>
+                  <c:v>0.25648908432890999</c:v>
                 </c:pt>
                 <c:pt idx="167">
-                  <c:v>2.7504681647940075</c:v>
+                  <c:v>0.24953183520599254</c:v>
                 </c:pt>
                 <c:pt idx="168">
-                  <c:v>2.7571372702385606</c:v>
+                  <c:v>0.24286272976143916</c:v>
                 </c:pt>
                 <c:pt idx="169">
-                  <c:v>2.7636762774652581</c:v>
+                  <c:v>0.23632372253474199</c:v>
                 </c:pt>
                 <c:pt idx="170">
-                  <c:v>2.7699742647781074</c:v>
+                  <c:v>0.23002573522189262</c:v>
                 </c:pt>
                 <c:pt idx="171">
-                  <c:v>2.7761370348493797</c:v>
+                  <c:v>0.22386296515062024</c:v>
                 </c:pt>
                 <c:pt idx="172">
-                  <c:v>2.7821076932183662</c:v>
+                  <c:v>0.21789230678163413</c:v>
                 </c:pt>
                 <c:pt idx="173">
-                  <c:v>2.7878835811452074</c:v>
+                  <c:v>0.21211641885479279</c:v>
                 </c:pt>
                 <c:pt idx="174">
-                  <c:v>2.7935174545310453</c:v>
+                  <c:v>0.20648254546895431</c:v>
                 </c:pt>
                 <c:pt idx="175">
-                  <c:v>2.7989518818484993</c:v>
+                  <c:v>0.20104811815150073</c:v>
                 </c:pt>
                 <c:pt idx="176">
-                  <c:v>2.8042959427207639</c:v>
+                  <c:v>0.19570405727923626</c:v>
                 </c:pt>
                 <c:pt idx="177">
-                  <c:v>2.8094365186897265</c:v>
+                  <c:v>0.19056348131027337</c:v>
                 </c:pt>
                 <c:pt idx="178">
-                  <c:v>2.8144274336813107</c:v>
+                  <c:v>0.18557256631868899</c:v>
                 </c:pt>
                 <c:pt idx="179">
-                  <c:v>2.8192669905824488</c:v>
+                  <c:v>0.18073300941755144</c:v>
                 </c:pt>
                 <c:pt idx="180">
-                  <c:v>2.8240100943339539</c:v>
+                  <c:v>0.17598990566604575</c:v>
                 </c:pt>
                 <c:pt idx="181">
-                  <c:v>2.8285421974362572</c:v>
+                  <c:v>0.17145780256374249</c:v>
                 </c:pt>
                 <c:pt idx="182">
-                  <c:v>2.8330319469559972</c:v>
+                  <c:v>0.16696805304400242</c:v>
                 </c:pt>
                 <c:pt idx="183">
-                  <c:v>2.8373075762149109</c:v>
+                  <c:v>0.16269242378508902</c:v>
                 </c:pt>
                 <c:pt idx="184">
-                  <c:v>2.8415388645936197</c:v>
+                  <c:v>0.15846113540638035</c:v>
                 </c:pt>
                 <c:pt idx="185">
-                  <c:v>2.8456104944500504</c:v>
+                  <c:v>0.15438950554994954</c:v>
                 </c:pt>
                 <c:pt idx="186">
-                  <c:v>2.8495786261393263</c:v>
+                  <c:v>0.15042137386067378</c:v>
                 </c:pt>
                 <c:pt idx="187">
-                  <c:v>2.8533845998178693</c:v>
+                  <c:v>0.14661540018213093</c:v>
                 </c:pt>
                 <c:pt idx="188">
-                  <c:v>2.8571428571428572</c:v>
+                  <c:v>0.14285714285714288</c:v>
                 </c:pt>
                 <c:pt idx="189">
-                  <c:v>2.8607368933614676</c:v>
+                  <c:v>0.1392631066385327</c:v>
                 </c:pt>
                 <c:pt idx="190">
-                  <c:v>2.8642817965750504</c:v>
+                  <c:v>0.13571820342494972</c:v>
                 </c:pt>
                 <c:pt idx="191">
-                  <c:v>2.867718841522942</c:v>
+                  <c:v>0.13228115847705826</c:v>
                 </c:pt>
                 <c:pt idx="192">
-                  <c:v>2.8710472195638452</c:v>
+                  <c:v>0.12895278043615485</c:v>
                 </c:pt>
                 <c:pt idx="193">
-                  <c:v>2.87426614481409</c:v>
+                  <c:v>0.12573385518590999</c:v>
                 </c:pt>
                 <c:pt idx="194">
-                  <c:v>2.8773748546007387</c:v>
+                  <c:v>0.12262514539926128</c:v>
                 </c:pt>
                 <c:pt idx="195">
-                  <c:v>2.8804314518600234</c:v>
+                  <c:v>0.11956854813997671</c:v>
                 </c:pt>
                 <c:pt idx="196">
-                  <c:v>2.8834355828220861</c:v>
+                  <c:v>0.1165644171779141</c:v>
                 </c:pt>
                 <c:pt idx="197">
-                  <c:v>2.8862687300417589</c:v>
+                  <c:v>0.11373126995824123</c:v>
                 </c:pt>
                 <c:pt idx="198">
-                  <c:v>2.8891074502089991</c:v>
+                  <c:v>0.11089254979100073</c:v>
                 </c:pt>
                 <c:pt idx="199">
-                  <c:v>2.8918331350752697</c:v>
+                  <c:v>0.10816686492473029</c:v>
                 </c:pt>
                 <c:pt idx="200">
-                  <c:v>2.8944451287104322</c:v>
+                  <c:v>0.10555487128956767</c:v>
                 </c:pt>
                 <c:pt idx="201">
-                  <c:v>2.8970618450791039</c:v>
+                  <c:v>0.10293815492089582</c:v>
                 </c:pt>
                 <c:pt idx="202">
-                  <c:v>2.8995640371802254</c:v>
+                  <c:v>0.1004359628197746</c:v>
                 </c:pt>
                 <c:pt idx="203">
-                  <c:v>2.9019510990367992</c:v>
+                  <c:v>9.8048900963200791E-2</c:v>
                 </c:pt>
                 <c:pt idx="204">
-                  <c:v>2.9043420944220153</c:v>
+                  <c:v>9.5657905577984675E-2</c:v>
                 </c:pt>
                 <c:pt idx="205">
-                  <c:v>2.9066171923314781</c:v>
+                  <c:v>9.3382807668521958E-2</c:v>
                 </c:pt>
                 <c:pt idx="206">
-                  <c:v>2.9088958574022117</c:v>
+                  <c:v>9.1104142597788415E-2</c:v>
                 </c:pt>
                 <c:pt idx="207">
-                  <c:v>2.9110578908250062</c:v>
+                  <c:v>8.8942109174993803E-2</c:v>
                 </c:pt>
                 <c:pt idx="208">
-                  <c:v>2.9131629511786943</c:v>
+                  <c:v>8.6837048821305343E-2</c:v>
                 </c:pt>
                 <c:pt idx="209">
-                  <c:v>2.9152107842123764</c:v>
+                  <c:v>8.4789215787623801E-2</c:v>
                 </c:pt>
                 <c:pt idx="210">
-                  <c:v>2.917261498355161</c:v>
+                  <c:v>8.2738501644838924E-2</c:v>
                 </c:pt>
                 <c:pt idx="211">
-                  <c:v>2.9191942195813749</c:v>
+                  <c:v>8.0805780418624865E-2</c:v>
                 </c:pt>
                 <c:pt idx="212">
-                  <c:v>2.921068986948415</c:v>
+                  <c:v>7.8931013051584828E-2</c:v>
                 </c:pt>
                 <c:pt idx="213">
-                  <c:v>2.9229461638922865</c:v>
+                  <c:v>7.7053836107713686E-2</c:v>
                 </c:pt>
                 <c:pt idx="214">
-                  <c:v>2.9247044181705042</c:v>
+                  <c:v>7.5295581829495958E-2</c:v>
                 </c:pt>
                 <c:pt idx="215">
-                  <c:v>2.9264647890247195</c:v>
+                  <c:v>7.3535210975280721E-2</c:v>
                 </c:pt>
                 <c:pt idx="216">
-                  <c:v>2.9281664693788549</c:v>
+                  <c:v>7.18335306211451E-2</c:v>
                 </c:pt>
                 <c:pt idx="217">
-                  <c:v>2.9298092507168683</c:v>
+                  <c:v>7.0190749283131779E-2</c:v>
                 </c:pt>
                 <c:pt idx="218">
-                  <c:v>2.9314538763799667</c:v>
+                  <c:v>6.8546123620033678E-2</c:v>
                 </c:pt>
                 <c:pt idx="219">
-                  <c:v>2.9330393360098186</c:v>
+                  <c:v>6.6960663990181593E-2</c:v>
                 </c:pt>
                 <c:pt idx="220">
-                  <c:v>2.9345654345654344</c:v>
+                  <c:v>6.5434565434565439E-2</c:v>
                 </c:pt>
                 <c:pt idx="221">
-                  <c:v>2.9360319840079958</c:v>
+                  <c:v>6.3968015992003996E-2</c:v>
                 </c:pt>
                 <c:pt idx="222">
-                  <c:v>2.9375</c:v>
+                  <c:v>6.25E-2</c:v>
                 </c:pt>
                 <c:pt idx="223">
-                  <c:v>2.9389082268587035</c:v>
+                  <c:v>6.1091773141296879E-2</c:v>
                 </c:pt>
                 <c:pt idx="224">
-                  <c:v>2.9402564904598063</c:v>
+                  <c:v>5.9743509540193931E-2</c:v>
                 </c:pt>
                 <c:pt idx="225">
-                  <c:v>2.9416059916967434</c:v>
+                  <c:v>5.8394008303256639E-2</c:v>
                 </c:pt>
                 <c:pt idx="226">
-                  <c:v>2.9428953080647857</c:v>
+                  <c:v>5.7104691935214565E-2</c:v>
                 </c:pt>
                 <c:pt idx="227">
-                  <c:v>2.9441857551523252</c:v>
+                  <c:v>5.5814244847674929E-2</c:v>
                 </c:pt>
                 <c:pt idx="228">
-                  <c:v>2.9454158049758727</c:v>
+                  <c:v>5.4584195024127341E-2</c:v>
                 </c:pt>
                 <c:pt idx="229">
-                  <c:v>2.9465853046894592</c:v>
+                  <c:v>5.3414695310540841E-2</c:v>
                 </c:pt>
                 <c:pt idx="230">
-                  <c:v>2.9478173607626692</c:v>
+                  <c:v>5.2182639237330658E-2</c:v>
                 </c:pt>
                 <c:pt idx="231">
-                  <c:v>2.9489270924833733</c:v>
+                  <c:v>5.1072907516626923E-2</c:v>
                 </c:pt>
                 <c:pt idx="232">
-                  <c:v>2.9500376600552349</c:v>
+                  <c:v>4.9962339944765254E-2</c:v>
                 </c:pt>
                 <c:pt idx="233">
-                  <c:v>2.9511490644229563</c:v>
+                  <c:v>4.8850935577043827E-2</c:v>
                 </c:pt>
                 <c:pt idx="234">
-                  <c:v>2.9521994933104412</c:v>
+                  <c:v>4.7800506689558424E-2</c:v>
                 </c:pt>
                 <c:pt idx="235">
-                  <c:v>2.9532506702412871</c:v>
+                  <c:v>4.674932975871314E-2</c:v>
                 </c:pt>
                 <c:pt idx="236">
-                  <c:v>2.9542406972846127</c:v>
+                  <c:v>4.5759302715387196E-2</c:v>
                 </c:pt>
                 <c:pt idx="237">
-                  <c:v>2.9552313883299797</c:v>
+                  <c:v>4.4768611670020123E-2</c:v>
                 </c:pt>
                 <c:pt idx="238">
-                  <c:v>2.9561607648279766</c:v>
+                  <c:v>4.3839235172023393E-2</c:v>
                 </c:pt>
                 <c:pt idx="239">
-                  <c:v>2.9570907260601484</c:v>
+                  <c:v>4.2909273939851521E-2</c:v>
                 </c:pt>
                 <c:pt idx="240">
-                  <c:v>2.9580212725785135</c:v>
+                  <c:v>4.1978727421486568E-2</c:v>
                 </c:pt>
                 <c:pt idx="241">
-                  <c:v>2.9588903112081089</c:v>
+                  <c:v>4.1109688791891384E-2</c:v>
                 </c:pt>
                 <c:pt idx="242">
-                  <c:v>2.9597598606184006</c:v>
+                  <c:v>4.0240139381599108E-2</c:v>
                 </c:pt>
                 <c:pt idx="243">
-                  <c:v>2.9606299212598426</c:v>
+                  <c:v>3.937007874015748E-2</c:v>
                 </c:pt>
                 <c:pt idx="244">
-                  <c:v>2.9614382928673444</c:v>
+                  <c:v>3.856170713265563E-2</c:v>
                 </c:pt>
                 <c:pt idx="245">
-                  <c:v>2.9622471060316395</c:v>
+                  <c:v>3.7752893968360679E-2</c:v>
                 </c:pt>
                 <c:pt idx="246">
-                  <c:v>2.9629940950259521</c:v>
+                  <c:v>3.7005904974047529E-2</c:v>
                 </c:pt>
                 <c:pt idx="247">
-                  <c:v>2.9638037583554042</c:v>
+                  <c:v>3.619624164459579E-2</c:v>
                 </c:pt>
                 <c:pt idx="248">
-                  <c:v>2.964551532736218</c:v>
+                  <c:v>3.5448467263782014E-2</c:v>
                 </c:pt>
                 <c:pt idx="249">
-                  <c:v>2.9652373241361905</c:v>
+                  <c:v>3.4762675863809385E-2</c:v>
                 </c:pt>
                 <c:pt idx="250">
-                  <c:v>2.9659858221670627</c:v>
+                  <c:v>3.4014177832937163E-2</c:v>
                 </c:pt>
                 <c:pt idx="251">
-                  <c:v>2.9666722773943781</c:v>
+                  <c:v>3.3327722605621952E-2</c:v>
                 </c:pt>
                 <c:pt idx="252">
-                  <c:v>2.9673590504451037</c:v>
+                  <c:v>3.2640949554896145E-2</c:v>
                 </c:pt>
                 <c:pt idx="253">
-                  <c:v>2.9679836655650749</c:v>
+                  <c:v>3.2016334434925381E-2</c:v>
                 </c:pt>
                 <c:pt idx="254">
-                  <c:v>2.9686085436974965</c:v>
+                  <c:v>3.1391456302503319E-2</c:v>
                 </c:pt>
                 <c:pt idx="255">
-                  <c:v>2.9692336850085286</c:v>
+                  <c:v>3.0766314991471345E-2</c:v>
                 </c:pt>
                 <c:pt idx="256">
-                  <c:v>2.9698590896644692</c:v>
+                  <c:v>3.0140910335530891E-2</c:v>
                 </c:pt>
                 <c:pt idx="257">
-                  <c:v>2.9704847578317568</c:v>
+                  <c:v>2.9515242168243201E-2</c:v>
                 </c:pt>
                 <c:pt idx="258">
-                  <c:v>2.9710480846221925</c:v>
+                  <c:v>2.8951915377807749E-2</c:v>
                 </c:pt>
                 <c:pt idx="259">
-                  <c:v>2.9716116251132796</c:v>
+                  <c:v>2.8388374886720479E-2</c:v>
                 </c:pt>
                 <c:pt idx="260">
-                  <c:v>2.9721753794266443</c:v>
+                  <c:v>2.7824620573355819E-2</c:v>
                 </c:pt>
                 <c:pt idx="261">
-                  <c:v>2.9727393476840045</c:v>
+                  <c:v>2.7260652315995868E-2</c:v>
                 </c:pt>
                 <c:pt idx="262">
-                  <c:v>2.9732408325074329</c:v>
+                  <c:v>2.6759167492566894E-2</c:v>
                 </c:pt>
                 <c:pt idx="263">
-                  <c:v>2.9738052052136501</c:v>
+                  <c:v>2.6194794786350024E-2</c:v>
                 </c:pt>
                 <c:pt idx="264">
-                  <c:v>2.9743070497405393</c:v>
+                  <c:v>2.5692950259460827E-2</c:v>
                 </c:pt>
                 <c:pt idx="265">
-                  <c:v>2.9748090636735727</c:v>
+                  <c:v>2.5190936326427271E-2</c:v>
                 </c:pt>
                 <c:pt idx="266">
-                  <c:v>2.9752484648983986</c:v>
+                  <c:v>2.4751535101601572E-2</c:v>
                 </c:pt>
                 <c:pt idx="267">
-                  <c:v>2.9757507966992378</c:v>
+                  <c:v>2.4249203300761874E-2</c:v>
                 </c:pt>
                 <c:pt idx="268">
-                  <c:v>2.9761904761904763</c:v>
+                  <c:v>2.3809523809523812E-2</c:v>
                 </c:pt>
                 <c:pt idx="269">
-                  <c:v>2.9766931261611211</c:v>
+                  <c:v>2.330687383887857E-2</c:v>
                 </c:pt>
                 <c:pt idx="270">
-                  <c:v>2.9771330841831887</c:v>
+                  <c:v>2.2866915816811301E-2</c:v>
                 </c:pt>
                 <c:pt idx="271">
-                  <c:v>2.9775102945834657</c:v>
+                  <c:v>2.2489705416534684E-2</c:v>
                 </c:pt>
                 <c:pt idx="272">
-                  <c:v>2.977950494213061</c:v>
+                  <c:v>2.2049505786939261E-2</c:v>
                 </c:pt>
                 <c:pt idx="273">
-                  <c:v>2.9783908240214614</c:v>
+                  <c:v>2.1609175978538689E-2</c:v>
                 </c:pt>
                 <c:pt idx="274">
-                  <c:v>2.9787683532269988</c:v>
+                  <c:v>2.1231646773000951E-2</c:v>
                 </c:pt>
                 <c:pt idx="275">
-                  <c:v>2.9791459781529293</c:v>
+                  <c:v>2.0854021847070508E-2</c:v>
                 </c:pt>
                 <c:pt idx="276">
-                  <c:v>2.9795236988356613</c:v>
+                  <c:v>2.0476301164338694E-2</c:v>
                 </c:pt>
                 <c:pt idx="277">
-                  <c:v>2.9799015153116217</c:v>
+                  <c:v>2.0098484688378385E-2</c:v>
                 </c:pt>
                 <c:pt idx="278">
-                  <c:v>2.9802794276172562</c:v>
+                  <c:v>1.9720572382743971E-2</c:v>
                 </c:pt>
                 <c:pt idx="279">
-                  <c:v>2.9806574357890288</c:v>
+                  <c:v>1.9342564210971358E-2</c:v>
                 </c:pt>
                 <c:pt idx="280">
-                  <c:v>2.9810355398634223</c:v>
+                  <c:v>1.8964460136577942E-2</c:v>
                 </c:pt>
                 <c:pt idx="281">
-                  <c:v>2.9813506998773631</c:v>
+                  <c:v>1.864930012263712E-2</c:v>
                 </c:pt>
                 <c:pt idx="282">
-                  <c:v>2.9816659265368268</c:v>
+                  <c:v>1.8334073463173253E-2</c:v>
                 </c:pt>
                 <c:pt idx="283">
-                  <c:v>2.9820442865300425</c:v>
+                  <c:v>1.7955713469957488E-2</c:v>
                 </c:pt>
                 <c:pt idx="284">
-                  <c:v>2.9823596598840898</c:v>
+                  <c:v>1.764034011591015E-2</c:v>
                 </c:pt>
                 <c:pt idx="285">
-                  <c:v>2.9826750999513463</c:v>
+                  <c:v>1.7324900048653565E-2</c:v>
                 </c:pt>
                 <c:pt idx="286">
-                  <c:v>2.982990606752983</c:v>
+                  <c:v>1.7009393247017009E-2</c:v>
                 </c:pt>
                 <c:pt idx="287">
-                  <c:v>2.9832430602572781</c:v>
+                  <c:v>1.6756939742721733E-2</c:v>
                 </c:pt>
                 <c:pt idx="288">
-                  <c:v>2.9835586872341775</c:v>
+                  <c:v>1.6441312765822384E-2</c:v>
                 </c:pt>
                 <c:pt idx="289">
-                  <c:v>2.983874381004783</c:v>
+                  <c:v>1.6125618995217337E-2</c:v>
                 </c:pt>
                 <c:pt idx="290">
-                  <c:v>2.9841269841269842</c:v>
+                  <c:v>1.5873015873015872E-2</c:v>
                 </c:pt>
                 <c:pt idx="291">
-                  <c:v>2.9843796300215888</c:v>
+                  <c:v>1.562036997841087E-2</c:v>
                 </c:pt>
                 <c:pt idx="292">
-                  <c:v>2.9846954975550899</c:v>
+                  <c:v>1.5304502444910141E-2</c:v>
                 </c:pt>
                 <c:pt idx="293">
-                  <c:v>2.9849482397273324</c:v>
+                  <c:v>1.5051760272667612E-2</c:v>
                 </c:pt>
                 <c:pt idx="294">
-                  <c:v>2.9852010247073024</c:v>
+                  <c:v>1.4798975292697905E-2</c:v>
                 </c:pt>
                 <c:pt idx="295">
-                  <c:v>2.9854538525058758</c:v>
+                  <c:v>1.4546147494124374E-2</c:v>
                 </c:pt>
                 <c:pt idx="296">
-                  <c:v>2.9857067231339331</c:v>
+                  <c:v>1.4293276866066703E-2</c:v>
                 </c:pt>
                 <c:pt idx="297">
-                  <c:v>2.9859596366023595</c:v>
+                  <c:v>1.4040363397640882E-2</c:v>
                 </c:pt>
                 <c:pt idx="298">
-                  <c:v>2.9861493498242195</c:v>
+                  <c:v>1.3850650175780422E-2</c:v>
                 </c:pt>
                 <c:pt idx="299">
-                  <c:v>2.9864023382894906</c:v>
+                  <c:v>1.3597661710509596E-2</c:v>
                 </c:pt>
                 <c:pt idx="300">
-                  <c:v>2.9866553696250793</c:v>
+                  <c:v>1.3344630374920568E-2</c:v>
                 </c:pt>
                 <c:pt idx="301">
-                  <c:v>2.9868451712669732</c:v>
+                  <c:v>1.3154828733026881E-2</c:v>
                 </c:pt>
                 <c:pt idx="302">
-                  <c:v>2.9870982776518438</c:v>
+                  <c:v>1.2901722348155837E-2</c:v>
                 </c:pt>
                 <c:pt idx="303">
-                  <c:v>2.9872881355932202</c:v>
+                  <c:v>1.2711864406779662E-2</c:v>
                 </c:pt>
                 <c:pt idx="304">
-                  <c:v>2.9874780176706146</c:v>
+                  <c:v>1.2521982329385341E-2</c:v>
                 </c:pt>
                 <c:pt idx="305">
-                  <c:v>2.9876679238886297</c:v>
+                  <c:v>1.2332076111370091E-2</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -18633,8 +18633,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{31343B00-3B5C-4787-BC48-72301809BDF5}">
   <dimension ref="A1:J309"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A167" workbookViewId="0">
-      <selection activeCell="I4" sqref="I4:I309"/>
+    <sheetView tabSelected="1" topLeftCell="A274" workbookViewId="0">
+      <selection activeCell="J4" sqref="J4:J309"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -18741,12 +18741,12 @@
         <v>-0.70499999999999996</v>
       </c>
       <c r="I4" s="19">
-        <f>3*47/(C4+47)</f>
-        <v>1.9974896796366551E-2</v>
+        <f>3*C4/(C4+47)</f>
+        <v>2.9800251032036331</v>
       </c>
       <c r="J4" s="20" t="str">
         <f>CONCATENATE("0X",DEC2HEX(INT(I4*(32767/4.906)),4))</f>
-        <v>0X0085</v>
+        <v>0X4DBF</v>
       </c>
     </row>
     <row r="5" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.25">
@@ -18775,12 +18775,12 @@
         <v>-0.70099999999999996</v>
       </c>
       <c r="I5" s="19">
-        <f t="shared" ref="I5:I68" si="0">3*47/(C5+47)</f>
-        <v>2.0990607819522455E-2</v>
+        <f>3*C5/(C5+47)</f>
+        <v>2.9790093921804774</v>
       </c>
       <c r="J5" s="13" t="str">
-        <f t="shared" ref="J5:J68" si="1">CONCATENATE("0X",DEC2HEX(INT(I5*(32767/4.906)),4))</f>
-        <v>0X008C</v>
+        <f t="shared" ref="J5:J68" si="0">CONCATENATE("0X",DEC2HEX(INT(I5*(32767/4.906)),4))</f>
+        <v>0X4DB8</v>
       </c>
     </row>
     <row r="6" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.25">
@@ -18809,12 +18809,12 @@
         <v>-0.69699999999999995</v>
       </c>
       <c r="I6" s="19">
+        <f t="shared" ref="I6:I69" si="1">3*C6/(C6+47)</f>
+        <v>2.9779081354466319</v>
+      </c>
+      <c r="J6" s="13" t="str">
         <f t="shared" si="0"/>
-        <v>2.2091864553368305E-2</v>
-      </c>
-      <c r="J6" s="13" t="str">
-        <f t="shared" si="1"/>
-        <v>0X0093</v>
+        <v>0X4DB1</v>
       </c>
     </row>
     <row r="7" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.25">
@@ -18843,12 +18843,12 @@
         <v>-0.69299999999999995</v>
       </c>
       <c r="I7" s="19">
+        <f t="shared" si="1"/>
+        <v>2.9767164208680317</v>
+      </c>
+      <c r="J7" s="13" t="str">
         <f t="shared" si="0"/>
-        <v>2.3283579131968352E-2</v>
-      </c>
-      <c r="J7" s="13" t="str">
-        <f t="shared" si="1"/>
-        <v>0X009B</v>
+        <v>0X4DA9</v>
       </c>
     </row>
     <row r="8" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.25">
@@ -18877,12 +18877,12 @@
         <v>-0.68899999999999995</v>
       </c>
       <c r="I8" s="19">
+        <f t="shared" si="1"/>
+        <v>2.9754291619253079</v>
+      </c>
+      <c r="J8" s="13" t="str">
         <f t="shared" si="0"/>
-        <v>2.4570838074691861E-2</v>
-      </c>
-      <c r="J8" s="13" t="str">
-        <f t="shared" si="1"/>
-        <v>0X00A4</v>
+        <v>0X4DA0</v>
       </c>
     </row>
     <row r="9" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.25">
@@ -18911,12 +18911,12 @@
         <v>-0.68500000000000005</v>
       </c>
       <c r="I9" s="19">
+        <f t="shared" si="1"/>
+        <v>2.9740410850458239</v>
+      </c>
+      <c r="J9" s="20" t="str">
         <f t="shared" si="0"/>
-        <v>2.5958914954176071E-2</v>
-      </c>
-      <c r="J9" s="20" t="str">
-        <f t="shared" si="1"/>
-        <v>0X00AD</v>
+        <v>0X4D97</v>
       </c>
     </row>
     <row r="10" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.25">
@@ -18945,12 +18945,12 @@
         <v>-0.68100000000000005</v>
       </c>
       <c r="I10" s="19">
+        <f t="shared" si="1"/>
+        <v>2.9725466220662855</v>
+      </c>
+      <c r="J10" s="13" t="str">
         <f t="shared" si="0"/>
-        <v>2.7453377933714697E-2</v>
-      </c>
-      <c r="J10" s="13" t="str">
-        <f t="shared" si="1"/>
-        <v>0X00B7</v>
+        <v>0X4D8D</v>
       </c>
     </row>
     <row r="11" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.25">
@@ -18979,12 +18979,12 @@
         <v>-0.67700000000000005</v>
       </c>
       <c r="I11" s="19">
+        <f t="shared" si="1"/>
+        <v>2.9709399384174016</v>
+      </c>
+      <c r="J11" s="13" t="str">
         <f t="shared" si="0"/>
-        <v>2.9060061582598586E-2</v>
-      </c>
-      <c r="J11" s="13" t="str">
-        <f t="shared" si="1"/>
-        <v>0X00C2</v>
+        <v>0X4D82</v>
       </c>
     </row>
     <row r="12" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.25">
@@ -19013,12 +19013,12 @@
         <v>-0.67300000000000004</v>
       </c>
       <c r="I12" s="19">
+        <f t="shared" si="1"/>
+        <v>2.9692150492559213</v>
+      </c>
+      <c r="J12" s="13" t="str">
         <f t="shared" si="0"/>
-        <v>3.0784950744078811E-2</v>
-      </c>
-      <c r="J12" s="13" t="str">
-        <f t="shared" si="1"/>
-        <v>0X00CD</v>
+        <v>0X4D77</v>
       </c>
     </row>
     <row r="13" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.25">
@@ -19047,12 +19047,12 @@
         <v>-0.66900000000000004</v>
       </c>
       <c r="I13" s="19">
+        <f t="shared" si="1"/>
+        <v>2.9673657191924288</v>
+      </c>
+      <c r="J13" s="13" t="str">
         <f t="shared" si="0"/>
-        <v>3.2634280807571157E-2</v>
-      </c>
-      <c r="J13" s="13" t="str">
-        <f t="shared" si="1"/>
-        <v>0X00D9</v>
+        <v>0X4D6A</v>
       </c>
     </row>
     <row r="14" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.25">
@@ -19081,12 +19081,12 @@
         <v>-0.66500000000000004</v>
       </c>
       <c r="I14" s="19">
+        <f t="shared" si="1"/>
+        <v>2.9653854368431518</v>
+      </c>
+      <c r="J14" s="20" t="str">
         <f t="shared" si="0"/>
-        <v>3.461456315684816E-2</v>
-      </c>
-      <c r="J14" s="20" t="str">
-        <f t="shared" si="1"/>
-        <v>0X00E7</v>
+        <v>0X4D5D</v>
       </c>
     </row>
     <row r="15" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.25">
@@ -19115,12 +19115,12 @@
         <v>-0.66100000000000003</v>
       </c>
       <c r="I15" s="19">
+        <f t="shared" si="1"/>
+        <v>2.9632676666892444</v>
+      </c>
+      <c r="J15" s="13" t="str">
         <f t="shared" si="0"/>
-        <v>3.6732333310755538E-2</v>
-      </c>
-      <c r="J15" s="13" t="str">
-        <f t="shared" si="1"/>
-        <v>0X00F5</v>
+        <v>0X4D4F</v>
       </c>
     </row>
     <row r="16" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.25">
@@ -19149,12 +19149,12 @@
         <v>-0.65700000000000003</v>
       </c>
       <c r="I16" s="19">
+        <f t="shared" si="1"/>
+        <v>2.9610053430976691</v>
+      </c>
+      <c r="J16" s="13" t="str">
         <f t="shared" si="0"/>
-        <v>3.8994656902330831E-2</v>
-      </c>
-      <c r="J16" s="13" t="str">
-        <f t="shared" si="1"/>
-        <v>0X0104</v>
+        <v>0X4D40</v>
       </c>
     </row>
     <row r="17" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.25">
@@ -19183,12 +19183,12 @@
         <v>-0.65300000000000002</v>
       </c>
       <c r="I17" s="19">
+        <f t="shared" si="1"/>
+        <v>2.9585915244779888</v>
+      </c>
+      <c r="J17" s="13" t="str">
         <f t="shared" si="0"/>
-        <v>4.1408475522011101E-2</v>
-      </c>
-      <c r="J17" s="13" t="str">
-        <f t="shared" si="1"/>
-        <v>0X0114</v>
+        <v>0X4D30</v>
       </c>
     </row>
     <row r="18" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.25">
@@ -19217,12 +19217,12 @@
         <v>-0.64800000000000002</v>
       </c>
       <c r="I18" s="19">
+        <f t="shared" si="1"/>
+        <v>2.9560190022863879</v>
+      </c>
+      <c r="J18" s="13" t="str">
         <f t="shared" si="0"/>
-        <v>4.3980997713611962E-2</v>
-      </c>
-      <c r="J18" s="13" t="str">
-        <f t="shared" si="1"/>
-        <v>0X0125</v>
+        <v>0X4D1F</v>
       </c>
     </row>
     <row r="19" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.25">
@@ -19251,12 +19251,12 @@
         <v>-0.64400000000000002</v>
       </c>
       <c r="I19" s="19">
+        <f t="shared" si="1"/>
+        <v>2.9532803180914513</v>
+      </c>
+      <c r="J19" s="20" t="str">
         <f t="shared" si="0"/>
-        <v>4.6719681908548708E-2</v>
-      </c>
-      <c r="J19" s="20" t="str">
-        <f t="shared" si="1"/>
-        <v>0X0138</v>
+        <v>0X4D0C</v>
       </c>
     </row>
     <row r="20" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.25">
@@ -19285,12 +19285,12 @@
         <v>-0.64</v>
       </c>
       <c r="I20" s="19">
+        <f t="shared" si="1"/>
+        <v>2.950367666470719</v>
+      </c>
+      <c r="J20" s="13" t="str">
         <f t="shared" si="0"/>
-        <v>4.9632333529281321E-2</v>
-      </c>
-      <c r="J20" s="13" t="str">
-        <f t="shared" si="1"/>
-        <v>0X014B</v>
+        <v>0X4CF9</v>
       </c>
     </row>
     <row r="21" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.25">
@@ -19319,12 +19319,12 @@
         <v>-0.63500000000000001</v>
       </c>
       <c r="I21" s="19">
+        <f t="shared" si="1"/>
+        <v>2.9472735567538457</v>
+      </c>
+      <c r="J21" s="13" t="str">
         <f t="shared" si="0"/>
-        <v>5.2726443246153963E-2</v>
-      </c>
-      <c r="J21" s="13" t="str">
-        <f t="shared" si="1"/>
-        <v>0X0160</v>
+        <v>0X4CE4</v>
       </c>
     </row>
     <row r="22" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.25">
@@ -19353,12 +19353,12 @@
         <v>-0.63100000000000001</v>
       </c>
       <c r="I22" s="19">
+        <f t="shared" si="1"/>
+        <v>2.9439898307777868</v>
+      </c>
+      <c r="J22" s="13" t="str">
         <f t="shared" si="0"/>
-        <v>5.6010169222213392E-2</v>
-      </c>
-      <c r="J22" s="13" t="str">
-        <f t="shared" si="1"/>
-        <v>0X0176</v>
+        <v>0X4CCE</v>
       </c>
     </row>
     <row r="23" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.25">
@@ -19387,12 +19387,12 @@
         <v>-0.627</v>
       </c>
       <c r="I23" s="19">
+        <f t="shared" si="1"/>
+        <v>2.9405085882814577</v>
+      </c>
+      <c r="J23" s="13" t="str">
         <f t="shared" si="0"/>
-        <v>5.9491411718542331E-2</v>
-      </c>
-      <c r="J23" s="13" t="str">
-        <f t="shared" si="1"/>
-        <v>0X018D</v>
+        <v>0X4CB7</v>
       </c>
     </row>
     <row r="24" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.25">
@@ -19421,12 +19421,12 @@
         <v>-0.622</v>
       </c>
       <c r="I24" s="19">
+        <f t="shared" si="1"/>
+        <v>2.9368214466544491</v>
+      </c>
+      <c r="J24" s="20" t="str">
         <f t="shared" si="0"/>
-        <v>6.3178553345550836E-2</v>
-      </c>
-      <c r="J24" s="20" t="str">
-        <f t="shared" si="1"/>
-        <v>0X01A5</v>
+        <v>0X4C9E</v>
       </c>
     </row>
     <row r="25" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.25">
@@ -19455,12 +19455,12 @@
         <v>-0.61799999999999999</v>
       </c>
       <c r="I25" s="19">
+        <f t="shared" si="1"/>
+        <v>2.9329203893471871</v>
+      </c>
+      <c r="J25" s="13" t="str">
         <f t="shared" si="0"/>
-        <v>6.7079610652813065E-2</v>
-      </c>
-      <c r="J25" s="13" t="str">
-        <f t="shared" si="1"/>
-        <v>0X01C0</v>
+        <v>0X4C84</v>
       </c>
     </row>
     <row r="26" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.25">
@@ -19489,12 +19489,12 @@
         <v>-0.61299999999999999</v>
       </c>
       <c r="I26" s="19">
-        <f>3*47/(C26+47)</f>
-        <v>7.1203490486001692E-2</v>
+        <f t="shared" si="1"/>
+        <v>2.9287965095139983</v>
       </c>
       <c r="J26" s="13" t="str">
-        <f t="shared" si="1"/>
-        <v>0X01DB</v>
+        <f t="shared" si="0"/>
+        <v>0X4C69</v>
       </c>
     </row>
     <row r="27" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.25">
@@ -19523,12 +19523,12 @@
         <v>-0.60799999999999998</v>
       </c>
       <c r="I27" s="19">
+        <f t="shared" si="1"/>
+        <v>2.9244417531656763</v>
+      </c>
+      <c r="J27" s="13" t="str">
         <f t="shared" si="0"/>
-        <v>7.5558246834323814E-2</v>
-      </c>
-      <c r="J27" s="13" t="str">
-        <f t="shared" si="1"/>
-        <v>0X01F8</v>
+        <v>0X4C4C</v>
       </c>
     </row>
     <row r="28" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.25">
@@ -19557,12 +19557,12 @@
         <v>-0.60399999999999998</v>
       </c>
       <c r="I28" s="19">
+        <f t="shared" si="1"/>
+        <v>2.9198471980626897</v>
+      </c>
+      <c r="J28" s="13" t="str">
         <f t="shared" si="0"/>
-        <v>8.0152801937310267E-2</v>
-      </c>
-      <c r="J28" s="13" t="str">
-        <f t="shared" si="1"/>
-        <v>0X0217</v>
+        <v>0X4C2D</v>
       </c>
     </row>
     <row r="29" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.25">
@@ -19591,12 +19591,12 @@
         <v>-0.59899999999999998</v>
       </c>
       <c r="I29" s="19">
+        <f t="shared" si="1"/>
+        <v>2.9150039182590874</v>
+      </c>
+      <c r="J29" s="20" t="str">
         <f t="shared" si="0"/>
-        <v>8.4996081740912652E-2</v>
-      </c>
-      <c r="J29" s="20" t="str">
-        <f t="shared" si="1"/>
-        <v>0X0237</v>
+        <v>0X4C0D</v>
       </c>
     </row>
     <row r="30" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.25">
@@ -19625,12 +19625,12 @@
         <v>-0.59399999999999997</v>
       </c>
       <c r="I30" s="19">
+        <f t="shared" si="1"/>
+        <v>2.9099030019552967</v>
+      </c>
+      <c r="J30" s="13" t="str">
         <f t="shared" si="0"/>
-        <v>9.0096998044703447E-2</v>
-      </c>
-      <c r="J30" s="13" t="str">
-        <f t="shared" si="1"/>
-        <v>0X0259</v>
+        <v>0X4BEB</v>
       </c>
     </row>
     <row r="31" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.25">
@@ -19659,12 +19659,12 @@
         <v>-0.58899999999999997</v>
       </c>
       <c r="I31" s="19">
+        <f t="shared" si="1"/>
+        <v>2.904536222071767</v>
+      </c>
+      <c r="J31" s="13" t="str">
         <f t="shared" si="0"/>
-        <v>9.5463777928232907E-2</v>
-      </c>
-      <c r="J31" s="13" t="str">
-        <f t="shared" si="1"/>
-        <v>0X027D</v>
+        <v>0X4BC7</v>
       </c>
     </row>
     <row r="32" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.25">
@@ -19693,12 +19693,12 @@
         <v>-0.58399999999999996</v>
       </c>
       <c r="I32" s="19">
+        <f t="shared" si="1"/>
+        <v>2.898893565758621</v>
+      </c>
+      <c r="J32" s="13" t="str">
         <f t="shared" si="0"/>
-        <v>0.10110643424137906</v>
-      </c>
-      <c r="J32" s="13" t="str">
-        <f t="shared" si="1"/>
-        <v>0X02A3</v>
+        <v>0X4BA1</v>
       </c>
     </row>
     <row r="33" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.25">
@@ -19727,12 +19727,12 @@
         <v>-0.57899999999999996</v>
       </c>
       <c r="I33" s="19">
+        <f t="shared" si="1"/>
+        <v>2.8929669412077277</v>
+      </c>
+      <c r="J33" s="13" t="str">
         <f t="shared" si="0"/>
-        <v>0.10703305879227237</v>
-      </c>
-      <c r="J33" s="13" t="str">
-        <f t="shared" si="1"/>
-        <v>0X02CA</v>
+        <v>0X4B7A</v>
       </c>
     </row>
     <row r="34" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.25">
@@ -19761,12 +19761,12 @@
         <v>-0.57399999999999995</v>
       </c>
       <c r="I34" s="19">
+        <f t="shared" si="1"/>
+        <v>2.8867469879518071</v>
+      </c>
+      <c r="J34" s="20" t="str">
         <f t="shared" si="0"/>
-        <v>0.11325301204819277</v>
-      </c>
-      <c r="J34" s="20" t="str">
-        <f t="shared" si="1"/>
-        <v>0X02F4</v>
+        <v>0X4B50</v>
       </c>
     </row>
     <row r="35" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.25">
@@ -19795,12 +19795,12 @@
         <v>-0.56899999999999995</v>
       </c>
       <c r="I35" s="19">
+        <f t="shared" si="1"/>
+        <v>2.8802232434866077</v>
+      </c>
+      <c r="J35" s="13" t="str">
         <f t="shared" si="0"/>
-        <v>0.11977675651339205</v>
-      </c>
-      <c r="J35" s="13" t="str">
-        <f t="shared" si="1"/>
-        <v>0X031F</v>
+        <v>0X4B24</v>
       </c>
     </row>
     <row r="36" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.25">
@@ -19829,12 +19829,12 @@
         <v>-0.56399999999999995</v>
       </c>
       <c r="I36" s="19">
+        <f t="shared" si="1"/>
+        <v>2.8733893054370765</v>
+      </c>
+      <c r="J36" s="13" t="str">
         <f t="shared" si="0"/>
-        <v>0.1266106945629237</v>
-      </c>
-      <c r="J36" s="13" t="str">
-        <f t="shared" si="1"/>
-        <v>0X034D</v>
+        <v>0X4AF7</v>
       </c>
     </row>
     <row r="37" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.25">
@@ -19863,12 +19863,12 @@
         <v>-0.55800000000000005</v>
       </c>
       <c r="I37" s="19">
+        <f t="shared" si="1"/>
+        <v>2.8662327928885176</v>
+      </c>
+      <c r="J37" s="13" t="str">
         <f t="shared" si="0"/>
-        <v>0.13376720711148213</v>
-      </c>
-      <c r="J37" s="13" t="str">
-        <f t="shared" si="1"/>
-        <v>0X037D</v>
+        <v>0X4AC7</v>
       </c>
     </row>
     <row r="38" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.25">
@@ -19897,12 +19897,12 @@
         <v>-0.55300000000000005</v>
       </c>
       <c r="I38" s="19">
+        <f t="shared" si="1"/>
+        <v>2.8587481479477908</v>
+      </c>
+      <c r="J38" s="13" t="str">
         <f t="shared" si="0"/>
-        <v>0.14125185205220908</v>
-      </c>
-      <c r="J38" s="13" t="str">
-        <f t="shared" si="1"/>
-        <v>0X03AF</v>
+        <v>0X4A95</v>
       </c>
     </row>
     <row r="39" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.25">
@@ -19931,12 +19931,12 @@
         <v>-0.54800000000000004</v>
       </c>
       <c r="I39" s="19">
+        <f t="shared" si="1"/>
+        <v>2.8509230086062884</v>
+      </c>
+      <c r="J39" s="20" t="str">
         <f t="shared" si="0"/>
-        <v>0.14907699139371128</v>
-      </c>
-      <c r="J39" s="20" t="str">
-        <f t="shared" si="1"/>
-        <v>0X03E3</v>
+        <v>0X4A61</v>
       </c>
     </row>
     <row r="40" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.25">
@@ -19965,12 +19965,12 @@
         <v>-0.54200000000000004</v>
       </c>
       <c r="I40" s="19">
+        <f t="shared" si="1"/>
+        <v>2.8427492340995495</v>
+      </c>
+      <c r="J40" s="13" t="str">
         <f t="shared" si="0"/>
-        <v>0.15725076590045023</v>
-      </c>
-      <c r="J40" s="13" t="str">
-        <f t="shared" si="1"/>
-        <v>0X041A</v>
+        <v>0X4A2A</v>
       </c>
     </row>
     <row r="41" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.25">
@@ -19999,12 +19999,12 @@
         <v>-0.53700000000000003</v>
       </c>
       <c r="I41" s="19">
+        <f t="shared" si="1"/>
+        <v>2.8342178964720155</v>
+      </c>
+      <c r="J41" s="13" t="str">
         <f t="shared" si="0"/>
-        <v>0.16578210352798425</v>
-      </c>
-      <c r="J41" s="13" t="str">
-        <f t="shared" si="1"/>
-        <v>0X0453</v>
+        <v>0X49F1</v>
       </c>
     </row>
     <row r="42" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.25">
@@ -20033,12 +20033,12 @@
         <v>-0.53100000000000003</v>
       </c>
       <c r="I42" s="19">
+        <f t="shared" si="1"/>
+        <v>2.8253197206602172</v>
+      </c>
+      <c r="J42" s="13" t="str">
         <f t="shared" si="0"/>
-        <v>0.17468027933978289</v>
-      </c>
-      <c r="J42" s="13" t="str">
-        <f t="shared" si="1"/>
-        <v>0X048E</v>
+        <v>0X49B6</v>
       </c>
     </row>
     <row r="43" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.25">
@@ -20067,12 +20067,12 @@
         <v>-0.52500000000000002</v>
       </c>
       <c r="I43" s="19">
+        <f t="shared" si="1"/>
+        <v>2.8160457667695158</v>
+      </c>
+      <c r="J43" s="13" t="str">
         <f t="shared" si="0"/>
-        <v>0.18395423323048421</v>
-      </c>
-      <c r="J43" s="13" t="str">
-        <f t="shared" si="1"/>
-        <v>0X04CC</v>
+        <v>0X4978</v>
       </c>
     </row>
     <row r="44" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.25">
@@ -20101,12 +20101,12 @@
         <v>-0.52</v>
       </c>
       <c r="I44" s="19">
+        <f t="shared" si="1"/>
+        <v>2.8063867650935936</v>
+      </c>
+      <c r="J44" s="20" t="str">
         <f t="shared" si="0"/>
-        <v>0.19361323490640656</v>
-      </c>
-      <c r="J44" s="20" t="str">
-        <f t="shared" si="1"/>
-        <v>0X050D</v>
+        <v>0X4937</v>
       </c>
     </row>
     <row r="45" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.25">
@@ -20135,12 +20135,12 @@
         <v>-0.51400000000000001</v>
       </c>
       <c r="I45" s="19">
+        <f t="shared" si="1"/>
+        <v>2.7963343064027582</v>
+      </c>
+      <c r="J45" s="13" t="str">
         <f t="shared" si="0"/>
-        <v>0.20366569359724168</v>
-      </c>
-      <c r="J45" s="13" t="str">
-        <f t="shared" si="1"/>
-        <v>0X0550</v>
+        <v>0X48F4</v>
       </c>
     </row>
     <row r="46" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.25">
@@ -20169,12 +20169,12 @@
         <v>-0.50800000000000001</v>
       </c>
       <c r="I46" s="19">
+        <f t="shared" si="1"/>
+        <v>2.7858792693168026</v>
+      </c>
+      <c r="J46" s="13" t="str">
         <f t="shared" si="0"/>
-        <v>0.21412073068319701</v>
-      </c>
-      <c r="J46" s="13" t="str">
-        <f t="shared" si="1"/>
-        <v>0X0596</v>
+        <v>0X48AE</v>
       </c>
     </row>
     <row r="47" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.25">
@@ -20203,12 +20203,12 @@
         <v>-0.502</v>
       </c>
       <c r="I47" s="19">
+        <f t="shared" si="1"/>
+        <v>2.7750130444564651</v>
+      </c>
+      <c r="J47" s="13" t="str">
         <f t="shared" si="0"/>
-        <v>0.22498695554353498</v>
-      </c>
-      <c r="J47" s="13" t="str">
-        <f t="shared" si="1"/>
-        <v>0X05DE</v>
+        <v>0X4866</v>
       </c>
     </row>
     <row r="48" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.25">
@@ -20237,12 +20237,12 @@
         <v>-0.496</v>
       </c>
       <c r="I48" s="19">
-        <f>3*47/(C48+47)</f>
-        <v>0.2362727223979838</v>
+        <f t="shared" si="1"/>
+        <v>2.7637272776020163</v>
       </c>
       <c r="J48" s="13" t="str">
-        <f t="shared" si="1"/>
-        <v>0X062A</v>
+        <f t="shared" si="0"/>
+        <v>0X481A</v>
       </c>
     </row>
     <row r="49" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.25">
@@ -20271,12 +20271,12 @@
         <v>-0.49</v>
       </c>
       <c r="I49" s="19">
+        <f t="shared" si="1"/>
+        <v>2.7520133525860082</v>
+      </c>
+      <c r="J49" s="20" t="str">
         <f t="shared" si="0"/>
-        <v>0.24798664741399173</v>
-      </c>
-      <c r="J49" s="20" t="str">
-        <f t="shared" si="1"/>
-        <v>0X0678</v>
+        <v>0X47CC</v>
       </c>
     </row>
     <row r="50" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.25">
@@ -20305,12 +20305,12 @@
         <v>-0.48399999999999999</v>
       </c>
       <c r="I50" s="19">
+        <f t="shared" si="1"/>
+        <v>2.7398639174649095</v>
+      </c>
+      <c r="J50" s="13" t="str">
         <f t="shared" si="0"/>
-        <v>0.26013608253509068</v>
-      </c>
-      <c r="J50" s="13" t="str">
-        <f t="shared" si="1"/>
-        <v>0X06C9</v>
+        <v>0X477B</v>
       </c>
     </row>
     <row r="51" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.25">
@@ -20339,12 +20339,12 @@
         <v>-0.47699999999999998</v>
       </c>
       <c r="I51" s="19">
+        <f t="shared" si="1"/>
+        <v>2.7272700896527047</v>
+      </c>
+      <c r="J51" s="13" t="str">
         <f t="shared" si="0"/>
-        <v>0.27272991034729543</v>
-      </c>
-      <c r="J51" s="13" t="str">
-        <f t="shared" si="1"/>
-        <v>0X071D</v>
+        <v>0X4727</v>
       </c>
     </row>
     <row r="52" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.25">
@@ -20373,12 +20373,12 @@
         <v>-0.47099999999999997</v>
       </c>
       <c r="I52" s="19">
+        <f t="shared" si="1"/>
+        <v>2.7142254902755596</v>
+      </c>
+      <c r="J52" s="13" t="str">
         <f t="shared" si="0"/>
-        <v>0.28577450972444041</v>
-      </c>
-      <c r="J52" s="13" t="str">
-        <f t="shared" si="1"/>
-        <v>0X0774</v>
+        <v>0X46D0</v>
       </c>
     </row>
     <row r="53" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.25">
@@ -20407,12 +20407,12 @@
         <v>-0.46500000000000002</v>
       </c>
       <c r="I53" s="19">
+        <f t="shared" si="1"/>
+        <v>2.7007220875589537</v>
+      </c>
+      <c r="J53" s="13" t="str">
         <f t="shared" si="0"/>
-        <v>0.29927791244104651</v>
-      </c>
-      <c r="J53" s="13" t="str">
-        <f t="shared" si="1"/>
-        <v>0X07CE</v>
+        <v>0X4676</v>
       </c>
     </row>
     <row r="54" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.25">
@@ -20441,12 +20441,12 @@
         <v>-0.45800000000000002</v>
       </c>
       <c r="I54" s="19">
+        <f t="shared" si="1"/>
+        <v>2.6867522877080265</v>
+      </c>
+      <c r="J54" s="20" t="str">
         <f t="shared" si="0"/>
-        <v>0.31324771229197351</v>
-      </c>
-      <c r="J54" s="20" t="str">
-        <f t="shared" si="1"/>
-        <v>0X082C</v>
+        <v>0X4618</v>
       </c>
     </row>
     <row r="55" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.25">
@@ -20475,12 +20475,12 @@
         <v>-0.45200000000000001</v>
       </c>
       <c r="I55" s="19">
+        <f t="shared" si="1"/>
+        <v>2.6723109745611056</v>
+      </c>
+      <c r="J55" s="13" t="str">
         <f t="shared" si="0"/>
-        <v>0.32768902543889411</v>
-      </c>
-      <c r="J55" s="13" t="str">
-        <f t="shared" si="1"/>
-        <v>0X088C</v>
+        <v>0X45B8</v>
       </c>
     </row>
     <row r="56" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.25">
@@ -20509,12 +20509,12 @@
         <v>-0.44500000000000001</v>
       </c>
       <c r="I56" s="19">
+        <f t="shared" si="1"/>
+        <v>2.6573911184114611</v>
+      </c>
+      <c r="J56" s="13" t="str">
         <f t="shared" si="0"/>
-        <v>0.34260888158853886</v>
-      </c>
-      <c r="J56" s="13" t="str">
-        <f t="shared" si="1"/>
-        <v>0X08F0</v>
+        <v>0X4554</v>
       </c>
     </row>
     <row r="57" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.25">
@@ -20543,12 +20543,12 @@
         <v>-0.439</v>
       </c>
       <c r="I57" s="19">
+        <f t="shared" si="1"/>
+        <v>2.641986593540524</v>
+      </c>
+      <c r="J57" s="13" t="str">
         <f t="shared" si="0"/>
-        <v>0.35801340645947594</v>
-      </c>
-      <c r="J57" s="13" t="str">
-        <f t="shared" si="1"/>
-        <v>0X0957</v>
+        <v>0X44ED</v>
       </c>
     </row>
     <row r="58" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.25">
@@ -20577,12 +20577,12 @@
         <v>-0.432</v>
       </c>
       <c r="I58" s="19">
+        <f t="shared" si="1"/>
+        <v>2.6260928827708376</v>
+      </c>
+      <c r="J58" s="13" t="str">
         <f t="shared" si="0"/>
-        <v>0.37390711722916264</v>
-      </c>
-      <c r="J58" s="13" t="str">
-        <f t="shared" si="1"/>
-        <v>0X09C1</v>
+        <v>0X4483</v>
       </c>
     </row>
     <row r="59" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.25">
@@ -20611,12 +20611,12 @@
         <v>-0.42399999999999999</v>
       </c>
       <c r="I59" s="19">
+        <f t="shared" si="1"/>
+        <v>2.6112275283996911</v>
+      </c>
+      <c r="J59" s="20" t="str">
         <f t="shared" si="0"/>
-        <v>0.38877247160030881</v>
-      </c>
-      <c r="J59" s="20" t="str">
-        <f t="shared" si="1"/>
-        <v>0X0A24</v>
+        <v>0X4420</v>
       </c>
     </row>
     <row r="60" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.25">
@@ -20645,12 +20645,12 @@
         <v>-0.41799999999999998</v>
       </c>
       <c r="I60" s="19">
+        <f t="shared" si="1"/>
+        <v>2.5928185905747609</v>
+      </c>
+      <c r="J60" s="13" t="str">
         <f t="shared" si="0"/>
-        <v>0.40718140942523889</v>
-      </c>
-      <c r="J60" s="13" t="str">
-        <f t="shared" si="1"/>
-        <v>0X0A9F</v>
+        <v>0X43A5</v>
       </c>
     </row>
     <row r="61" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.25">
@@ -20679,12 +20679,12 @@
         <v>-0.41099999999999998</v>
       </c>
       <c r="I61" s="19">
+        <f t="shared" si="1"/>
+        <v>2.575430366063336</v>
+      </c>
+      <c r="J61" s="13" t="str">
         <f t="shared" si="0"/>
-        <v>0.42456963393666386</v>
-      </c>
-      <c r="J61" s="13" t="str">
-        <f t="shared" si="1"/>
-        <v>0X0B13</v>
+        <v>0X4331</v>
       </c>
     </row>
     <row r="62" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.25">
@@ -20713,12 +20713,12 @@
         <v>-0.40400000000000003</v>
       </c>
       <c r="I62" s="19">
+        <f t="shared" si="1"/>
+        <v>2.5575373975040088</v>
+      </c>
+      <c r="J62" s="13" t="str">
         <f t="shared" si="0"/>
-        <v>0.44246260249599118</v>
-      </c>
-      <c r="J62" s="13" t="str">
-        <f t="shared" si="1"/>
-        <v>0X0B8B</v>
+        <v>0X42B9</v>
       </c>
     </row>
     <row r="63" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.25">
@@ -20747,12 +20747,12 @@
         <v>-0.39700000000000002</v>
       </c>
       <c r="I63" s="19">
+        <f t="shared" si="1"/>
+        <v>2.5391358634011771</v>
+      </c>
+      <c r="J63" s="13" t="str">
         <f t="shared" si="0"/>
-        <v>0.46086413659882269</v>
-      </c>
-      <c r="J63" s="13" t="str">
-        <f t="shared" si="1"/>
-        <v>0X0C06</v>
+        <v>0X423E</v>
       </c>
     </row>
     <row r="64" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.25">
@@ -20781,12 +20781,12 @@
         <v>-0.39</v>
       </c>
       <c r="I64" s="19">
+        <f t="shared" si="1"/>
+        <v>2.5202270244888378</v>
+      </c>
+      <c r="J64" s="20" t="str">
         <f t="shared" si="0"/>
-        <v>0.47977297551116238</v>
-      </c>
-      <c r="J64" s="20" t="str">
-        <f t="shared" si="1"/>
-        <v>0X0C84</v>
+        <v>0X41C0</v>
       </c>
     </row>
     <row r="65" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.25">
@@ -20815,12 +20815,12 @@
         <v>-0.38300000000000001</v>
       </c>
       <c r="I65" s="19">
+        <f t="shared" si="1"/>
+        <v>2.5008089726931888</v>
+      </c>
+      <c r="J65" s="13" t="str">
         <f t="shared" si="0"/>
-        <v>0.49919102730681131</v>
-      </c>
-      <c r="J65" s="13" t="str">
-        <f t="shared" si="1"/>
-        <v>0X0D06</v>
+        <v>0X413E</v>
       </c>
     </row>
     <row r="66" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.25">
@@ -20849,12 +20849,12 @@
         <v>-0.375</v>
       </c>
       <c r="I66" s="19">
+        <f t="shared" si="1"/>
+        <v>2.4808809560626472</v>
+      </c>
+      <c r="J66" s="13" t="str">
         <f t="shared" si="0"/>
-        <v>0.5191190439373522</v>
-      </c>
-      <c r="J66" s="13" t="str">
-        <f t="shared" si="1"/>
-        <v>0X0D8B</v>
+        <v>0X40B9</v>
       </c>
     </row>
     <row r="67" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.25">
@@ -20883,12 +20883,12 @@
         <v>-0.36799999999999999</v>
       </c>
       <c r="I67" s="19">
+        <f t="shared" si="1"/>
+        <v>2.4604440430726369</v>
+      </c>
+      <c r="J67" s="13" t="str">
         <f t="shared" si="0"/>
-        <v>0.53955595692736269</v>
-      </c>
-      <c r="J67" s="13" t="str">
-        <f t="shared" si="1"/>
-        <v>0X0E13</v>
+        <v>0X4031</v>
       </c>
     </row>
     <row r="68" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.25">
@@ -20917,12 +20917,12 @@
         <v>-0.36</v>
       </c>
       <c r="I68" s="19">
+        <f t="shared" si="1"/>
+        <v>2.4394997634768503</v>
+      </c>
+      <c r="J68" s="13" t="str">
         <f t="shared" si="0"/>
-        <v>0.5605002365231494</v>
-      </c>
-      <c r="J68" s="13" t="str">
-        <f t="shared" si="1"/>
-        <v>0X0E9F</v>
+        <v>0X3FA5</v>
       </c>
     </row>
     <row r="69" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.25">
@@ -20951,12 +20951,12 @@
         <v>-0.35299999999999998</v>
       </c>
       <c r="I69" s="19">
-        <f t="shared" ref="I69:I70" si="2">3*47/(C69+47)</f>
-        <v>0.5819472532915102</v>
+        <f t="shared" si="1"/>
+        <v>2.41805274670849</v>
       </c>
       <c r="J69" s="20" t="str">
-        <f t="shared" ref="J69:J132" si="3">CONCATENATE("0X",DEC2HEX(INT(I69*(32767/4.906)),4))</f>
-        <v>0X0F2E</v>
+        <f t="shared" ref="J69:J132" si="2">CONCATENATE("0X",DEC2HEX(INT(I69*(32767/4.906)),4))</f>
+        <v>0X3F16</v>
       </c>
     </row>
     <row r="70" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.25">
@@ -20985,12 +20985,12 @@
         <v>-0.34499999999999997</v>
       </c>
       <c r="I70" s="19">
-        <f>3*47/(C70+47)</f>
-        <v>0.60389577015983964</v>
+        <f t="shared" ref="I70:I133" si="3">3*C70/(C70+47)</f>
+        <v>2.3961042298401605</v>
       </c>
       <c r="J70" s="13" t="str">
-        <f t="shared" si="3"/>
-        <v>0X0FC1</v>
+        <f t="shared" si="2"/>
+        <v>0X3E83</v>
       </c>
     </row>
     <row r="71" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.25">
@@ -21019,12 +21019,12 @@
         <v>-0.33800000000000002</v>
       </c>
       <c r="I71" s="19">
-        <f>3*47/(C71+47)</f>
-        <v>0.62634096936259809</v>
+        <f t="shared" si="3"/>
+        <v>2.3736590306374019</v>
       </c>
       <c r="J71" s="13" t="str">
-        <f t="shared" si="3"/>
-        <v>0X1057</v>
+        <f t="shared" si="2"/>
+        <v>0X3DED</v>
       </c>
     </row>
     <row r="72" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.25">
@@ -21053,12 +21053,12 @@
         <v>-0.33</v>
       </c>
       <c r="I72" s="19">
-        <f t="shared" ref="I72:I95" si="4">3*47/(C72+47)</f>
-        <v>0.64927589620795245</v>
+        <f t="shared" si="3"/>
+        <v>2.3507241037920474</v>
       </c>
       <c r="J72" s="13" t="str">
-        <f t="shared" si="3"/>
-        <v>0X10F0</v>
+        <f t="shared" si="2"/>
+        <v>0X3D54</v>
       </c>
     </row>
     <row r="73" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.25">
@@ -21087,12 +21087,12 @@
         <v>-0.32200000000000001</v>
       </c>
       <c r="I73" s="19">
-        <f t="shared" si="4"/>
-        <v>0.67269387657737179</v>
+        <f t="shared" si="3"/>
+        <v>2.3273061234226282</v>
       </c>
       <c r="J73" s="13" t="str">
-        <f t="shared" si="3"/>
-        <v>0X118C</v>
+        <f t="shared" si="2"/>
+        <v>0X3CB7</v>
       </c>
     </row>
     <row r="74" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.25">
@@ -21121,12 +21121,12 @@
         <v>-0.314</v>
       </c>
       <c r="I74" s="19">
-        <f t="shared" si="4"/>
-        <v>0.69658525017785156</v>
+        <f t="shared" si="3"/>
+        <v>2.3034147498221484</v>
       </c>
       <c r="J74" s="20" t="str">
-        <f t="shared" si="3"/>
-        <v>0X122C</v>
+        <f t="shared" si="2"/>
+        <v>0X3C18</v>
       </c>
     </row>
     <row r="75" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.25">
@@ -21155,12 +21155,12 @@
         <v>-0.30599999999999999</v>
       </c>
       <c r="I75" s="19">
-        <f t="shared" si="4"/>
-        <v>0.72094366924536113</v>
+        <f t="shared" si="3"/>
+        <v>2.279056330754639</v>
       </c>
       <c r="J75" s="13" t="str">
-        <f t="shared" si="3"/>
-        <v>0X12CF</v>
+        <f t="shared" si="2"/>
+        <v>0X3B75</v>
       </c>
     </row>
     <row r="76" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.25">
@@ -21189,12 +21189,12 @@
         <v>-0.29799999999999999</v>
       </c>
       <c r="I76" s="19">
-        <f t="shared" si="4"/>
-        <v>0.74576342903082482</v>
+        <f t="shared" si="3"/>
+        <v>2.2542365709691752</v>
       </c>
       <c r="J76" s="13" t="str">
-        <f t="shared" si="3"/>
-        <v>0X1374</v>
+        <f t="shared" si="2"/>
+        <v>0X3ACF</v>
       </c>
     </row>
     <row r="77" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.25">
@@ -21223,12 +21223,12 @@
         <v>-0.28999999999999998</v>
       </c>
       <c r="I77" s="19">
-        <f t="shared" si="4"/>
-        <v>0.77102267134748514</v>
+        <f t="shared" si="3"/>
+        <v>2.2289773286525145</v>
       </c>
       <c r="J77" s="13" t="str">
-        <f t="shared" si="3"/>
-        <v>0X141D</v>
+        <f t="shared" si="2"/>
+        <v>0X3A27</v>
       </c>
     </row>
     <row r="78" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.25">
@@ -21257,12 +21257,12 @@
         <v>-0.28199999999999997</v>
       </c>
       <c r="I78" s="19">
-        <f t="shared" si="4"/>
-        <v>0.79671819907784103</v>
+        <f t="shared" si="3"/>
+        <v>2.2032818009221589</v>
       </c>
       <c r="J78" s="13" t="str">
-        <f t="shared" si="3"/>
-        <v>0X14C9</v>
+        <f t="shared" si="2"/>
+        <v>0X397B</v>
       </c>
     </row>
     <row r="79" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.25">
@@ -21291,12 +21291,12 @@
         <v>-0.27400000000000002</v>
       </c>
       <c r="I79" s="19">
-        <f t="shared" si="4"/>
-        <v>0.82283873527935669</v>
+        <f t="shared" si="3"/>
+        <v>2.1771612647206435</v>
       </c>
       <c r="J79" s="20" t="str">
-        <f t="shared" si="3"/>
-        <v>0X1577</v>
+        <f t="shared" si="2"/>
+        <v>0X38CD</v>
       </c>
     </row>
     <row r="80" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.25">
@@ -21325,12 +21325,12 @@
         <v>-0.26500000000000001</v>
       </c>
       <c r="I80" s="19">
-        <f t="shared" si="4"/>
-        <v>0.84935665751048151</v>
+        <f t="shared" si="3"/>
+        <v>2.1506433424895186</v>
       </c>
       <c r="J80" s="13" t="str">
-        <f t="shared" si="3"/>
-        <v>0X1628</v>
+        <f t="shared" si="2"/>
+        <v>0X381C</v>
       </c>
     </row>
     <row r="81" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.25">
@@ -21359,12 +21359,12 @@
         <v>-0.25700000000000001</v>
       </c>
       <c r="I81" s="19">
-        <f t="shared" si="4"/>
-        <v>0.87627168150942458</v>
+        <f t="shared" si="3"/>
+        <v>2.1237283184905755</v>
       </c>
       <c r="J81" s="13" t="str">
-        <f t="shared" si="3"/>
-        <v>0X16DC</v>
+        <f t="shared" si="2"/>
+        <v>0X3768</v>
       </c>
     </row>
     <row r="82" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.25">
@@ -21393,12 +21393,12 @@
         <v>-0.248</v>
       </c>
       <c r="I82" s="19">
-        <f t="shared" si="4"/>
-        <v>0.90356234259751744</v>
+        <f t="shared" si="3"/>
+        <v>2.0964376574024826</v>
       </c>
       <c r="J82" s="13" t="str">
-        <f t="shared" si="3"/>
-        <v>0X1792</v>
+        <f t="shared" si="2"/>
+        <v>0X36B2</v>
       </c>
     </row>
     <row r="83" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.25">
@@ -21427,12 +21427,12 @@
         <v>-0.24</v>
       </c>
       <c r="I83" s="19">
-        <f t="shared" si="4"/>
-        <v>0.93120323345463185</v>
+        <f t="shared" si="3"/>
+        <v>2.0687967665453679</v>
       </c>
       <c r="J83" s="13" t="str">
-        <f t="shared" si="3"/>
-        <v>0X184B</v>
+        <f t="shared" si="2"/>
+        <v>0X35F9</v>
       </c>
     </row>
     <row r="84" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.25">
@@ -21461,12 +21461,12 @@
         <v>-0.23200000000000001</v>
       </c>
       <c r="I84" s="19">
-        <f t="shared" si="4"/>
-        <v>0.95918367346938771</v>
+        <f t="shared" si="3"/>
+        <v>2.0408163265306123</v>
       </c>
       <c r="J84" s="20" t="str">
-        <f t="shared" si="3"/>
-        <v>0X1906</v>
+        <f t="shared" si="2"/>
+        <v>0X353E</v>
       </c>
     </row>
     <row r="85" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.25">
@@ -21495,12 +21495,12 @@
         <v>-0.24299999999999999</v>
       </c>
       <c r="I85" s="19">
-        <f t="shared" si="4"/>
-        <v>0.98749177090190909</v>
+        <f t="shared" si="3"/>
+        <v>2.0125082290980907</v>
       </c>
       <c r="J85" s="13" t="str">
-        <f t="shared" si="3"/>
-        <v>0X19C3</v>
+        <f t="shared" si="2"/>
+        <v>0X3481</v>
       </c>
     </row>
     <row r="86" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.25">
@@ -21529,12 +21529,12 @@
         <v>-0.254</v>
       </c>
       <c r="I86" s="19">
-        <f t="shared" si="4"/>
-        <v>1.016091722095311</v>
+        <f t="shared" si="3"/>
+        <v>1.983908277904689</v>
       </c>
       <c r="J86" s="13" t="str">
-        <f t="shared" si="3"/>
-        <v>0X1A82</v>
+        <f t="shared" si="2"/>
+        <v>0X33C2</v>
       </c>
     </row>
     <row r="87" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.25">
@@ -21563,12 +21563,12 @@
         <v>-0.26500000000000001</v>
       </c>
       <c r="I87" s="19">
-        <f t="shared" si="4"/>
-        <v>1.0449708001067204</v>
+        <f t="shared" si="3"/>
+        <v>1.9550291998932794</v>
       </c>
       <c r="J87" s="13" t="str">
-        <f t="shared" si="3"/>
-        <v>0X1B43</v>
+        <f t="shared" si="2"/>
+        <v>0X3301</v>
       </c>
     </row>
     <row r="88" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.25">
@@ -21597,12 +21597,12 @@
         <v>-0.27700000000000002</v>
       </c>
       <c r="I88" s="19">
-        <f t="shared" si="4"/>
-        <v>1.074105673715644</v>
+        <f t="shared" si="3"/>
+        <v>1.9258943262843564</v>
       </c>
       <c r="J88" s="13" t="str">
-        <f t="shared" si="3"/>
-        <v>0X1C05</v>
+        <f t="shared" si="2"/>
+        <v>0X323E</v>
       </c>
     </row>
     <row r="89" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.25">
@@ -21631,12 +21631,12 @@
         <v>-0.28799999999999998</v>
       </c>
       <c r="I89" s="19">
-        <f t="shared" si="4"/>
-        <v>1.1034677059610734</v>
+        <f t="shared" si="3"/>
+        <v>1.8965322940389266</v>
       </c>
       <c r="J89" s="20" t="str">
-        <f t="shared" si="3"/>
-        <v>0X1CCA</v>
+        <f t="shared" si="2"/>
+        <v>0X317A</v>
       </c>
     </row>
     <row r="90" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.25">
@@ -21665,12 +21665,12 @@
         <v>-0.29899999999999999</v>
       </c>
       <c r="I90" s="19">
-        <f t="shared" si="4"/>
-        <v>1.1330488657457631</v>
+        <f t="shared" si="3"/>
+        <v>1.8669511342542369</v>
       </c>
       <c r="J90" s="13" t="str">
-        <f t="shared" si="3"/>
-        <v>0X1D8F</v>
+        <f t="shared" si="2"/>
+        <v>0X30B5</v>
       </c>
     </row>
     <row r="91" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.25">
@@ -21699,12 +21699,12 @@
         <v>-0.311</v>
       </c>
       <c r="I91" s="19">
-        <f t="shared" si="4"/>
-        <v>1.1628098764617594</v>
+        <f t="shared" si="3"/>
+        <v>1.8371901235382408</v>
       </c>
       <c r="J91" s="13" t="str">
-        <f t="shared" si="3"/>
-        <v>0X1E56</v>
+        <f t="shared" si="2"/>
+        <v>0X2FEE</v>
       </c>
     </row>
     <row r="92" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.25">
@@ -21733,12 +21733,12 @@
         <v>-0.32300000000000001</v>
       </c>
       <c r="I92" s="19">
-        <f t="shared" si="4"/>
-        <v>1.1927420378124602</v>
+        <f t="shared" si="3"/>
+        <v>1.8072579621875398</v>
       </c>
       <c r="J92" s="13" t="str">
-        <f t="shared" si="3"/>
-        <v>0X1F1E</v>
+        <f t="shared" si="2"/>
+        <v>0X2F26</v>
       </c>
     </row>
     <row r="93" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.25">
@@ -21767,12 +21767,12 @@
         <v>-0.33400000000000002</v>
       </c>
       <c r="I93" s="19">
-        <f>3*47/(C93+47)</f>
-        <v>1.2228013424797717</v>
+        <f t="shared" si="3"/>
+        <v>1.7771986575202283</v>
       </c>
       <c r="J93" s="13" t="str">
-        <f t="shared" si="3"/>
-        <v>0X1FE7</v>
+        <f t="shared" si="2"/>
+        <v>0X2E5D</v>
       </c>
     </row>
     <row r="94" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.25">
@@ -21801,12 +21801,12 @@
         <v>-0.34599999999999997</v>
       </c>
       <c r="I94" s="19">
-        <f t="shared" si="4"/>
-        <v>1.2529769310062915</v>
+        <f t="shared" si="3"/>
+        <v>1.7470230689937085</v>
       </c>
       <c r="J94" s="20" t="str">
-        <f t="shared" si="3"/>
-        <v>0X20B0</v>
+        <f t="shared" si="2"/>
+        <v>0X2D94</v>
       </c>
     </row>
     <row r="95" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.25">
@@ -21835,12 +21835,12 @@
         <v>-0.35799999999999998</v>
       </c>
       <c r="I95" s="19">
-        <f t="shared" si="4"/>
-        <v>1.2832414132037351</v>
+        <f t="shared" si="3"/>
+        <v>1.7167585867962651</v>
       </c>
       <c r="J95" s="13" t="str">
-        <f t="shared" si="3"/>
-        <v>0X217A</v>
+        <f t="shared" si="2"/>
+        <v>0X2CCA</v>
       </c>
     </row>
     <row r="96" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.25">
@@ -21869,12 +21869,12 @@
         <v>-0.37</v>
       </c>
       <c r="I96" s="19">
-        <f>3*47/(C96+47)</f>
-        <v>1.3135707697897354</v>
+        <f t="shared" si="3"/>
+        <v>1.6864292302102644</v>
       </c>
       <c r="J96" s="13" t="str">
-        <f t="shared" si="3"/>
-        <v>0X2245</v>
+        <f t="shared" si="2"/>
+        <v>0X2BFF</v>
       </c>
     </row>
     <row r="97" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.25">
@@ -21903,12 +21903,12 @@
         <v>-0.38200000000000001</v>
       </c>
       <c r="I97" s="19">
-        <f t="shared" ref="I97:I118" si="5">3*47/(C97+47)</f>
-        <v>1.3439322886880933</v>
+        <f t="shared" si="3"/>
+        <v>1.6560677113119067</v>
       </c>
       <c r="J97" s="13" t="str">
-        <f t="shared" si="3"/>
-        <v>0X2310</v>
+        <f t="shared" si="2"/>
+        <v>0X2B34</v>
       </c>
     </row>
     <row r="98" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.25">
@@ -21937,12 +21937,12 @@
         <v>-0.39400000000000002</v>
       </c>
       <c r="I98" s="19">
-        <f t="shared" si="5"/>
-        <v>1.3743091903272024</v>
+        <f t="shared" si="3"/>
+        <v>1.6256908096727973</v>
       </c>
       <c r="J98" s="13" t="str">
-        <f t="shared" si="3"/>
-        <v>0X23DA</v>
+        <f t="shared" si="2"/>
+        <v>0X2A69</v>
       </c>
     </row>
     <row r="99" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.25">
@@ -21971,12 +21971,12 @@
         <v>-0.40600000000000003</v>
       </c>
       <c r="I99" s="19">
-        <f t="shared" si="5"/>
-        <v>1.4046622833233713</v>
+        <f t="shared" si="3"/>
+        <v>1.5953377166766289</v>
       </c>
       <c r="J99" s="20" t="str">
-        <f t="shared" si="3"/>
-        <v>0X24A5</v>
+        <f t="shared" si="2"/>
+        <v>0X299F</v>
       </c>
     </row>
     <row r="100" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.25">
@@ -22005,12 +22005,12 @@
         <v>-0.41799999999999998</v>
       </c>
       <c r="I100" s="19">
-        <f t="shared" si="5"/>
-        <v>1.4349830549873295</v>
+        <f t="shared" si="3"/>
+        <v>1.5650169450126705</v>
       </c>
       <c r="J100" s="13" t="str">
-        <f t="shared" si="3"/>
-        <v>0X2570</v>
+        <f t="shared" si="2"/>
+        <v>0X28D4</v>
       </c>
     </row>
     <row r="101" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.25">
@@ -22039,12 +22039,12 @@
         <v>-0.43</v>
       </c>
       <c r="I101" s="19">
-        <f t="shared" si="5"/>
-        <v>1.4652395302920089</v>
+        <f t="shared" si="3"/>
+        <v>1.5347604697079915</v>
       </c>
       <c r="J101" s="13" t="str">
-        <f t="shared" si="3"/>
-        <v>0X263A</v>
+        <f t="shared" si="2"/>
+        <v>0X280A</v>
       </c>
     </row>
     <row r="102" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.25">
@@ -22073,12 +22073,12 @@
         <v>-0.443</v>
       </c>
       <c r="I102" s="19">
-        <f t="shared" si="5"/>
-        <v>1.4954024329455184</v>
+        <f t="shared" si="3"/>
+        <v>1.5045975670544816</v>
       </c>
       <c r="J102" s="13" t="str">
-        <f t="shared" si="3"/>
-        <v>0X2703</v>
+        <f t="shared" si="2"/>
+        <v>0X2741</v>
       </c>
     </row>
     <row r="103" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.25">
@@ -22107,12 +22107,12 @@
         <v>-0.45500000000000002</v>
       </c>
       <c r="I103" s="19">
-        <f t="shared" si="5"/>
-        <v>1.5254457330794529</v>
+        <f t="shared" si="3"/>
+        <v>1.4745542669205469</v>
       </c>
       <c r="J103" s="13" t="str">
-        <f t="shared" si="3"/>
-        <v>0X27CC</v>
+        <f t="shared" si="2"/>
+        <v>0X2678</v>
       </c>
     </row>
     <row r="104" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.25">
@@ -22141,12 +22141,12 @@
         <v>-0.46700000000000003</v>
       </c>
       <c r="I104" s="19">
-        <f t="shared" si="5"/>
-        <v>1.5553643523727581</v>
+        <f t="shared" si="3"/>
+        <v>1.4446356476272424</v>
       </c>
       <c r="J104" s="20" t="str">
-        <f t="shared" si="3"/>
-        <v>0X2894</v>
+        <f t="shared" si="2"/>
+        <v>0X25B0</v>
       </c>
     </row>
     <row r="105" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.25">
@@ -22175,12 +22175,12 @@
         <v>-0.48</v>
       </c>
       <c r="I105" s="19">
-        <f t="shared" si="5"/>
-        <v>1.5851245615612914</v>
+        <f t="shared" si="3"/>
+        <v>1.4148754384387086</v>
       </c>
       <c r="J105" s="13" t="str">
-        <f t="shared" si="3"/>
-        <v>0X295A</v>
+        <f t="shared" si="2"/>
+        <v>0X24E9</v>
       </c>
     </row>
     <row r="106" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.25">
@@ -22209,12 +22209,12 @@
         <v>-0.49199999999999999</v>
       </c>
       <c r="I106" s="19">
-        <f t="shared" si="5"/>
-        <v>1.6146948684768043</v>
+        <f t="shared" si="3"/>
+        <v>1.3853051315231952</v>
       </c>
       <c r="J106" s="13" t="str">
-        <f t="shared" si="3"/>
-        <v>0X2A20</v>
+        <f t="shared" si="2"/>
+        <v>0X2424</v>
       </c>
     </row>
     <row r="107" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.25">
@@ -22243,12 +22243,12 @@
         <v>-0.505</v>
       </c>
       <c r="I107" s="19">
-        <f t="shared" si="5"/>
-        <v>1.6440464530572265</v>
+        <f t="shared" si="3"/>
+        <v>1.355953546942773</v>
       </c>
       <c r="J107" s="13" t="str">
-        <f t="shared" si="3"/>
-        <v>0X2AE4</v>
+        <f t="shared" si="2"/>
+        <v>0X2360</v>
       </c>
     </row>
     <row r="108" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.25">
@@ -22277,12 +22277,12 @@
         <v>-0.51800000000000002</v>
       </c>
       <c r="I108" s="19">
-        <f t="shared" si="5"/>
-        <v>1.6731933072267708</v>
+        <f t="shared" si="3"/>
+        <v>1.3268066927732287</v>
       </c>
       <c r="J108" s="13" t="str">
-        <f t="shared" si="3"/>
-        <v>0X2BA7</v>
+        <f t="shared" si="2"/>
+        <v>0X229D</v>
       </c>
     </row>
     <row r="109" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.25">
@@ -22311,12 +22311,12 @@
         <v>-0.53</v>
       </c>
       <c r="I109" s="19">
-        <f t="shared" si="5"/>
-        <v>1.7020762916465475</v>
+        <f t="shared" si="3"/>
+        <v>1.2979237083534525</v>
       </c>
       <c r="J109" s="20" t="str">
-        <f t="shared" si="3"/>
-        <v>0X2C68</v>
+        <f t="shared" si="2"/>
+        <v>0X21DC</v>
       </c>
     </row>
     <row r="110" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.25">
@@ -22345,12 +22345,12 @@
         <v>-0.54300000000000004</v>
       </c>
       <c r="I110" s="19">
-        <f t="shared" si="5"/>
-        <v>1.7307196602388639</v>
+        <f t="shared" si="3"/>
+        <v>1.2692803397611363</v>
       </c>
       <c r="J110" s="13" t="str">
-        <f t="shared" si="3"/>
-        <v>0X2D27</v>
+        <f t="shared" si="2"/>
+        <v>0X211D</v>
       </c>
     </row>
     <row r="111" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.25">
@@ -22379,12 +22379,12 @@
         <v>-0.55600000000000005</v>
       </c>
       <c r="I111" s="19">
-        <f t="shared" si="5"/>
-        <v>1.759069813862967</v>
+        <f t="shared" si="3"/>
+        <v>1.2409301861370325</v>
       </c>
       <c r="J111" s="13" t="str">
-        <f t="shared" si="3"/>
-        <v>0X2DE4</v>
+        <f t="shared" si="2"/>
+        <v>0X2060</v>
       </c>
     </row>
     <row r="112" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.25">
@@ -22413,12 +22413,12 @@
         <v>-0.56899999999999995</v>
       </c>
       <c r="I112" s="19">
-        <f t="shared" si="5"/>
-        <v>1.787117544170955</v>
+        <f t="shared" si="3"/>
+        <v>1.2128824558290452</v>
       </c>
       <c r="J112" s="13" t="str">
-        <f t="shared" si="3"/>
-        <v>0X2EA0</v>
+        <f t="shared" si="2"/>
+        <v>0X1FA4</v>
       </c>
     </row>
     <row r="113" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.25">
@@ -22447,12 +22447,12 @@
         <v>-0.58199999999999996</v>
       </c>
       <c r="I113" s="19">
-        <f t="shared" si="5"/>
-        <v>1.814835313348693</v>
+        <f t="shared" si="3"/>
+        <v>1.1851646866513073</v>
       </c>
       <c r="J113" s="13" t="str">
-        <f t="shared" si="3"/>
-        <v>0X2F59</v>
+        <f t="shared" si="2"/>
+        <v>0X1EEB</v>
       </c>
     </row>
     <row r="114" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.25">
@@ -22481,12 +22481,12 @@
         <v>-0.59499999999999997</v>
       </c>
       <c r="I114" s="19">
-        <f t="shared" si="5"/>
-        <v>1.8422221641537537</v>
+        <f t="shared" si="3"/>
+        <v>1.1577778358462465</v>
       </c>
       <c r="J114" s="20" t="str">
-        <f t="shared" si="3"/>
-        <v>0X3010</v>
+        <f t="shared" si="2"/>
+        <v>0X1E34</v>
       </c>
     </row>
     <row r="115" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.25">
@@ -22515,12 +22515,12 @@
         <v>-0.60799999999999998</v>
       </c>
       <c r="I115" s="19">
-        <f t="shared" si="5"/>
-        <v>1.8692827787352511</v>
+        <f t="shared" si="3"/>
+        <v>1.1307172212647485</v>
       </c>
       <c r="J115" s="13" t="str">
-        <f t="shared" si="3"/>
-        <v>0X30C4</v>
+        <f t="shared" si="2"/>
+        <v>0X1D80</v>
       </c>
     </row>
     <row r="116" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.25">
@@ -22549,12 +22549,12 @@
         <v>-0.622</v>
       </c>
       <c r="I116" s="19">
-        <f t="shared" si="5"/>
-        <v>1.8959767641996559</v>
+        <f t="shared" si="3"/>
+        <v>1.1040232358003443</v>
       </c>
       <c r="J116" s="13" t="str">
-        <f t="shared" si="3"/>
-        <v>0X3177</v>
+        <f t="shared" si="2"/>
+        <v>0X1CCD</v>
       </c>
     </row>
     <row r="117" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.25">
@@ -22583,12 +22583,12 @@
         <v>-0.63500000000000001</v>
       </c>
       <c r="I117" s="19">
-        <f t="shared" si="5"/>
-        <v>1.9222903885480573</v>
+        <f t="shared" si="3"/>
+        <v>1.0777096114519429</v>
       </c>
       <c r="J117" s="13" t="str">
-        <f t="shared" si="3"/>
-        <v>0X3226</v>
+        <f t="shared" si="2"/>
+        <v>0X1C1D</v>
       </c>
     </row>
     <row r="118" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.25">
@@ -22617,12 +22617,12 @@
         <v>-0.64800000000000002</v>
       </c>
       <c r="I118" s="19">
-        <f>3*47/(C118+47)</f>
-        <v>1.9482134468179182</v>
+        <f t="shared" si="3"/>
+        <v>1.051786553182082</v>
       </c>
       <c r="J118" s="13" t="str">
-        <f t="shared" si="3"/>
-        <v>0X32D4</v>
+        <f t="shared" si="2"/>
+        <v>0X1B70</v>
       </c>
     </row>
     <row r="119" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.25">
@@ -22651,12 +22651,12 @@
         <v>-0.66200000000000003</v>
       </c>
       <c r="I119" s="19">
-        <f>3*47/(C119+47)</f>
-        <v>1.9737670954827331</v>
+        <f t="shared" si="3"/>
+        <v>1.0262329045172671</v>
       </c>
       <c r="J119" s="20" t="str">
-        <f t="shared" si="3"/>
-        <v>0X337E</v>
+        <f t="shared" si="2"/>
+        <v>0X1AC6</v>
       </c>
     </row>
     <row r="120" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.25">
@@ -22685,12 +22685,12 @@
         <v>-0.67500000000000004</v>
       </c>
       <c r="I120" s="19">
-        <f t="shared" ref="I120:I143" si="6">3*47/(C120+47)</f>
-        <v>1.9988942287245353</v>
+        <f t="shared" si="3"/>
+        <v>1.0011057712754647</v>
       </c>
       <c r="J120" s="13" t="str">
-        <f t="shared" si="3"/>
-        <v>0X3426</v>
+        <f t="shared" si="2"/>
+        <v>0X1A1E</v>
       </c>
     </row>
     <row r="121" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.25">
@@ -22719,12 +22719,12 @@
         <v>-0.68899999999999995</v>
       </c>
       <c r="I121" s="19">
-        <f t="shared" si="6"/>
-        <v>2.0235942478257125</v>
+        <f t="shared" si="3"/>
+        <v>0.9764057521742876</v>
       </c>
       <c r="J121" s="13" t="str">
-        <f t="shared" si="3"/>
-        <v>0X34CB</v>
+        <f t="shared" si="2"/>
+        <v>0X1979</v>
       </c>
     </row>
     <row r="122" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.25">
@@ -22753,12 +22753,12 @@
         <v>-0.70199999999999996</v>
       </c>
       <c r="I122" s="19">
-        <f t="shared" si="6"/>
-        <v>2.0479005388447518</v>
+        <f t="shared" si="3"/>
+        <v>0.95209946115524824</v>
       </c>
       <c r="J122" s="13" t="str">
-        <f t="shared" si="3"/>
-        <v>0X356D</v>
+        <f t="shared" si="2"/>
+        <v>0X18D7</v>
       </c>
     </row>
     <row r="123" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.25">
@@ -22787,12 +22787,12 @@
         <v>-0.71599999999999997</v>
       </c>
       <c r="I123" s="19">
-        <f t="shared" si="6"/>
-        <v>2.0717927619495424</v>
+        <f t="shared" si="3"/>
+        <v>0.92820723805045757</v>
       </c>
       <c r="J123" s="13" t="str">
-        <f t="shared" si="3"/>
-        <v>0X360D</v>
+        <f t="shared" si="2"/>
+        <v>0X1837</v>
       </c>
     </row>
     <row r="124" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.25">
@@ -22821,12 +22821,12 @@
         <v>-0.73</v>
       </c>
       <c r="I124" s="19">
-        <f t="shared" si="6"/>
-        <v>2.0952211126961484</v>
+        <f t="shared" si="3"/>
+        <v>0.9047788873038517</v>
       </c>
       <c r="J124" s="20" t="str">
-        <f t="shared" si="3"/>
-        <v>0X36A9</v>
+        <f t="shared" si="2"/>
+        <v>0X179A</v>
       </c>
     </row>
     <row r="125" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.25">
@@ -22855,12 +22855,12 @@
         <v>-0.74299999999999999</v>
       </c>
       <c r="I125" s="19">
-        <f t="shared" si="6"/>
-        <v>2.1182303012093442</v>
+        <f t="shared" si="3"/>
+        <v>0.88176969879065592</v>
       </c>
       <c r="J125" s="13" t="str">
-        <f t="shared" si="3"/>
-        <v>0X3743</v>
+        <f t="shared" si="2"/>
+        <v>0X1701</v>
       </c>
     </row>
     <row r="126" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.25">
@@ -22889,12 +22889,12 @@
         <v>-0.75700000000000001</v>
       </c>
       <c r="I126" s="19">
-        <f t="shared" si="6"/>
-        <v>2.1408074336121952</v>
+        <f t="shared" si="3"/>
+        <v>0.85919256638780495</v>
       </c>
       <c r="J126" s="13" t="str">
-        <f t="shared" si="3"/>
-        <v>0X37DA</v>
+        <f t="shared" si="2"/>
+        <v>0X166A</v>
       </c>
     </row>
     <row r="127" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.25">
@@ -22923,12 +22923,12 @@
         <v>-0.77100000000000002</v>
       </c>
       <c r="I127" s="19">
-        <f t="shared" si="6"/>
-        <v>2.1629416005767848</v>
+        <f t="shared" si="3"/>
+        <v>0.83705839942321569</v>
       </c>
       <c r="J127" s="13" t="str">
-        <f t="shared" si="3"/>
-        <v>0X386E</v>
+        <f t="shared" si="2"/>
+        <v>0X15D6</v>
       </c>
     </row>
     <row r="128" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.25">
@@ -22957,12 +22957,12 @@
         <v>-0.78500000000000003</v>
       </c>
       <c r="I128" s="19">
-        <f t="shared" si="6"/>
-        <v>2.1846239657897182</v>
+        <f t="shared" si="3"/>
+        <v>0.81537603421028171</v>
       </c>
       <c r="J128" s="13" t="str">
-        <f t="shared" si="3"/>
-        <v>0X38FF</v>
+        <f t="shared" si="2"/>
+        <v>0X1545</v>
       </c>
     </row>
     <row r="129" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.25">
@@ -22991,12 +22991,12 @@
         <v>-0.79900000000000004</v>
       </c>
       <c r="I129" s="19">
-        <f t="shared" si="6"/>
-        <v>2.2058478434317359</v>
+        <f t="shared" si="3"/>
+        <v>0.79415215656826388</v>
       </c>
       <c r="J129" s="20" t="str">
-        <f t="shared" si="3"/>
-        <v>0X398C</v>
+        <f t="shared" si="2"/>
+        <v>0X14B8</v>
       </c>
     </row>
     <row r="130" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.25">
@@ -23025,12 +23025,12 @@
         <v>-0.81299999999999994</v>
       </c>
       <c r="I130" s="19">
-        <f t="shared" si="6"/>
-        <v>2.2266439264733751</v>
+        <f t="shared" si="3"/>
+        <v>0.77335607352662517</v>
       </c>
       <c r="J130" s="13" t="str">
-        <f t="shared" si="3"/>
-        <v>0X3A17</v>
+        <f t="shared" si="2"/>
+        <v>0X142D</v>
       </c>
     </row>
     <row r="131" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.25">
@@ -23059,12 +23059,12 @@
         <v>-0.82799999999999996</v>
       </c>
       <c r="I131" s="19">
-        <f t="shared" si="6"/>
-        <v>2.2469761438064735</v>
+        <f t="shared" si="3"/>
+        <v>0.75302385619352685</v>
       </c>
       <c r="J131" s="13" t="str">
-        <f t="shared" si="3"/>
-        <v>0X3A9F</v>
+        <f t="shared" si="2"/>
+        <v>0X13A5</v>
       </c>
     </row>
     <row r="132" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.25">
@@ -23093,12 +23093,12 @@
         <v>-0.84199999999999997</v>
       </c>
       <c r="I132" s="19">
-        <f t="shared" si="6"/>
-        <v>2.2668810289389065</v>
+        <f t="shared" si="3"/>
+        <v>0.73311897106109314</v>
       </c>
       <c r="J132" s="13" t="str">
-        <f t="shared" si="3"/>
-        <v>0X3B24</v>
+        <f t="shared" si="2"/>
+        <v>0X1320</v>
       </c>
     </row>
     <row r="133" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.25">
@@ -23127,12 +23127,12 @@
         <v>-0.85599999999999998</v>
       </c>
       <c r="I133" s="19">
-        <f t="shared" si="6"/>
-        <v>2.286325825752785</v>
+        <f t="shared" si="3"/>
+        <v>0.71367417424721502</v>
       </c>
       <c r="J133" s="13" t="str">
-        <f t="shared" ref="J133:J196" si="7">CONCATENATE("0X",DEC2HEX(INT(I133*(32767/4.906)),4))</f>
-        <v>0X3BA6</v>
+        <f t="shared" ref="J133:J196" si="4">CONCATENATE("0X",DEC2HEX(INT(I133*(32767/4.906)),4))</f>
+        <v>0X129E</v>
       </c>
     </row>
     <row r="134" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.25">
@@ -23161,12 +23161,12 @@
         <v>-0.871</v>
       </c>
       <c r="I134" s="19">
-        <f t="shared" si="6"/>
-        <v>2.305352996958896</v>
+        <f t="shared" ref="I134:I197" si="5">3*C134/(C134+47)</f>
+        <v>0.69464700304110405</v>
       </c>
       <c r="J134" s="20" t="str">
-        <f t="shared" si="7"/>
-        <v>0X3C25</v>
+        <f t="shared" si="4"/>
+        <v>0X121F</v>
       </c>
     </row>
     <row r="135" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.25">
@@ -23195,12 +23195,12 @@
         <v>-0.88500000000000001</v>
       </c>
       <c r="I135" s="19">
-        <f t="shared" si="6"/>
-        <v>2.3239332157631893</v>
+        <f t="shared" si="5"/>
+        <v>0.67606678423681044</v>
       </c>
       <c r="J135" s="13" t="str">
-        <f t="shared" si="7"/>
-        <v>0X3CA1</v>
+        <f t="shared" si="4"/>
+        <v>0X11A3</v>
       </c>
     </row>
     <row r="136" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.25">
@@ -23229,12 +23229,12 @@
         <v>-0.9</v>
       </c>
       <c r="I136" s="19">
-        <f t="shared" si="6"/>
-        <v>2.3420759762802517</v>
+        <f t="shared" si="5"/>
+        <v>0.65792402371974812</v>
       </c>
       <c r="J136" s="13" t="str">
-        <f t="shared" si="7"/>
-        <v>0X3D1A</v>
+        <f t="shared" si="4"/>
+        <v>0X112A</v>
       </c>
     </row>
     <row r="137" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.25">
@@ -23263,12 +23263,12 @@
         <v>-0.91400000000000003</v>
       </c>
       <c r="I137" s="19">
-        <f t="shared" si="6"/>
-        <v>2.3597931415373803</v>
+        <f t="shared" si="5"/>
+        <v>0.64020685846261993</v>
       </c>
       <c r="J137" s="13" t="str">
-        <f t="shared" si="7"/>
-        <v>0X3D90</v>
+        <f t="shared" si="4"/>
+        <v>0X10B3</v>
       </c>
     </row>
     <row r="138" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.25">
@@ -23297,12 +23297,12 @@
         <v>-0.92900000000000005</v>
       </c>
       <c r="I138" s="19">
-        <f t="shared" si="6"/>
-        <v>2.3770989277766539</v>
+        <f t="shared" si="5"/>
+        <v>0.62290107222334612</v>
       </c>
       <c r="J138" s="13" t="str">
-        <f t="shared" si="7"/>
-        <v>0X3E04</v>
+        <f t="shared" si="4"/>
+        <v>0X1040</v>
       </c>
     </row>
     <row r="139" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.25">
@@ -23331,12 +23331,12 @@
         <v>-0.94399999999999995</v>
       </c>
       <c r="I139" s="19">
-        <f t="shared" si="6"/>
-        <v>2.3939692349485551</v>
+        <f t="shared" si="5"/>
+        <v>0.60603076505144493</v>
       </c>
       <c r="J139" s="20" t="str">
-        <f t="shared" si="7"/>
-        <v>0X3E75</v>
+        <f t="shared" si="4"/>
+        <v>0X0FCF</v>
       </c>
     </row>
     <row r="140" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.25">
@@ -23365,12 +23365,12 @@
         <v>-0.95799999999999996</v>
       </c>
       <c r="I140" s="19">
-        <f t="shared" si="6"/>
-        <v>2.4104212253829322</v>
+        <f t="shared" si="5"/>
+        <v>0.58957877461706776</v>
       </c>
       <c r="J140" s="13" t="str">
-        <f t="shared" si="7"/>
-        <v>0X3EE3</v>
+        <f t="shared" si="4"/>
+        <v>0X0F61</v>
       </c>
     </row>
     <row r="141" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.25">
@@ -23399,12 +23399,12 @@
         <v>-0.97299999999999998</v>
       </c>
       <c r="I141" s="19">
-        <f>3*47/(C141+47)</f>
-        <v>2.4264743843466587</v>
+        <f t="shared" si="5"/>
+        <v>0.57352561565334104</v>
       </c>
       <c r="J141" s="13" t="str">
-        <f t="shared" si="7"/>
-        <v>0X3F4E</v>
+        <f t="shared" si="4"/>
+        <v>0X0EF6</v>
       </c>
     </row>
     <row r="142" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.25">
@@ -23433,12 +23433,12 @@
         <v>-0.98799999999999999</v>
       </c>
       <c r="I142" s="19">
-        <f t="shared" si="6"/>
-        <v>2.4421081801964077</v>
+        <f t="shared" si="5"/>
+        <v>0.55789181980359215</v>
       </c>
       <c r="J142" s="13" t="str">
-        <f t="shared" si="7"/>
-        <v>0X3FB6</v>
+        <f t="shared" si="4"/>
+        <v>0X0E8E</v>
       </c>
     </row>
     <row r="143" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.25">
@@ -23467,12 +23467,12 @@
         <v>-1.0029999999999999</v>
       </c>
       <c r="I143" s="19">
-        <f t="shared" si="6"/>
-        <v>2.4573450216978339</v>
+        <f t="shared" si="5"/>
+        <v>0.54265497830216636</v>
       </c>
       <c r="J143" s="13" t="str">
-        <f t="shared" si="7"/>
-        <v>0X401C</v>
+        <f t="shared" si="4"/>
+        <v>0X0E28</v>
       </c>
     </row>
     <row r="144" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.25">
@@ -23501,12 +23501,12 @@
         <v>-1.018</v>
       </c>
       <c r="I144" s="19">
-        <f>3*47/(C144+47)</f>
-        <v>2.4721662137284124</v>
+        <f t="shared" si="5"/>
+        <v>0.52783378627158761</v>
       </c>
       <c r="J144" s="20" t="str">
-        <f t="shared" si="7"/>
-        <v>0X407F</v>
+        <f t="shared" si="4"/>
+        <v>0X0DC5</v>
       </c>
     </row>
     <row r="145" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.25">
@@ -23535,12 +23535,12 @@
         <v>-1.034</v>
       </c>
       <c r="I145" s="19">
-        <f t="shared" ref="I145:I164" si="8">3*47/(C145+47)</f>
-        <v>2.4866409184699223</v>
+        <f t="shared" si="5"/>
+        <v>0.5133590815300777</v>
       </c>
       <c r="J145" s="13" t="str">
-        <f t="shared" si="7"/>
-        <v>0X40E0</v>
+        <f t="shared" si="4"/>
+        <v>0X0D64</v>
       </c>
     </row>
     <row r="146" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.25">
@@ -23569,12 +23569,12 @@
         <v>-1.0489999999999999</v>
       </c>
       <c r="I146" s="19">
-        <f t="shared" si="8"/>
-        <v>2.5007537733004632</v>
+        <f t="shared" si="5"/>
+        <v>0.49924622669953711</v>
       </c>
       <c r="J146" s="13" t="str">
-        <f t="shared" si="7"/>
-        <v>0X413E</v>
+        <f t="shared" si="4"/>
+        <v>0X0D06</v>
       </c>
     </row>
     <row r="147" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.25">
@@ -23603,12 +23603,12 @@
         <v>-1.0640000000000001</v>
       </c>
       <c r="I147" s="19">
-        <f t="shared" si="8"/>
-        <v>2.514444682216991</v>
+        <f t="shared" si="5"/>
+        <v>0.48555531778300881</v>
       </c>
       <c r="J147" s="13" t="str">
-        <f t="shared" si="7"/>
-        <v>0X4199</v>
+        <f t="shared" si="4"/>
+        <v>0X0CAB</v>
       </c>
     </row>
     <row r="148" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.25">
@@ -23637,12 +23637,12 @@
         <v>-1.079</v>
       </c>
       <c r="I148" s="19">
-        <f t="shared" si="8"/>
-        <v>2.5277877375403368</v>
+        <f t="shared" si="5"/>
+        <v>0.47221226245966291</v>
       </c>
       <c r="J148" s="13" t="str">
-        <f t="shared" si="7"/>
-        <v>0X41F3</v>
+        <f t="shared" si="4"/>
+        <v>0X0C51</v>
       </c>
     </row>
     <row r="149" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.25">
@@ -23671,12 +23671,12 @@
         <v>-1.095</v>
       </c>
       <c r="I149" s="19">
-        <f t="shared" si="8"/>
-        <v>2.5407694386881703</v>
+        <f t="shared" si="5"/>
+        <v>0.45923056131182993</v>
       </c>
       <c r="J149" s="20" t="str">
-        <f t="shared" si="7"/>
-        <v>0X4249</v>
+        <f t="shared" si="4"/>
+        <v>0X0BFB</v>
       </c>
     </row>
     <row r="150" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.25">
@@ -23705,12 +23705,12 @@
         <v>-1.1100000000000001</v>
       </c>
       <c r="I150" s="19">
-        <f t="shared" si="8"/>
-        <v>2.5534226729445852</v>
+        <f t="shared" si="5"/>
+        <v>0.44657732705541481</v>
       </c>
       <c r="J150" s="13" t="str">
-        <f t="shared" si="7"/>
-        <v>0X429E</v>
+        <f t="shared" si="4"/>
+        <v>0X0BA6</v>
       </c>
     </row>
     <row r="151" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.25">
@@ -23739,12 +23739,12 @@
         <v>-1.1259999999999999</v>
       </c>
       <c r="I151" s="19">
-        <f t="shared" si="8"/>
-        <v>2.5656889147681778</v>
+        <f t="shared" si="5"/>
+        <v>0.43431108523182183</v>
       </c>
       <c r="J151" s="13" t="str">
-        <f t="shared" si="7"/>
-        <v>0X42F0</v>
+        <f t="shared" si="4"/>
+        <v>0X0B54</v>
       </c>
     </row>
     <row r="152" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.25">
@@ -23773,12 +23773,12 @@
         <v>-1.141</v>
       </c>
       <c r="I152" s="19">
-        <f t="shared" si="8"/>
-        <v>2.5776494031187731</v>
+        <f t="shared" si="5"/>
+        <v>0.422350596881227</v>
       </c>
       <c r="J152" s="13" t="str">
-        <f t="shared" si="7"/>
-        <v>0X4340</v>
+        <f t="shared" si="4"/>
+        <v>0X0B04</v>
       </c>
     </row>
     <row r="153" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.25">
@@ -23807,12 +23807,12 @@
         <v>-1.157</v>
       </c>
       <c r="I153" s="19">
-        <f t="shared" si="8"/>
-        <v>2.5892939124047381</v>
+        <f t="shared" si="5"/>
+        <v>0.41070608759526217</v>
       </c>
       <c r="J153" s="13" t="str">
-        <f t="shared" si="7"/>
-        <v>0X438D</v>
+        <f t="shared" si="4"/>
+        <v>0X0AB7</v>
       </c>
     </row>
     <row r="154" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.25">
@@ -23841,12 +23841,12 @@
         <v>-1.173</v>
       </c>
       <c r="I154" s="19">
-        <f t="shared" si="8"/>
-        <v>2.6005643778011396</v>
+        <f t="shared" si="5"/>
+        <v>0.3994356221988602</v>
       </c>
       <c r="J154" s="20" t="str">
-        <f t="shared" si="7"/>
-        <v>0X43D9</v>
+        <f t="shared" si="4"/>
+        <v>0X0A6B</v>
       </c>
     </row>
     <row r="155" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.25">
@@ -23875,12 +23875,12 @@
         <v>-1.1890000000000001</v>
       </c>
       <c r="I155" s="19">
-        <f t="shared" si="8"/>
-        <v>2.6115947397666233</v>
+        <f t="shared" si="5"/>
+        <v>0.38840526023337651</v>
       </c>
       <c r="J155" s="13" t="str">
-        <f t="shared" si="7"/>
-        <v>0X4422</v>
+        <f t="shared" si="4"/>
+        <v>0X0A22</v>
       </c>
     </row>
     <row r="156" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.25">
@@ -23909,12 +23909,12 @@
         <v>-1.2050000000000001</v>
       </c>
       <c r="I156" s="19">
-        <f t="shared" si="8"/>
-        <v>2.6222800818300169</v>
+        <f t="shared" si="5"/>
+        <v>0.37771991816998329</v>
       </c>
       <c r="J156" s="13" t="str">
-        <f t="shared" si="7"/>
-        <v>0X446A</v>
+        <f t="shared" si="4"/>
+        <v>0X09DA</v>
       </c>
     </row>
     <row r="157" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.25">
@@ -23943,12 +23943,12 @@
         <v>-1.2210000000000001</v>
       </c>
       <c r="I157" s="19">
-        <f t="shared" si="8"/>
-        <v>2.6326599200866352</v>
+        <f t="shared" si="5"/>
+        <v>0.36734007991336493</v>
       </c>
       <c r="J157" s="13" t="str">
-        <f t="shared" si="7"/>
-        <v>0X44AF</v>
+        <f t="shared" si="4"/>
+        <v>0X0995</v>
       </c>
     </row>
     <row r="158" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.25">
@@ -23977,12 +23977,12 @@
         <v>-1.2370000000000001</v>
       </c>
       <c r="I158" s="19">
-        <f t="shared" si="8"/>
-        <v>2.6427259436968176</v>
+        <f t="shared" si="5"/>
+        <v>0.35727405630318254</v>
       </c>
       <c r="J158" s="13" t="str">
-        <f t="shared" si="7"/>
-        <v>0X44F2</v>
+        <f t="shared" si="4"/>
+        <v>0X0952</v>
       </c>
     </row>
     <row r="159" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.25">
@@ -24011,12 +24011,12 @@
         <v>-1.2529999999999999</v>
       </c>
       <c r="I159" s="19">
-        <f t="shared" si="8"/>
-        <v>2.6517217384762941</v>
+        <f t="shared" si="5"/>
+        <v>0.34827826152370561</v>
       </c>
       <c r="J159" s="20" t="str">
-        <f t="shared" si="7"/>
-        <v>0X452E</v>
+        <f t="shared" si="4"/>
+        <v>0X0916</v>
       </c>
     </row>
     <row r="160" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.25">
@@ -24045,12 +24045,12 @@
         <v>-1.2689999999999999</v>
       </c>
       <c r="I160" s="19">
-        <f t="shared" si="8"/>
-        <v>2.6620851112034134</v>
+        <f t="shared" si="5"/>
+        <v>0.33791488879658649</v>
       </c>
       <c r="J160" s="13" t="str">
-        <f t="shared" si="7"/>
-        <v>0X4573</v>
+        <f t="shared" si="4"/>
+        <v>0X08D0</v>
       </c>
     </row>
     <row r="161" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.25">
@@ -24079,12 +24079,12 @@
         <v>-1.2849999999999999</v>
       </c>
       <c r="I161" s="19">
-        <f t="shared" si="8"/>
-        <v>2.6713146278157738</v>
+        <f t="shared" si="5"/>
+        <v>0.328685372184226</v>
       </c>
       <c r="J161" s="13" t="str">
-        <f t="shared" si="7"/>
-        <v>0X45B1</v>
+        <f t="shared" si="4"/>
+        <v>0X0893</v>
       </c>
     </row>
     <row r="162" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.25">
@@ -24113,12 +24113,12 @@
         <v>-1.3009999999999999</v>
       </c>
       <c r="I162" s="19">
-        <f t="shared" si="8"/>
-        <v>2.6803026270767591</v>
+        <f t="shared" si="5"/>
+        <v>0.31969737292324063</v>
       </c>
       <c r="J162" s="13" t="str">
-        <f t="shared" si="7"/>
-        <v>0X45ED</v>
+        <f t="shared" si="4"/>
+        <v>0X0857</v>
       </c>
     </row>
     <row r="163" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.25">
@@ -24147,12 +24147,12 @@
         <v>-1.3180000000000001</v>
       </c>
       <c r="I163" s="19">
-        <f t="shared" si="8"/>
-        <v>2.6890435777629444</v>
+        <f t="shared" si="5"/>
+        <v>0.31095642223705539</v>
       </c>
       <c r="J163" s="13" t="str">
-        <f t="shared" si="7"/>
-        <v>0X4628</v>
+        <f t="shared" si="4"/>
+        <v>0X081C</v>
       </c>
     </row>
     <row r="164" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.25">
@@ -24181,12 +24181,12 @@
         <v>-1.3340000000000001</v>
       </c>
       <c r="I164" s="19">
-        <f t="shared" si="8"/>
-        <v>2.6975320451501821</v>
+        <f t="shared" si="5"/>
+        <v>0.30246795484981825</v>
       </c>
       <c r="J164" s="20" t="str">
-        <f t="shared" si="7"/>
-        <v>0X4660</v>
+        <f t="shared" si="4"/>
+        <v>0X07E4</v>
       </c>
     </row>
     <row r="165" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.25">
@@ -24215,12 +24215,12 @@
         <v>-1.351</v>
       </c>
       <c r="I165" s="19">
-        <f>3*47/(C165+47)</f>
-        <v>2.7057626988543686</v>
+        <f t="shared" si="5"/>
+        <v>0.2942373011456314</v>
       </c>
       <c r="J165" s="13" t="str">
-        <f t="shared" si="7"/>
-        <v>0X4697</v>
+        <f t="shared" si="4"/>
+        <v>0X07AD</v>
       </c>
     </row>
     <row r="166" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.25">
@@ -24249,12 +24249,12 @@
         <v>-1.367</v>
       </c>
       <c r="I166" s="19">
-        <f t="shared" ref="I166:I192" si="9">3*47/(C166+47)</f>
-        <v>2.7137825509555977</v>
+        <f t="shared" si="5"/>
+        <v>0.28621744904440205</v>
       </c>
       <c r="J166" s="13" t="str">
-        <f t="shared" si="7"/>
-        <v>0X46CD</v>
+        <f t="shared" si="4"/>
+        <v>0X0777</v>
       </c>
     </row>
     <row r="167" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.25">
@@ -24283,12 +24283,12 @@
         <v>-1.3839999999999999</v>
       </c>
       <c r="I167" s="19">
-        <f t="shared" si="9"/>
-        <v>2.7215348684591483</v>
+        <f t="shared" si="5"/>
+        <v>0.27846513154085201</v>
       </c>
       <c r="J167" s="13" t="str">
-        <f t="shared" si="7"/>
-        <v>0X4701</v>
+        <f t="shared" si="4"/>
+        <v>0X0743</v>
       </c>
     </row>
     <row r="168" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.25">
@@ -24317,12 +24317,12 @@
         <v>-1.401</v>
       </c>
       <c r="I168" s="19">
-        <f t="shared" si="9"/>
-        <v>2.7290674718383463</v>
+        <f t="shared" si="5"/>
+        <v>0.27093252816165375</v>
       </c>
       <c r="J168" s="13" t="str">
-        <f t="shared" si="7"/>
-        <v>0X4733</v>
+        <f t="shared" si="4"/>
+        <v>0X0711</v>
       </c>
     </row>
     <row r="169" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.25">
@@ -24351,12 +24351,12 @@
         <v>-1.417</v>
       </c>
       <c r="I169" s="19">
-        <f t="shared" si="9"/>
-        <v>2.7364294447571176</v>
+        <f t="shared" si="5"/>
+        <v>0.26357055524288237</v>
       </c>
       <c r="J169" s="20" t="str">
-        <f t="shared" si="7"/>
-        <v>0X4764</v>
+        <f t="shared" si="4"/>
+        <v>0X06E0</v>
       </c>
     </row>
     <row r="170" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.25">
@@ -24385,12 +24385,12 @@
         <v>-1.4339999999999999</v>
       </c>
       <c r="I170" s="19">
-        <f t="shared" si="9"/>
-        <v>2.7435109156710902</v>
+        <f t="shared" si="5"/>
+        <v>0.25648908432890999</v>
       </c>
       <c r="J170" s="13" t="str">
-        <f t="shared" si="7"/>
-        <v>0X4793</v>
+        <f t="shared" si="4"/>
+        <v>0X06B1</v>
       </c>
     </row>
     <row r="171" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.25">
@@ -24419,12 +24419,12 @@
         <v>-1.4510000000000001</v>
       </c>
       <c r="I171" s="19">
-        <f t="shared" si="9"/>
-        <v>2.7504681647940075</v>
+        <f t="shared" si="5"/>
+        <v>0.24953183520599254</v>
       </c>
       <c r="J171" s="13" t="str">
-        <f t="shared" si="7"/>
-        <v>0X47C2</v>
+        <f t="shared" si="4"/>
+        <v>0X0682</v>
       </c>
     </row>
     <row r="172" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.25">
@@ -24453,12 +24453,12 @@
         <v>-1.468</v>
       </c>
       <c r="I172" s="19">
-        <f t="shared" si="9"/>
-        <v>2.7571372702385606</v>
+        <f t="shared" si="5"/>
+        <v>0.24286272976143916</v>
       </c>
       <c r="J172" s="13" t="str">
-        <f t="shared" si="7"/>
-        <v>0X47EE</v>
+        <f t="shared" si="4"/>
+        <v>0X0656</v>
       </c>
     </row>
     <row r="173" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.25">
@@ -24487,12 +24487,12 @@
         <v>-1.4850000000000001</v>
       </c>
       <c r="I173" s="19">
-        <f t="shared" si="9"/>
-        <v>2.7636762774652581</v>
+        <f t="shared" si="5"/>
+        <v>0.23632372253474199</v>
       </c>
       <c r="J173" s="13" t="str">
-        <f t="shared" si="7"/>
-        <v>0X481A</v>
+        <f t="shared" si="4"/>
+        <v>0X062A</v>
       </c>
     </row>
     <row r="174" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.25">
@@ -24521,12 +24521,12 @@
         <v>-1.502</v>
       </c>
       <c r="I174" s="19">
-        <f t="shared" si="9"/>
-        <v>2.7699742647781074</v>
+        <f t="shared" si="5"/>
+        <v>0.23002573522189262</v>
       </c>
       <c r="J174" s="20" t="str">
-        <f t="shared" si="7"/>
-        <v>0X4844</v>
+        <f t="shared" si="4"/>
+        <v>0X0600</v>
       </c>
     </row>
     <row r="175" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.25">
@@ -24555,12 +24555,12 @@
         <v>-1.5189999999999999</v>
       </c>
       <c r="I175" s="19">
-        <f t="shared" si="9"/>
-        <v>2.7761370348493797</v>
+        <f t="shared" si="5"/>
+        <v>0.22386296515062024</v>
       </c>
       <c r="J175" s="13" t="str">
-        <f t="shared" si="7"/>
-        <v>0X486D</v>
+        <f t="shared" si="4"/>
+        <v>0X05D7</v>
       </c>
     </row>
     <row r="176" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.25">
@@ -24589,12 +24589,12 @@
         <v>-1.536</v>
       </c>
       <c r="I176" s="19">
-        <f t="shared" si="9"/>
-        <v>2.7821076932183662</v>
+        <f t="shared" si="5"/>
+        <v>0.21789230678163413</v>
       </c>
       <c r="J176" s="13" t="str">
-        <f t="shared" si="7"/>
-        <v>0X4895</v>
+        <f t="shared" si="4"/>
+        <v>0X05AF</v>
       </c>
     </row>
     <row r="177" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.25">
@@ -24623,12 +24623,12 @@
         <v>-1.554</v>
       </c>
       <c r="I177" s="19">
-        <f t="shared" si="9"/>
-        <v>2.7878835811452074</v>
+        <f t="shared" si="5"/>
+        <v>0.21211641885479279</v>
       </c>
       <c r="J177" s="13" t="str">
-        <f t="shared" si="7"/>
-        <v>0X48BC</v>
+        <f t="shared" si="4"/>
+        <v>0X0588</v>
       </c>
     </row>
     <row r="178" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.25">
@@ -24657,12 +24657,12 @@
         <v>-1.571</v>
       </c>
       <c r="I178" s="19">
-        <f t="shared" si="9"/>
-        <v>2.7935174545310453</v>
+        <f t="shared" si="5"/>
+        <v>0.20648254546895431</v>
       </c>
       <c r="J178" s="13" t="str">
-        <f t="shared" si="7"/>
-        <v>0X48E1</v>
+        <f t="shared" si="4"/>
+        <v>0X0563</v>
       </c>
     </row>
     <row r="179" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.25">
@@ -24691,12 +24691,12 @@
         <v>-1.589</v>
       </c>
       <c r="I179" s="19">
-        <f t="shared" si="9"/>
-        <v>2.7989518818484993</v>
+        <f t="shared" si="5"/>
+        <v>0.20104811815150073</v>
       </c>
       <c r="J179" s="20" t="str">
-        <f t="shared" si="7"/>
-        <v>0X4906</v>
+        <f t="shared" si="4"/>
+        <v>0X053E</v>
       </c>
     </row>
     <row r="180" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.25">
@@ -24725,12 +24725,12 @@
         <v>-1.6060000000000001</v>
       </c>
       <c r="I180" s="19">
-        <f t="shared" si="9"/>
-        <v>2.8042959427207639</v>
+        <f t="shared" si="5"/>
+        <v>0.19570405727923626</v>
       </c>
       <c r="J180" s="13" t="str">
-        <f t="shared" si="7"/>
-        <v>0X4929</v>
+        <f t="shared" si="4"/>
+        <v>0X051B</v>
       </c>
     </row>
     <row r="181" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.25">
@@ -24759,12 +24759,12 @@
         <v>-1.6240000000000001</v>
       </c>
       <c r="I181" s="19">
-        <f t="shared" si="9"/>
-        <v>2.8094365186897265</v>
+        <f t="shared" si="5"/>
+        <v>0.19056348131027337</v>
       </c>
       <c r="J181" s="13" t="str">
-        <f t="shared" si="7"/>
-        <v>0X494C</v>
+        <f t="shared" si="4"/>
+        <v>0X04F8</v>
       </c>
     </row>
     <row r="182" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.25">
@@ -24793,12 +24793,12 @@
         <v>-1.641</v>
       </c>
       <c r="I182" s="19">
-        <f t="shared" si="9"/>
-        <v>2.8144274336813107</v>
+        <f t="shared" si="5"/>
+        <v>0.18557256631868899</v>
       </c>
       <c r="J182" s="13" t="str">
-        <f t="shared" si="7"/>
-        <v>0X496D</v>
+        <f t="shared" si="4"/>
+        <v>0X04D7</v>
       </c>
     </row>
     <row r="183" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.25">
@@ -24827,12 +24827,12 @@
         <v>-1.659</v>
       </c>
       <c r="I183" s="19">
-        <f t="shared" si="9"/>
-        <v>2.8192669905824488</v>
+        <f t="shared" si="5"/>
+        <v>0.18073300941755144</v>
       </c>
       <c r="J183" s="13" t="str">
-        <f t="shared" si="7"/>
-        <v>0X498D</v>
+        <f t="shared" si="4"/>
+        <v>0X04B7</v>
       </c>
     </row>
     <row r="184" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.25">
@@ -24861,12 +24861,12 @@
         <v>-1.677</v>
       </c>
       <c r="I184" s="19">
-        <f t="shared" si="9"/>
-        <v>2.8240100943339539</v>
+        <f t="shared" si="5"/>
+        <v>0.17598990566604575</v>
       </c>
       <c r="J184" s="20" t="str">
-        <f t="shared" si="7"/>
-        <v>0X49AD</v>
+        <f t="shared" si="4"/>
+        <v>0X0497</v>
       </c>
     </row>
     <row r="185" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.25">
@@ -24895,12 +24895,12 @@
         <v>-1.6950000000000001</v>
       </c>
       <c r="I185" s="19">
-        <f t="shared" si="9"/>
-        <v>2.8285421974362572</v>
+        <f t="shared" si="5"/>
+        <v>0.17145780256374249</v>
       </c>
       <c r="J185" s="13" t="str">
-        <f t="shared" si="7"/>
-        <v>0X49CB</v>
+        <f t="shared" si="4"/>
+        <v>0X0479</v>
       </c>
     </row>
     <row r="186" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.25">
@@ -24929,12 +24929,12 @@
         <v>-1.712</v>
       </c>
       <c r="I186" s="19">
-        <f t="shared" si="9"/>
-        <v>2.8330319469559972</v>
+        <f t="shared" si="5"/>
+        <v>0.16696805304400242</v>
       </c>
       <c r="J186" s="13" t="str">
-        <f t="shared" si="7"/>
-        <v>0X49E9</v>
+        <f t="shared" si="4"/>
+        <v>0X045B</v>
       </c>
     </row>
     <row r="187" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.25">
@@ -24963,12 +24963,12 @@
         <v>-1.73</v>
       </c>
       <c r="I187" s="19">
-        <f>3*47/(C187+47)</f>
-        <v>2.8373075762149109</v>
+        <f t="shared" si="5"/>
+        <v>0.16269242378508902</v>
       </c>
       <c r="J187" s="13" t="str">
-        <f t="shared" si="7"/>
-        <v>0X4A06</v>
+        <f t="shared" si="4"/>
+        <v>0X043E</v>
       </c>
     </row>
     <row r="188" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.25">
@@ -24997,12 +24997,12 @@
         <v>-1.748</v>
       </c>
       <c r="I188" s="19">
-        <f t="shared" si="9"/>
-        <v>2.8415388645936197</v>
+        <f t="shared" si="5"/>
+        <v>0.15846113540638035</v>
       </c>
       <c r="J188" s="13" t="str">
-        <f t="shared" si="7"/>
-        <v>0X4A22</v>
+        <f t="shared" si="4"/>
+        <v>0X0422</v>
       </c>
     </row>
     <row r="189" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.25">
@@ -25031,12 +25031,12 @@
         <v>-1.7669999999999999</v>
       </c>
       <c r="I189" s="19">
-        <f t="shared" si="9"/>
-        <v>2.8456104944500504</v>
+        <f t="shared" si="5"/>
+        <v>0.15438950554994954</v>
       </c>
       <c r="J189" s="20" t="str">
-        <f t="shared" si="7"/>
-        <v>0X4A3D</v>
+        <f t="shared" si="4"/>
+        <v>0X0407</v>
       </c>
     </row>
     <row r="190" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.25">
@@ -25065,12 +25065,12 @@
         <v>-1.7849999999999999</v>
       </c>
       <c r="I190" s="19">
-        <f t="shared" si="9"/>
-        <v>2.8495786261393263</v>
+        <f t="shared" si="5"/>
+        <v>0.15042137386067378</v>
       </c>
       <c r="J190" s="13" t="str">
-        <f t="shared" si="7"/>
-        <v>0X4A58</v>
+        <f t="shared" si="4"/>
+        <v>0X03EC</v>
       </c>
     </row>
     <row r="191" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.25">
@@ -25099,12 +25099,12 @@
         <v>-1.8029999999999999</v>
       </c>
       <c r="I191" s="19">
-        <f t="shared" si="9"/>
-        <v>2.8533845998178693</v>
+        <f t="shared" si="5"/>
+        <v>0.14661540018213093</v>
       </c>
       <c r="J191" s="13" t="str">
-        <f t="shared" si="7"/>
-        <v>0X4A71</v>
+        <f t="shared" si="4"/>
+        <v>0X03D3</v>
       </c>
     </row>
     <row r="192" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.25">
@@ -25133,12 +25133,12 @@
         <v>-1.821</v>
       </c>
       <c r="I192" s="19">
-        <f t="shared" si="9"/>
-        <v>2.8571428571428572</v>
+        <f t="shared" si="5"/>
+        <v>0.14285714285714288</v>
       </c>
       <c r="J192" s="13" t="str">
-        <f t="shared" si="7"/>
-        <v>0X4A8A</v>
+        <f t="shared" si="4"/>
+        <v>0X03BA</v>
       </c>
     </row>
     <row r="193" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.25">
@@ -25167,12 +25167,12 @@
         <v>-1.84</v>
       </c>
       <c r="I193" s="19">
-        <f>3*47/(C193+47)</f>
-        <v>2.8607368933614676</v>
+        <f t="shared" si="5"/>
+        <v>0.1392631066385327</v>
       </c>
       <c r="J193" s="13" t="str">
-        <f t="shared" si="7"/>
-        <v>0X4AA2</v>
+        <f t="shared" si="4"/>
+        <v>0X03A2</v>
       </c>
     </row>
     <row r="194" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.25">
@@ -25201,12 +25201,12 @@
         <v>-1.8580000000000001</v>
       </c>
       <c r="I194" s="19">
-        <f t="shared" ref="I194:I219" si="10">3*47/(C194+47)</f>
-        <v>2.8642817965750504</v>
+        <f t="shared" si="5"/>
+        <v>0.13571820342494972</v>
       </c>
       <c r="J194" s="20" t="str">
-        <f t="shared" si="7"/>
-        <v>0X4ABA</v>
+        <f t="shared" si="4"/>
+        <v>0X038A</v>
       </c>
     </row>
     <row r="195" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.25">
@@ -25235,12 +25235,12 @@
         <v>-1.877</v>
       </c>
       <c r="I195" s="19">
-        <f t="shared" si="10"/>
-        <v>2.867718841522942</v>
+        <f t="shared" si="5"/>
+        <v>0.13228115847705826</v>
       </c>
       <c r="J195" s="13" t="str">
-        <f t="shared" si="7"/>
-        <v>0X4AD1</v>
+        <f t="shared" si="4"/>
+        <v>0X0373</v>
       </c>
     </row>
     <row r="196" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.25">
@@ -25269,12 +25269,12 @@
         <v>-1.895</v>
       </c>
       <c r="I196" s="19">
-        <f t="shared" si="10"/>
-        <v>2.8710472195638452</v>
+        <f t="shared" si="5"/>
+        <v>0.12895278043615485</v>
       </c>
       <c r="J196" s="13" t="str">
-        <f t="shared" si="7"/>
-        <v>0X4AE7</v>
+        <f t="shared" si="4"/>
+        <v>0X035D</v>
       </c>
     </row>
     <row r="197" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.25">
@@ -25303,12 +25303,12 @@
         <v>-1.9139999999999999</v>
       </c>
       <c r="I197" s="19">
-        <f t="shared" si="10"/>
-        <v>2.87426614481409</v>
+        <f t="shared" si="5"/>
+        <v>0.12573385518590999</v>
       </c>
       <c r="J197" s="13" t="str">
-        <f t="shared" ref="J197:J260" si="11">CONCATENATE("0X",DEC2HEX(INT(I197*(32767/4.906)),4))</f>
-        <v>0X4AFD</v>
+        <f t="shared" ref="J197:J260" si="6">CONCATENATE("0X",DEC2HEX(INT(I197*(32767/4.906)),4))</f>
+        <v>0X0347</v>
       </c>
     </row>
     <row r="198" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.25">
@@ -25337,12 +25337,12 @@
         <v>-1.9330000000000001</v>
       </c>
       <c r="I198" s="19">
-        <f t="shared" si="10"/>
-        <v>2.8773748546007387</v>
+        <f t="shared" ref="I198:I261" si="7">3*C198/(C198+47)</f>
+        <v>0.12262514539926128</v>
       </c>
       <c r="J198" s="13" t="str">
-        <f t="shared" si="11"/>
-        <v>0X4B11</v>
+        <f t="shared" si="6"/>
+        <v>0X0333</v>
       </c>
     </row>
     <row r="199" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.25">
@@ -25371,12 +25371,12 @@
         <v>-1.9510000000000001</v>
       </c>
       <c r="I199" s="19">
-        <f t="shared" si="10"/>
-        <v>2.8804314518600234</v>
+        <f t="shared" si="7"/>
+        <v>0.11956854813997671</v>
       </c>
       <c r="J199" s="20" t="str">
-        <f t="shared" si="11"/>
-        <v>0X4B26</v>
+        <f t="shared" si="6"/>
+        <v>0X031E</v>
       </c>
     </row>
     <row r="200" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.25">
@@ -25405,12 +25405,12 @@
         <v>-1.97</v>
       </c>
       <c r="I200" s="19">
-        <f t="shared" si="10"/>
-        <v>2.8834355828220861</v>
+        <f t="shared" si="7"/>
+        <v>0.1165644171779141</v>
       </c>
       <c r="J200" s="13" t="str">
-        <f t="shared" si="11"/>
-        <v>0X4B3A</v>
+        <f t="shared" si="6"/>
+        <v>0X030A</v>
       </c>
     </row>
     <row r="201" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.25">
@@ -25439,12 +25439,12 @@
         <v>-1.9890000000000001</v>
       </c>
       <c r="I201" s="19">
-        <f t="shared" si="10"/>
-        <v>2.8862687300417589</v>
+        <f t="shared" si="7"/>
+        <v>0.11373126995824123</v>
       </c>
       <c r="J201" s="13" t="str">
-        <f t="shared" si="11"/>
-        <v>0X4B4D</v>
+        <f t="shared" si="6"/>
+        <v>0X02F7</v>
       </c>
     </row>
     <row r="202" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.25">
@@ -25473,12 +25473,12 @@
         <v>-2.008</v>
       </c>
       <c r="I202" s="19">
-        <f t="shared" si="10"/>
-        <v>2.8891074502089991</v>
+        <f t="shared" si="7"/>
+        <v>0.11089254979100073</v>
       </c>
       <c r="J202" s="13" t="str">
-        <f t="shared" si="11"/>
-        <v>0X4B60</v>
+        <f t="shared" si="6"/>
+        <v>0X02E4</v>
       </c>
     </row>
     <row r="203" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.25">
@@ -25507,12 +25507,12 @@
         <v>-2.0270000000000001</v>
       </c>
       <c r="I203" s="19">
-        <f t="shared" si="10"/>
-        <v>2.8918331350752697</v>
+        <f t="shared" si="7"/>
+        <v>0.10816686492473029</v>
       </c>
       <c r="J203" s="13" t="str">
-        <f t="shared" si="11"/>
-        <v>0X4B72</v>
+        <f t="shared" si="6"/>
+        <v>0X02D2</v>
       </c>
     </row>
     <row r="204" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.25">
@@ -25541,12 +25541,12 @@
         <v>-2.0459999999999998</v>
       </c>
       <c r="I204" s="19">
-        <f t="shared" si="10"/>
-        <v>2.8944451287104322</v>
+        <f t="shared" si="7"/>
+        <v>0.10555487128956767</v>
       </c>
       <c r="J204" s="20" t="str">
-        <f t="shared" si="11"/>
-        <v>0X4B83</v>
+        <f t="shared" si="6"/>
+        <v>0X02C0</v>
       </c>
     </row>
     <row r="205" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.25">
@@ -25575,12 +25575,12 @@
         <v>-2.0649999999999999</v>
       </c>
       <c r="I205" s="19">
-        <f t="shared" si="10"/>
-        <v>2.8970618450791039</v>
+        <f t="shared" si="7"/>
+        <v>0.10293815492089582</v>
       </c>
       <c r="J205" s="13" t="str">
-        <f t="shared" si="11"/>
-        <v>0X4B95</v>
+        <f t="shared" si="6"/>
+        <v>0X02AF</v>
       </c>
     </row>
     <row r="206" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.25">
@@ -25609,12 +25609,12 @@
         <v>-2.085</v>
       </c>
       <c r="I206" s="19">
-        <f t="shared" si="10"/>
-        <v>2.8995640371802254</v>
+        <f t="shared" si="7"/>
+        <v>0.1004359628197746</v>
       </c>
       <c r="J206" s="13" t="str">
-        <f t="shared" si="11"/>
-        <v>0X4BA6</v>
+        <f t="shared" si="6"/>
+        <v>0X029E</v>
       </c>
     </row>
     <row r="207" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.25">
@@ -25643,12 +25643,12 @@
         <v>-2.1040000000000001</v>
       </c>
       <c r="I207" s="19">
-        <f t="shared" si="10"/>
-        <v>2.9019510990367992</v>
+        <f t="shared" si="7"/>
+        <v>9.8048900963200791E-2</v>
       </c>
       <c r="J207" s="13" t="str">
-        <f t="shared" si="11"/>
-        <v>0X4BB6</v>
+        <f t="shared" si="6"/>
+        <v>0X028E</v>
       </c>
     </row>
     <row r="208" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.25">
@@ -25677,12 +25677,12 @@
         <v>-2.1230000000000002</v>
       </c>
       <c r="I208" s="19">
-        <f t="shared" si="10"/>
-        <v>2.9043420944220153</v>
+        <f t="shared" si="7"/>
+        <v>9.5657905577984675E-2</v>
       </c>
       <c r="J208" s="13" t="str">
-        <f t="shared" si="11"/>
-        <v>0X4BC5</v>
+        <f t="shared" si="6"/>
+        <v>0X027E</v>
       </c>
     </row>
     <row r="209" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.25">
@@ -25711,12 +25711,12 @@
         <v>-2.1429999999999998</v>
       </c>
       <c r="I209" s="19">
-        <f t="shared" si="10"/>
-        <v>2.9066171923314781</v>
+        <f t="shared" si="7"/>
+        <v>9.3382807668521958E-2</v>
       </c>
       <c r="J209" s="20" t="str">
-        <f t="shared" si="11"/>
-        <v>0X4BD5</v>
+        <f t="shared" si="6"/>
+        <v>0X026F</v>
       </c>
     </row>
     <row r="210" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.25">
@@ -25745,12 +25745,12 @@
         <v>-2.1619999999999999</v>
       </c>
       <c r="I210" s="19">
-        <f t="shared" si="10"/>
-        <v>2.9088958574022117</v>
+        <f t="shared" si="7"/>
+        <v>9.1104142597788415E-2</v>
       </c>
       <c r="J210" s="13" t="str">
-        <f t="shared" si="11"/>
-        <v>0X4BE4</v>
+        <f t="shared" si="6"/>
+        <v>0X0260</v>
       </c>
     </row>
     <row r="211" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.25">
@@ -25779,12 +25779,12 @@
         <v>-2.1819999999999999</v>
       </c>
       <c r="I211" s="19">
-        <f t="shared" si="10"/>
-        <v>2.9110578908250062</v>
+        <f t="shared" si="7"/>
+        <v>8.8942109174993803E-2</v>
       </c>
       <c r="J211" s="13" t="str">
-        <f t="shared" si="11"/>
-        <v>0X4BF2</v>
+        <f t="shared" si="6"/>
+        <v>0X0252</v>
       </c>
     </row>
     <row r="212" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.25">
@@ -25813,12 +25813,12 @@
         <v>-2.2010000000000001</v>
       </c>
       <c r="I212" s="19">
-        <f t="shared" si="10"/>
-        <v>2.9131629511786943</v>
+        <f t="shared" si="7"/>
+        <v>8.6837048821305343E-2</v>
       </c>
       <c r="J212" s="13" t="str">
-        <f t="shared" si="11"/>
-        <v>0X4C00</v>
+        <f t="shared" si="6"/>
+        <v>0X0243</v>
       </c>
     </row>
     <row r="213" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.25">
@@ -25847,12 +25847,12 @@
         <v>-2.2210000000000001</v>
       </c>
       <c r="I213" s="19">
-        <f t="shared" si="10"/>
-        <v>2.9152107842123764</v>
+        <f t="shared" si="7"/>
+        <v>8.4789215787623801E-2</v>
       </c>
       <c r="J213" s="13" t="str">
-        <f t="shared" si="11"/>
-        <v>0X4C0E</v>
+        <f t="shared" si="6"/>
+        <v>0X0236</v>
       </c>
     </row>
     <row r="214" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.25">
@@ -25881,12 +25881,12 @@
         <v>-2.2410000000000001</v>
       </c>
       <c r="I214" s="19">
-        <f t="shared" si="10"/>
-        <v>2.917261498355161</v>
+        <f t="shared" si="7"/>
+        <v>8.2738501644838924E-2</v>
       </c>
       <c r="J214" s="20" t="str">
-        <f t="shared" si="11"/>
-        <v>0X4C1C</v>
+        <f t="shared" si="6"/>
+        <v>0X0228</v>
       </c>
     </row>
     <row r="215" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.25">
@@ -25915,12 +25915,12 @@
         <v>-2.2610000000000001</v>
       </c>
       <c r="I215" s="19">
-        <f>3*47/(C215+47)</f>
-        <v>2.9191942195813749</v>
+        <f t="shared" si="7"/>
+        <v>8.0805780418624865E-2</v>
       </c>
       <c r="J215" s="13" t="str">
-        <f t="shared" si="11"/>
-        <v>0X4C29</v>
+        <f t="shared" si="6"/>
+        <v>0X021B</v>
       </c>
     </row>
     <row r="216" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.25">
@@ -25949,12 +25949,12 @@
         <v>-2.2799999999999998</v>
       </c>
       <c r="I216" s="19">
-        <f t="shared" si="10"/>
-        <v>2.921068986948415</v>
+        <f t="shared" si="7"/>
+        <v>7.8931013051584828E-2</v>
       </c>
       <c r="J216" s="13" t="str">
-        <f t="shared" si="11"/>
-        <v>0X4C35</v>
+        <f t="shared" si="6"/>
+        <v>0X020F</v>
       </c>
     </row>
     <row r="217" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.25">
@@ -25983,12 +25983,12 @@
         <v>-2.2999999999999998</v>
       </c>
       <c r="I217" s="19">
-        <f t="shared" si="10"/>
-        <v>2.9229461638922865</v>
+        <f t="shared" si="7"/>
+        <v>7.7053836107713686E-2</v>
       </c>
       <c r="J217" s="13" t="str">
-        <f t="shared" si="11"/>
-        <v>0X4C42</v>
+        <f t="shared" si="6"/>
+        <v>0X0202</v>
       </c>
     </row>
     <row r="218" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.25">
@@ -26017,12 +26017,12 @@
         <v>-2.3199999999999998</v>
       </c>
       <c r="I218" s="19">
-        <f t="shared" si="10"/>
-        <v>2.9247044181705042</v>
+        <f t="shared" si="7"/>
+        <v>7.5295581829495958E-2</v>
       </c>
       <c r="J218" s="13" t="str">
-        <f t="shared" si="11"/>
-        <v>0X4C4D</v>
+        <f t="shared" si="6"/>
+        <v>0X01F6</v>
       </c>
     </row>
     <row r="219" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.25">
@@ -26051,12 +26051,12 @@
         <v>-2.3410000000000002</v>
       </c>
       <c r="I219" s="19">
-        <f t="shared" si="10"/>
-        <v>2.9264647890247195</v>
+        <f t="shared" si="7"/>
+        <v>7.3535210975280721E-2</v>
       </c>
       <c r="J219" s="20" t="str">
-        <f t="shared" si="11"/>
-        <v>0X4C59</v>
+        <f t="shared" si="6"/>
+        <v>0X01EB</v>
       </c>
     </row>
     <row r="220" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.25">
@@ -26085,12 +26085,12 @@
         <v>-2.3610000000000002</v>
       </c>
       <c r="I220" s="19">
-        <f>3*47/(C220+47)</f>
-        <v>2.9281664693788549</v>
+        <f t="shared" si="7"/>
+        <v>7.18335306211451E-2</v>
       </c>
       <c r="J220" s="13" t="str">
-        <f t="shared" si="11"/>
-        <v>0X4C65</v>
+        <f t="shared" si="6"/>
+        <v>0X01DF</v>
       </c>
     </row>
     <row r="221" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.25">
@@ -26119,12 +26119,12 @@
         <v>-2.3809999999999998</v>
       </c>
       <c r="I221" s="19">
-        <f t="shared" ref="I221:I240" si="12">3*47/(C221+47)</f>
-        <v>2.9298092507168683</v>
+        <f t="shared" si="7"/>
+        <v>7.0190749283131779E-2</v>
       </c>
       <c r="J221" s="13" t="str">
-        <f t="shared" si="11"/>
-        <v>0X4C70</v>
+        <f t="shared" si="6"/>
+        <v>0X01D4</v>
       </c>
     </row>
     <row r="222" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.25">
@@ -26153,12 +26153,12 @@
         <v>-2.4009999999999998</v>
       </c>
       <c r="I222" s="19">
-        <f t="shared" si="12"/>
-        <v>2.9314538763799667</v>
+        <f t="shared" si="7"/>
+        <v>6.8546123620033678E-2</v>
       </c>
       <c r="J222" s="13" t="str">
-        <f t="shared" si="11"/>
-        <v>0X4C7B</v>
+        <f t="shared" si="6"/>
+        <v>0X01C9</v>
       </c>
     </row>
     <row r="223" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.25">
@@ -26187,12 +26187,12 @@
         <v>-2.4220000000000002</v>
       </c>
       <c r="I223" s="19">
-        <f t="shared" si="12"/>
-        <v>2.9330393360098186</v>
+        <f t="shared" si="7"/>
+        <v>6.6960663990181593E-2</v>
       </c>
       <c r="J223" s="13" t="str">
-        <f t="shared" si="11"/>
-        <v>0X4C85</v>
+        <f t="shared" si="6"/>
+        <v>0X01BF</v>
       </c>
     </row>
     <row r="224" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.25">
@@ -26221,12 +26221,12 @@
         <v>-2.4420000000000002</v>
       </c>
       <c r="I224" s="19">
-        <f t="shared" si="12"/>
-        <v>2.9345654345654344</v>
+        <f t="shared" si="7"/>
+        <v>6.5434565434565439E-2</v>
       </c>
       <c r="J224" s="20" t="str">
-        <f t="shared" si="11"/>
-        <v>0X4C8F</v>
+        <f t="shared" si="6"/>
+        <v>0X01B5</v>
       </c>
     </row>
     <row r="225" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.25">
@@ -26255,12 +26255,12 @@
         <v>-2.4630000000000001</v>
       </c>
       <c r="I225" s="19">
-        <f t="shared" si="12"/>
-        <v>2.9360319840079958</v>
+        <f t="shared" si="7"/>
+        <v>6.3968015992003996E-2</v>
       </c>
       <c r="J225" s="13" t="str">
-        <f t="shared" si="11"/>
-        <v>0X4C99</v>
+        <f t="shared" si="6"/>
+        <v>0X01AB</v>
       </c>
     </row>
     <row r="226" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.25">
@@ -26289,12 +26289,12 @@
         <v>-2.4830000000000001</v>
       </c>
       <c r="I226" s="19">
-        <f t="shared" si="12"/>
-        <v>2.9375</v>
+        <f t="shared" si="7"/>
+        <v>6.25E-2</v>
       </c>
       <c r="J226" s="13" t="str">
-        <f t="shared" si="11"/>
-        <v>0X4CA3</v>
+        <f t="shared" si="6"/>
+        <v>0X01A1</v>
       </c>
     </row>
     <row r="227" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.25">
@@ -26323,12 +26323,12 @@
         <v>-2.504</v>
       </c>
       <c r="I227" s="19">
-        <f t="shared" si="12"/>
-        <v>2.9389082268587035</v>
+        <f t="shared" si="7"/>
+        <v>6.1091773141296879E-2</v>
       </c>
       <c r="J227" s="13" t="str">
-        <f t="shared" si="11"/>
-        <v>0X4CAC</v>
+        <f t="shared" si="6"/>
+        <v>0X0198</v>
       </c>
     </row>
     <row r="228" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.25">
@@ -26357,12 +26357,12 @@
         <v>-2.524</v>
       </c>
       <c r="I228" s="19">
-        <f t="shared" si="12"/>
-        <v>2.9402564904598063</v>
+        <f t="shared" si="7"/>
+        <v>5.9743509540193931E-2</v>
       </c>
       <c r="J228" s="13" t="str">
-        <f t="shared" si="11"/>
-        <v>0X4CB5</v>
+        <f t="shared" si="6"/>
+        <v>0X018F</v>
       </c>
     </row>
     <row r="229" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.25">
@@ -26391,12 +26391,12 @@
         <v>-2.5449999999999999</v>
       </c>
       <c r="I229" s="19">
-        <f t="shared" si="12"/>
-        <v>2.9416059916967434</v>
+        <f t="shared" si="7"/>
+        <v>5.8394008303256639E-2</v>
       </c>
       <c r="J229" s="20" t="str">
-        <f t="shared" si="11"/>
-        <v>0X4CBE</v>
+        <f t="shared" si="6"/>
+        <v>0X0186</v>
       </c>
     </row>
     <row r="230" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.25">
@@ -26425,12 +26425,12 @@
         <v>-2.5659999999999998</v>
       </c>
       <c r="I230" s="19">
-        <f t="shared" si="12"/>
-        <v>2.9428953080647857</v>
+        <f t="shared" si="7"/>
+        <v>5.7104691935214565E-2</v>
       </c>
       <c r="J230" s="13" t="str">
-        <f t="shared" si="11"/>
-        <v>0X4CC7</v>
+        <f t="shared" si="6"/>
+        <v>0X017D</v>
       </c>
     </row>
     <row r="231" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.25">
@@ -26459,12 +26459,12 @@
         <v>-2.5870000000000002</v>
       </c>
       <c r="I231" s="19">
-        <f t="shared" si="12"/>
-        <v>2.9441857551523252</v>
+        <f t="shared" si="7"/>
+        <v>5.5814244847674929E-2</v>
       </c>
       <c r="J231" s="13" t="str">
-        <f t="shared" si="11"/>
-        <v>0X4CD0</v>
+        <f t="shared" si="6"/>
+        <v>0X0174</v>
       </c>
     </row>
     <row r="232" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.25">
@@ -26493,12 +26493,12 @@
         <v>-2.6080000000000001</v>
       </c>
       <c r="I232" s="19">
-        <f t="shared" si="12"/>
-        <v>2.9454158049758727</v>
+        <f t="shared" si="7"/>
+        <v>5.4584195024127341E-2</v>
       </c>
       <c r="J232" s="13" t="str">
-        <f t="shared" si="11"/>
-        <v>0X4CD8</v>
+        <f t="shared" si="6"/>
+        <v>0X016C</v>
       </c>
     </row>
     <row r="233" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.25">
@@ -26527,12 +26527,12 @@
         <v>-2.629</v>
       </c>
       <c r="I233" s="19">
-        <f t="shared" si="12"/>
-        <v>2.9465853046894592</v>
+        <f t="shared" si="7"/>
+        <v>5.3414695310540841E-2</v>
       </c>
       <c r="J233" s="13" t="str">
-        <f t="shared" si="11"/>
-        <v>0X4CE0</v>
+        <f t="shared" si="6"/>
+        <v>0X0164</v>
       </c>
     </row>
     <row r="234" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.25">
@@ -26561,12 +26561,12 @@
         <v>-2.65</v>
       </c>
       <c r="I234" s="19">
-        <f t="shared" si="12"/>
-        <v>2.9478173607626692</v>
+        <f t="shared" si="7"/>
+        <v>5.2182639237330658E-2</v>
       </c>
       <c r="J234" s="20" t="str">
-        <f t="shared" si="11"/>
-        <v>0X4CE8</v>
+        <f t="shared" si="6"/>
+        <v>0X015C</v>
       </c>
     </row>
     <row r="235" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.25">
@@ -26595,12 +26595,12 @@
         <v>-2.6709999999999998</v>
       </c>
       <c r="I235" s="19">
-        <f t="shared" si="12"/>
-        <v>2.9489270924833733</v>
+        <f t="shared" si="7"/>
+        <v>5.1072907516626923E-2</v>
       </c>
       <c r="J235" s="13" t="str">
-        <f t="shared" si="11"/>
-        <v>0X4CEF</v>
+        <f t="shared" si="6"/>
+        <v>0X0155</v>
       </c>
     </row>
     <row r="236" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.25">
@@ -26629,12 +26629,12 @@
         <v>-2.6920000000000002</v>
       </c>
       <c r="I236" s="19">
-        <f t="shared" si="12"/>
-        <v>2.9500376600552349</v>
+        <f t="shared" si="7"/>
+        <v>4.9962339944765254E-2</v>
       </c>
       <c r="J236" s="13" t="str">
-        <f t="shared" si="11"/>
-        <v>0X4CF7</v>
+        <f t="shared" si="6"/>
+        <v>0X014D</v>
       </c>
     </row>
     <row r="237" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.25">
@@ -26663,12 +26663,12 @@
         <v>-2.714</v>
       </c>
       <c r="I237" s="19">
-        <f t="shared" si="12"/>
-        <v>2.9511490644229563</v>
+        <f t="shared" si="7"/>
+        <v>4.8850935577043827E-2</v>
       </c>
       <c r="J237" s="13" t="str">
-        <f t="shared" si="11"/>
-        <v>0X4CFE</v>
+        <f t="shared" si="6"/>
+        <v>0X0146</v>
       </c>
     </row>
     <row r="238" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.25">
@@ -26697,12 +26697,12 @@
         <v>-2.7349999999999999</v>
       </c>
       <c r="I238" s="19">
-        <f t="shared" si="12"/>
-        <v>2.9521994933104412</v>
+        <f t="shared" si="7"/>
+        <v>4.7800506689558424E-2</v>
       </c>
       <c r="J238" s="13" t="str">
-        <f t="shared" si="11"/>
-        <v>0X4D05</v>
+        <f t="shared" si="6"/>
+        <v>0X013F</v>
       </c>
     </row>
     <row r="239" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.25">
@@ -26731,12 +26731,12 @@
         <v>-2.7559999999999998</v>
       </c>
       <c r="I239" s="19">
-        <f t="shared" si="12"/>
-        <v>2.9532506702412871</v>
+        <f t="shared" si="7"/>
+        <v>4.674932975871314E-2</v>
       </c>
       <c r="J239" s="20" t="str">
-        <f t="shared" si="11"/>
-        <v>0X4D0C</v>
+        <f t="shared" si="6"/>
+        <v>0X0138</v>
       </c>
     </row>
     <row r="240" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.25">
@@ -26765,12 +26765,12 @@
         <v>-2.778</v>
       </c>
       <c r="I240" s="19">
-        <f t="shared" si="12"/>
-        <v>2.9542406972846127</v>
+        <f t="shared" si="7"/>
+        <v>4.5759302715387196E-2</v>
       </c>
       <c r="J240" s="13" t="str">
-        <f t="shared" si="11"/>
-        <v>0X4D13</v>
+        <f t="shared" si="6"/>
+        <v>0X0131</v>
       </c>
     </row>
     <row r="241" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.25">
@@ -26799,12 +26799,12 @@
         <v>-2.7989999999999999</v>
       </c>
       <c r="I241" s="19">
-        <f>3*47/(C241+47)</f>
-        <v>2.9552313883299797</v>
+        <f t="shared" si="7"/>
+        <v>4.4768611670020123E-2</v>
       </c>
       <c r="J241" s="13" t="str">
-        <f t="shared" si="11"/>
-        <v>0X4D19</v>
+        <f t="shared" si="6"/>
+        <v>0X012B</v>
       </c>
     </row>
     <row r="242" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.25">
@@ -26833,12 +26833,12 @@
         <v>-2.8210000000000002</v>
       </c>
       <c r="I242" s="19">
-        <f t="shared" ref="I242:I269" si="13">3*47/(C242+47)</f>
-        <v>2.9561607648279766</v>
+        <f t="shared" si="7"/>
+        <v>4.3839235172023393E-2</v>
       </c>
       <c r="J242" s="13" t="str">
-        <f t="shared" si="11"/>
-        <v>0X4D20</v>
+        <f t="shared" si="6"/>
+        <v>0X0124</v>
       </c>
     </row>
     <row r="243" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.25">
@@ -26867,12 +26867,12 @@
         <v>-2.843</v>
       </c>
       <c r="I243" s="19">
-        <f t="shared" si="13"/>
-        <v>2.9570907260601484</v>
+        <f t="shared" si="7"/>
+        <v>4.2909273939851521E-2</v>
       </c>
       <c r="J243" s="13" t="str">
-        <f t="shared" si="11"/>
-        <v>0X4D26</v>
+        <f t="shared" si="6"/>
+        <v>0X011E</v>
       </c>
     </row>
     <row r="244" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.25">
@@ -26901,12 +26901,12 @@
         <v>-2.8639999999999999</v>
       </c>
       <c r="I244" s="19">
-        <f t="shared" si="13"/>
-        <v>2.9580212725785135</v>
+        <f t="shared" si="7"/>
+        <v>4.1978727421486568E-2</v>
       </c>
       <c r="J244" s="20" t="str">
-        <f t="shared" si="11"/>
-        <v>0X4D2C</v>
+        <f t="shared" si="6"/>
+        <v>0X0118</v>
       </c>
     </row>
     <row r="245" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.25">
@@ -26935,12 +26935,12 @@
         <v>-2.8860000000000001</v>
       </c>
       <c r="I245" s="19">
-        <f t="shared" si="13"/>
-        <v>2.9588903112081089</v>
+        <f t="shared" si="7"/>
+        <v>4.1109688791891384E-2</v>
       </c>
       <c r="J245" s="13" t="str">
-        <f t="shared" si="11"/>
-        <v>0X4D32</v>
+        <f t="shared" si="6"/>
+        <v>0X0112</v>
       </c>
     </row>
     <row r="246" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.25">
@@ -26969,12 +26969,12 @@
         <v>-2.9079999999999999</v>
       </c>
       <c r="I246" s="19">
-        <f t="shared" si="13"/>
-        <v>2.9597598606184006</v>
+        <f t="shared" si="7"/>
+        <v>4.0240139381599108E-2</v>
       </c>
       <c r="J246" s="13" t="str">
-        <f t="shared" si="11"/>
-        <v>0X4D38</v>
+        <f t="shared" si="6"/>
+        <v>0X010C</v>
       </c>
     </row>
     <row r="247" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.25">
@@ -27003,12 +27003,12 @@
         <v>-2.93</v>
       </c>
       <c r="I247" s="19">
-        <f t="shared" si="13"/>
-        <v>2.9606299212598426</v>
+        <f t="shared" si="7"/>
+        <v>3.937007874015748E-2</v>
       </c>
       <c r="J247" s="13" t="str">
-        <f t="shared" si="11"/>
-        <v>0X4D3D</v>
+        <f t="shared" si="6"/>
+        <v>0X0106</v>
       </c>
     </row>
     <row r="248" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.25">
@@ -27037,12 +27037,12 @@
         <v>-2.952</v>
       </c>
       <c r="I248" s="19">
-        <f t="shared" si="13"/>
-        <v>2.9614382928673444</v>
+        <f t="shared" si="7"/>
+        <v>3.856170713265563E-2</v>
       </c>
       <c r="J248" s="13" t="str">
-        <f t="shared" si="11"/>
-        <v>0X4D43</v>
+        <f t="shared" si="6"/>
+        <v>0X0101</v>
       </c>
     </row>
     <row r="249" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.25">
@@ -27071,12 +27071,12 @@
         <v>-2.9740000000000002</v>
       </c>
       <c r="I249" s="19">
-        <f t="shared" si="13"/>
-        <v>2.9622471060316395</v>
+        <f t="shared" si="7"/>
+        <v>3.7752893968360679E-2</v>
       </c>
       <c r="J249" s="20" t="str">
-        <f t="shared" si="11"/>
-        <v>0X4D48</v>
+        <f t="shared" si="6"/>
+        <v>0X00FC</v>
       </c>
     </row>
     <row r="250" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.25">
@@ -27105,12 +27105,12 @@
         <v>-2.996</v>
       </c>
       <c r="I250" s="19">
-        <f t="shared" si="13"/>
-        <v>2.9629940950259521</v>
+        <f t="shared" si="7"/>
+        <v>3.7005904974047529E-2</v>
       </c>
       <c r="J250" s="13" t="str">
-        <f t="shared" si="11"/>
-        <v>0X4D4D</v>
+        <f t="shared" si="6"/>
+        <v>0X00F7</v>
       </c>
     </row>
     <row r="251" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.25">
@@ -27139,12 +27139,12 @@
         <v>-3.0179999999999998</v>
       </c>
       <c r="I251" s="19">
-        <f t="shared" si="13"/>
-        <v>2.9638037583554042</v>
+        <f t="shared" si="7"/>
+        <v>3.619624164459579E-2</v>
       </c>
       <c r="J251" s="13" t="str">
-        <f t="shared" si="11"/>
-        <v>0X4D53</v>
+        <f t="shared" si="6"/>
+        <v>0X00F1</v>
       </c>
     </row>
     <row r="252" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.25">
@@ -27173,12 +27173,12 @@
         <v>-3.0409999999999999</v>
       </c>
       <c r="I252" s="19">
-        <f t="shared" si="13"/>
-        <v>2.964551532736218</v>
+        <f t="shared" si="7"/>
+        <v>3.5448467263782014E-2</v>
       </c>
       <c r="J252" s="13" t="str">
-        <f t="shared" si="11"/>
-        <v>0X4D58</v>
+        <f t="shared" si="6"/>
+        <v>0X00EC</v>
       </c>
     </row>
     <row r="253" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.25">
@@ -27207,12 +27207,12 @@
         <v>-3.0630000000000002</v>
       </c>
       <c r="I253" s="19">
-        <f t="shared" si="13"/>
-        <v>2.9652373241361905</v>
+        <f t="shared" si="7"/>
+        <v>3.4762675863809385E-2</v>
       </c>
       <c r="J253" s="13" t="str">
-        <f t="shared" si="11"/>
-        <v>0X4D5C</v>
+        <f t="shared" si="6"/>
+        <v>0X00E8</v>
       </c>
     </row>
     <row r="254" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.25">
@@ -27241,12 +27241,12 @@
         <v>-3.0859999999999999</v>
       </c>
       <c r="I254" s="19">
-        <f t="shared" si="13"/>
-        <v>2.9659858221670627</v>
+        <f t="shared" si="7"/>
+        <v>3.4014177832937163E-2</v>
       </c>
       <c r="J254" s="20" t="str">
-        <f t="shared" si="11"/>
-        <v>0X4D61</v>
+        <f t="shared" si="6"/>
+        <v>0X00E3</v>
       </c>
     </row>
     <row r="255" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.25">
@@ -27275,12 +27275,12 @@
         <v>-3.1080000000000001</v>
       </c>
       <c r="I255" s="19">
-        <f t="shared" si="13"/>
-        <v>2.9666722773943781</v>
+        <f t="shared" si="7"/>
+        <v>3.3327722605621952E-2</v>
       </c>
       <c r="J255" s="13" t="str">
-        <f t="shared" si="11"/>
-        <v>0X4D66</v>
+        <f t="shared" si="6"/>
+        <v>0X00DE</v>
       </c>
     </row>
     <row r="256" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.25">
@@ -27309,12 +27309,12 @@
         <v>-3.1309999999999998</v>
       </c>
       <c r="I256" s="19">
-        <f t="shared" si="13"/>
-        <v>2.9673590504451037</v>
+        <f t="shared" si="7"/>
+        <v>3.2640949554896145E-2</v>
       </c>
       <c r="J256" s="13" t="str">
-        <f t="shared" si="11"/>
-        <v>0X4D6A</v>
+        <f t="shared" si="6"/>
+        <v>0X00DA</v>
       </c>
     </row>
     <row r="257" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.25">
@@ -27343,12 +27343,12 @@
         <v>-3.153</v>
       </c>
       <c r="I257" s="19">
-        <f t="shared" si="13"/>
-        <v>2.9679836655650749</v>
+        <f t="shared" si="7"/>
+        <v>3.2016334434925381E-2</v>
       </c>
       <c r="J257" s="13" t="str">
-        <f t="shared" si="11"/>
-        <v>0X4D6F</v>
+        <f t="shared" si="6"/>
+        <v>0X00D5</v>
       </c>
     </row>
     <row r="258" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.25">
@@ -27377,12 +27377,12 @@
         <v>-3.1760000000000002</v>
       </c>
       <c r="I258" s="19">
-        <f t="shared" si="13"/>
-        <v>2.9686085436974965</v>
+        <f t="shared" si="7"/>
+        <v>3.1391456302503319E-2</v>
       </c>
       <c r="J258" s="13" t="str">
-        <f t="shared" si="11"/>
-        <v>0X4D73</v>
+        <f t="shared" si="6"/>
+        <v>0X00D1</v>
       </c>
     </row>
     <row r="259" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.25">
@@ -27411,12 +27411,12 @@
         <v>-3.1989999999999998</v>
       </c>
       <c r="I259" s="19">
-        <f t="shared" si="13"/>
-        <v>2.9692336850085286</v>
+        <f t="shared" si="7"/>
+        <v>3.0766314991471345E-2</v>
       </c>
       <c r="J259" s="20" t="str">
-        <f t="shared" si="11"/>
-        <v>0X4D77</v>
+        <f t="shared" si="6"/>
+        <v>0X00CD</v>
       </c>
     </row>
     <row r="260" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.25">
@@ -27445,12 +27445,12 @@
         <v>-3.2210000000000001</v>
       </c>
       <c r="I260" s="19">
-        <f t="shared" si="13"/>
-        <v>2.9698590896644692</v>
+        <f t="shared" si="7"/>
+        <v>3.0140910335530891E-2</v>
       </c>
       <c r="J260" s="13" t="str">
-        <f t="shared" si="11"/>
-        <v>0X4D7B</v>
+        <f t="shared" si="6"/>
+        <v>0X00C9</v>
       </c>
     </row>
     <row r="261" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.25">
@@ -27479,12 +27479,12 @@
         <v>-3.2440000000000002</v>
       </c>
       <c r="I261" s="19">
-        <f t="shared" si="13"/>
-        <v>2.9704847578317568</v>
+        <f t="shared" si="7"/>
+        <v>2.9515242168243201E-2</v>
       </c>
       <c r="J261" s="13" t="str">
-        <f t="shared" ref="J261:J309" si="14">CONCATENATE("0X",DEC2HEX(INT(I261*(32767/4.906)),4))</f>
-        <v>0X4D7F</v>
+        <f t="shared" ref="J261:J309" si="8">CONCATENATE("0X",DEC2HEX(INT(I261*(32767/4.906)),4))</f>
+        <v>0X00C5</v>
       </c>
     </row>
     <row r="262" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.25">
@@ -27513,12 +27513,12 @@
         <v>-3.2669999999999999</v>
       </c>
       <c r="I262" s="19">
-        <f t="shared" si="13"/>
-        <v>2.9710480846221925</v>
+        <f t="shared" ref="I262:I309" si="9">3*C262/(C262+47)</f>
+        <v>2.8951915377807749E-2</v>
       </c>
       <c r="J262" s="13" t="str">
-        <f t="shared" si="14"/>
-        <v>0X4D83</v>
+        <f t="shared" si="8"/>
+        <v>0X00C1</v>
       </c>
     </row>
     <row r="263" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.25">
@@ -27547,12 +27547,12 @@
         <v>-3.29</v>
       </c>
       <c r="I263" s="19">
-        <f>3*47/(C263+47)</f>
-        <v>2.9716116251132796</v>
+        <f t="shared" si="9"/>
+        <v>2.8388374886720479E-2</v>
       </c>
       <c r="J263" s="13" t="str">
-        <f t="shared" si="14"/>
-        <v>0X4D87</v>
+        <f t="shared" si="8"/>
+        <v>0X00BD</v>
       </c>
     </row>
     <row r="264" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.25">
@@ -27581,12 +27581,12 @@
         <v>-3.3130000000000002</v>
       </c>
       <c r="I264" s="19">
-        <f t="shared" si="13"/>
-        <v>2.9721753794266443</v>
+        <f t="shared" si="9"/>
+        <v>2.7824620573355819E-2</v>
       </c>
       <c r="J264" s="20" t="str">
-        <f t="shared" si="14"/>
-        <v>0X4D8B</v>
+        <f t="shared" si="8"/>
+        <v>0X00B9</v>
       </c>
     </row>
     <row r="265" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.25">
@@ -27615,12 +27615,12 @@
         <v>-3.3359999999999999</v>
       </c>
       <c r="I265" s="19">
-        <f t="shared" si="13"/>
-        <v>2.9727393476840045</v>
+        <f t="shared" si="9"/>
+        <v>2.7260652315995868E-2</v>
       </c>
       <c r="J265" s="13" t="str">
-        <f t="shared" si="14"/>
-        <v>0X4D8E</v>
+        <f t="shared" si="8"/>
+        <v>0X00B6</v>
       </c>
     </row>
     <row r="266" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.25">
@@ -27649,12 +27649,12 @@
         <v>-3.36</v>
       </c>
       <c r="I266" s="19">
-        <f t="shared" si="13"/>
-        <v>2.9732408325074329</v>
+        <f t="shared" si="9"/>
+        <v>2.6759167492566894E-2</v>
       </c>
       <c r="J266" s="13" t="str">
-        <f t="shared" si="14"/>
-        <v>0X4D92</v>
+        <f t="shared" si="8"/>
+        <v>0X00B2</v>
       </c>
     </row>
     <row r="267" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.25">
@@ -27683,12 +27683,12 @@
         <v>-3.383</v>
       </c>
       <c r="I267" s="19">
-        <f t="shared" si="13"/>
-        <v>2.9738052052136501</v>
+        <f t="shared" si="9"/>
+        <v>2.6194794786350024E-2</v>
       </c>
       <c r="J267" s="13" t="str">
-        <f t="shared" si="14"/>
-        <v>0X4D95</v>
+        <f t="shared" si="8"/>
+        <v>0X00AE</v>
       </c>
     </row>
     <row r="268" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.25">
@@ -27717,12 +27717,12 @@
         <v>-3.4060000000000001</v>
       </c>
       <c r="I268" s="19">
-        <f t="shared" si="13"/>
-        <v>2.9743070497405393</v>
+        <f t="shared" si="9"/>
+        <v>2.5692950259460827E-2</v>
       </c>
       <c r="J268" s="13" t="str">
-        <f t="shared" si="14"/>
-        <v>0X4D99</v>
+        <f t="shared" si="8"/>
+        <v>0X00AB</v>
       </c>
     </row>
     <row r="269" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.25">
@@ -27751,12 +27751,12 @@
         <v>-3.43</v>
       </c>
       <c r="I269" s="19">
-        <f t="shared" si="13"/>
-        <v>2.9748090636735727</v>
+        <f t="shared" si="9"/>
+        <v>2.5190936326427271E-2</v>
       </c>
       <c r="J269" s="20" t="str">
-        <f t="shared" si="14"/>
-        <v>0X4D9C</v>
+        <f t="shared" si="8"/>
+        <v>0X00A8</v>
       </c>
     </row>
     <row r="270" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.25">
@@ -27785,12 +27785,12 @@
         <v>-3.4529999999999998</v>
       </c>
       <c r="I270" s="19">
-        <f>3*47/(C270+47)</f>
-        <v>2.9752484648983986</v>
+        <f t="shared" si="9"/>
+        <v>2.4751535101601572E-2</v>
       </c>
       <c r="J270" s="13" t="str">
-        <f t="shared" si="14"/>
-        <v>0X4D9F</v>
+        <f t="shared" si="8"/>
+        <v>0X00A5</v>
       </c>
     </row>
     <row r="271" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.25">
@@ -27819,12 +27819,12 @@
         <v>-3.4769999999999999</v>
       </c>
       <c r="I271" s="19">
-        <f t="shared" ref="I271:I309" si="15">3*47/(C271+47)</f>
-        <v>2.9757507966992378</v>
+        <f t="shared" si="9"/>
+        <v>2.4249203300761874E-2</v>
       </c>
       <c r="J271" s="13" t="str">
-        <f t="shared" si="14"/>
-        <v>0X4DA2</v>
+        <f t="shared" si="8"/>
+        <v>0X00A1</v>
       </c>
     </row>
     <row r="272" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.25">
@@ -27853,12 +27853,12 @@
         <v>-3.5</v>
       </c>
       <c r="I272" s="19">
-        <f t="shared" si="15"/>
-        <v>2.9761904761904763</v>
+        <f t="shared" si="9"/>
+        <v>2.3809523809523812E-2</v>
       </c>
       <c r="J272" s="13" t="str">
-        <f t="shared" si="14"/>
-        <v>0X4DA5</v>
+        <f t="shared" si="8"/>
+        <v>0X009F</v>
       </c>
     </row>
     <row r="273" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.25">
@@ -27887,12 +27887,12 @@
         <v>-3.524</v>
       </c>
       <c r="I273" s="19">
-        <f t="shared" si="15"/>
-        <v>2.9766931261611211</v>
+        <f t="shared" si="9"/>
+        <v>2.330687383887857E-2</v>
       </c>
       <c r="J273" s="13" t="str">
-        <f t="shared" si="14"/>
-        <v>0X4DA9</v>
+        <f t="shared" si="8"/>
+        <v>0X009B</v>
       </c>
     </row>
     <row r="274" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.25">
@@ -27921,12 +27921,12 @@
         <v>-3.548</v>
       </c>
       <c r="I274" s="19">
-        <f t="shared" si="15"/>
-        <v>2.9771330841831887</v>
+        <f t="shared" si="9"/>
+        <v>2.2866915816811301E-2</v>
       </c>
       <c r="J274" s="20" t="str">
-        <f t="shared" si="14"/>
-        <v>0X4DAC</v>
+        <f t="shared" si="8"/>
+        <v>0X0098</v>
       </c>
     </row>
     <row r="275" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.25">
@@ -27955,12 +27955,12 @@
         <v>-3.5710000000000002</v>
       </c>
       <c r="I275" s="19">
-        <f t="shared" si="15"/>
-        <v>2.9775102945834657</v>
+        <f t="shared" si="9"/>
+        <v>2.2489705416534684E-2</v>
       </c>
       <c r="J275" s="13" t="str">
-        <f t="shared" si="14"/>
-        <v>0X4DAE</v>
+        <f t="shared" si="8"/>
+        <v>0X0096</v>
       </c>
     </row>
     <row r="276" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.25">
@@ -27989,12 +27989,12 @@
         <v>-3.5950000000000002</v>
       </c>
       <c r="I276" s="19">
-        <f t="shared" si="15"/>
-        <v>2.977950494213061</v>
+        <f t="shared" si="9"/>
+        <v>2.2049505786939261E-2</v>
       </c>
       <c r="J276" s="13" t="str">
-        <f t="shared" si="14"/>
-        <v>0X4DB1</v>
+        <f t="shared" si="8"/>
+        <v>0X0093</v>
       </c>
     </row>
     <row r="277" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.25">
@@ -28023,12 +28023,12 @@
         <v>-3.6190000000000002</v>
       </c>
       <c r="I277" s="19">
-        <f t="shared" si="15"/>
-        <v>2.9783908240214614</v>
+        <f t="shared" si="9"/>
+        <v>2.1609175978538689E-2</v>
       </c>
       <c r="J277" s="13" t="str">
-        <f t="shared" si="14"/>
-        <v>0X4DB4</v>
+        <f t="shared" si="8"/>
+        <v>0X0090</v>
       </c>
     </row>
     <row r="278" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.25">
@@ -28057,12 +28057,12 @@
         <v>-3.6429999999999998</v>
       </c>
       <c r="I278" s="19">
-        <f t="shared" si="15"/>
-        <v>2.9787683532269988</v>
+        <f t="shared" si="9"/>
+        <v>2.1231646773000951E-2</v>
       </c>
       <c r="J278" s="13" t="str">
-        <f t="shared" si="14"/>
-        <v>0X4DB7</v>
+        <f t="shared" si="8"/>
+        <v>0X008D</v>
       </c>
     </row>
     <row r="279" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.25">
@@ -28091,12 +28091,12 @@
         <v>-3.6669999999999998</v>
       </c>
       <c r="I279" s="19">
-        <f t="shared" si="15"/>
-        <v>2.9791459781529293</v>
+        <f t="shared" si="9"/>
+        <v>2.0854021847070508E-2</v>
       </c>
       <c r="J279" s="20" t="str">
-        <f t="shared" si="14"/>
-        <v>0X4DB9</v>
+        <f t="shared" si="8"/>
+        <v>0X008B</v>
       </c>
     </row>
     <row r="280" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.25">
@@ -28125,12 +28125,12 @@
         <v>-3.6909999999999998</v>
       </c>
       <c r="I280" s="19">
-        <f t="shared" si="15"/>
-        <v>2.9795236988356613</v>
+        <f t="shared" si="9"/>
+        <v>2.0476301164338694E-2</v>
       </c>
       <c r="J280" s="13" t="str">
-        <f t="shared" si="14"/>
-        <v>0X4DBC</v>
+        <f t="shared" si="8"/>
+        <v>0X0088</v>
       </c>
     </row>
     <row r="281" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.25">
@@ -28159,12 +28159,12 @@
         <v>-3.7160000000000002</v>
       </c>
       <c r="I281" s="19">
-        <f t="shared" si="15"/>
-        <v>2.9799015153116217</v>
+        <f t="shared" si="9"/>
+        <v>2.0098484688378385E-2</v>
       </c>
       <c r="J281" s="13" t="str">
-        <f t="shared" si="14"/>
-        <v>0X4DBE</v>
+        <f t="shared" si="8"/>
+        <v>0X0086</v>
       </c>
     </row>
     <row r="282" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.25">
@@ -28193,12 +28193,12 @@
         <v>-3.74</v>
       </c>
       <c r="I282" s="19">
-        <f t="shared" si="15"/>
-        <v>2.9802794276172562</v>
+        <f t="shared" si="9"/>
+        <v>1.9720572382743971E-2</v>
       </c>
       <c r="J282" s="13" t="str">
-        <f t="shared" si="14"/>
-        <v>0X4DC1</v>
+        <f t="shared" si="8"/>
+        <v>0X0083</v>
       </c>
     </row>
     <row r="283" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.25">
@@ -28227,12 +28227,12 @@
         <v>-3.7639999999999998</v>
       </c>
       <c r="I283" s="19">
-        <f t="shared" si="15"/>
-        <v>2.9806574357890288</v>
+        <f t="shared" si="9"/>
+        <v>1.9342564210971358E-2</v>
       </c>
       <c r="J283" s="13" t="str">
-        <f t="shared" si="14"/>
-        <v>0X4DC3</v>
+        <f t="shared" si="8"/>
+        <v>0X0081</v>
       </c>
     </row>
     <row r="284" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.25">
@@ -28261,12 +28261,12 @@
         <v>-3.7890000000000001</v>
       </c>
       <c r="I284" s="19">
-        <f t="shared" si="15"/>
-        <v>2.9810355398634223</v>
+        <f t="shared" si="9"/>
+        <v>1.8964460136577942E-2</v>
       </c>
       <c r="J284" s="20" t="str">
-        <f t="shared" si="14"/>
-        <v>0X4DC6</v>
+        <f t="shared" si="8"/>
+        <v>0X007E</v>
       </c>
     </row>
     <row r="285" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.25">
@@ -28295,12 +28295,12 @@
         <v>-3.8130000000000002</v>
       </c>
       <c r="I285" s="19">
-        <f t="shared" si="15"/>
-        <v>2.9813506998773631</v>
+        <f t="shared" si="9"/>
+        <v>1.864930012263712E-2</v>
       </c>
       <c r="J285" s="13" t="str">
-        <f t="shared" si="14"/>
-        <v>0X4DC8</v>
+        <f t="shared" si="8"/>
+        <v>0X007C</v>
       </c>
     </row>
     <row r="286" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.25">
@@ -28329,12 +28329,12 @@
         <v>-3.8380000000000001</v>
       </c>
       <c r="I286" s="19">
-        <f t="shared" si="15"/>
-        <v>2.9816659265368268</v>
+        <f t="shared" si="9"/>
+        <v>1.8334073463173253E-2</v>
       </c>
       <c r="J286" s="13" t="str">
-        <f t="shared" si="14"/>
-        <v>0X4DCA</v>
+        <f t="shared" si="8"/>
+        <v>0X007A</v>
       </c>
     </row>
     <row r="287" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.25">
@@ -28363,12 +28363,12 @@
         <v>-3.8620000000000001</v>
       </c>
       <c r="I287" s="19">
-        <f t="shared" si="15"/>
-        <v>2.9820442865300425</v>
+        <f t="shared" si="9"/>
+        <v>1.7955713469957488E-2</v>
       </c>
       <c r="J287" s="13" t="str">
-        <f t="shared" si="14"/>
-        <v>0X4DCC</v>
+        <f t="shared" si="8"/>
+        <v>0X0077</v>
       </c>
     </row>
     <row r="288" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.25">
@@ -28397,12 +28397,12 @@
         <v>-3.887</v>
       </c>
       <c r="I288" s="19">
-        <f t="shared" si="15"/>
-        <v>2.9823596598840898</v>
+        <f t="shared" si="9"/>
+        <v>1.764034011591015E-2</v>
       </c>
       <c r="J288" s="13" t="str">
-        <f t="shared" si="14"/>
-        <v>0X4DCF</v>
+        <f t="shared" si="8"/>
+        <v>0X0075</v>
       </c>
     </row>
     <row r="289" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.25">
@@ -28431,12 +28431,12 @@
         <v>-3.9119999999999999</v>
       </c>
       <c r="I289" s="19">
-        <f t="shared" si="15"/>
-        <v>2.9826750999513463</v>
+        <f t="shared" si="9"/>
+        <v>1.7324900048653565E-2</v>
       </c>
       <c r="J289" s="20" t="str">
-        <f t="shared" si="14"/>
-        <v>0X4DD1</v>
+        <f t="shared" si="8"/>
+        <v>0X0073</v>
       </c>
     </row>
     <row r="290" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.25">
@@ -28465,12 +28465,12 @@
         <v>-3.9359999999999999</v>
       </c>
       <c r="I290" s="19">
-        <f t="shared" si="15"/>
-        <v>2.982990606752983</v>
+        <f t="shared" si="9"/>
+        <v>1.7009393247017009E-2</v>
       </c>
       <c r="J290" s="13" t="str">
-        <f t="shared" si="14"/>
-        <v>0X4DD3</v>
+        <f t="shared" si="8"/>
+        <v>0X0071</v>
       </c>
     </row>
     <row r="291" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.25">
@@ -28499,12 +28499,12 @@
         <v>-3.9609999999999999</v>
       </c>
       <c r="I291" s="19">
-        <f t="shared" si="15"/>
-        <v>2.9832430602572781</v>
+        <f t="shared" si="9"/>
+        <v>1.6756939742721733E-2</v>
       </c>
       <c r="J291" s="13" t="str">
-        <f t="shared" si="14"/>
-        <v>0X4DD4</v>
+        <f t="shared" si="8"/>
+        <v>0X006F</v>
       </c>
     </row>
     <row r="292" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.25">
@@ -28533,12 +28533,12 @@
         <v>-3.9860000000000002</v>
       </c>
       <c r="I292" s="19">
-        <f>3*47/(C292+47)</f>
-        <v>2.9835586872341775</v>
+        <f t="shared" si="9"/>
+        <v>1.6441312765822384E-2</v>
       </c>
       <c r="J292" s="13" t="str">
-        <f t="shared" si="14"/>
-        <v>0X4DD7</v>
+        <f t="shared" si="8"/>
+        <v>0X006D</v>
       </c>
     </row>
     <row r="293" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.25">
@@ -28567,12 +28567,12 @@
         <v>-4.0110000000000001</v>
       </c>
       <c r="I293" s="19">
-        <f t="shared" si="15"/>
-        <v>2.983874381004783</v>
+        <f t="shared" si="9"/>
+        <v>1.6125618995217337E-2</v>
       </c>
       <c r="J293" s="13" t="str">
-        <f t="shared" si="14"/>
-        <v>0X4DD9</v>
+        <f t="shared" si="8"/>
+        <v>0X006B</v>
       </c>
     </row>
     <row r="294" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.25">
@@ -28601,12 +28601,12 @@
         <v>-4.0359999999999996</v>
       </c>
       <c r="I294" s="19">
-        <f t="shared" si="15"/>
-        <v>2.9841269841269842</v>
+        <f t="shared" si="9"/>
+        <v>1.5873015873015872E-2</v>
       </c>
       <c r="J294" s="20" t="str">
-        <f t="shared" si="14"/>
-        <v>0X4DDA</v>
+        <f t="shared" si="8"/>
+        <v>0X006A</v>
       </c>
     </row>
     <row r="295" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.25">
@@ -28635,12 +28635,12 @@
         <v>-4.0620000000000003</v>
       </c>
       <c r="I295" s="19">
-        <f t="shared" si="15"/>
-        <v>2.9843796300215888</v>
+        <f t="shared" si="9"/>
+        <v>1.562036997841087E-2</v>
       </c>
       <c r="J295" s="13" t="str">
-        <f t="shared" si="14"/>
-        <v>0X4DDC</v>
+        <f t="shared" si="8"/>
+        <v>0X0068</v>
       </c>
     </row>
     <row r="296" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.25">
@@ -28669,12 +28669,12 @@
         <v>-4.0869999999999997</v>
       </c>
       <c r="I296" s="19">
-        <f t="shared" si="15"/>
-        <v>2.9846954975550899</v>
+        <f t="shared" si="9"/>
+        <v>1.5304502444910141E-2</v>
       </c>
       <c r="J296" s="13" t="str">
-        <f t="shared" si="14"/>
-        <v>0X4DDE</v>
+        <f t="shared" si="8"/>
+        <v>0X0066</v>
       </c>
     </row>
     <row r="297" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.25">
@@ -28703,12 +28703,12 @@
         <v>-4.1120000000000001</v>
       </c>
       <c r="I297" s="19">
-        <f t="shared" si="15"/>
-        <v>2.9849482397273324</v>
+        <f t="shared" si="9"/>
+        <v>1.5051760272667612E-2</v>
       </c>
       <c r="J297" s="13" t="str">
-        <f t="shared" si="14"/>
-        <v>0X4DE0</v>
+        <f t="shared" si="8"/>
+        <v>0X0064</v>
       </c>
     </row>
     <row r="298" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.25">
@@ -28737,12 +28737,12 @@
         <v>-4.1369999999999996</v>
       </c>
       <c r="I298" s="19">
-        <f t="shared" si="15"/>
-        <v>2.9852010247073024</v>
+        <f t="shared" si="9"/>
+        <v>1.4798975292697905E-2</v>
       </c>
       <c r="J298" s="13" t="str">
-        <f t="shared" si="14"/>
-        <v>0X4DE2</v>
+        <f t="shared" si="8"/>
+        <v>0X0062</v>
       </c>
     </row>
     <row r="299" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.25">
@@ -28771,12 +28771,12 @@
         <v>-4.1630000000000003</v>
       </c>
       <c r="I299" s="19">
-        <f t="shared" si="15"/>
-        <v>2.9854538525058758</v>
+        <f t="shared" si="9"/>
+        <v>1.4546147494124374E-2</v>
       </c>
       <c r="J299" s="20" t="str">
-        <f t="shared" si="14"/>
-        <v>0X4DE3</v>
+        <f t="shared" si="8"/>
+        <v>0X0061</v>
       </c>
     </row>
     <row r="300" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.25">
@@ -28805,12 +28805,12 @@
         <v>-4.1879999999999997</v>
       </c>
       <c r="I300" s="19">
-        <f t="shared" si="15"/>
-        <v>2.9857067231339331</v>
+        <f t="shared" si="9"/>
+        <v>1.4293276866066703E-2</v>
       </c>
       <c r="J300" s="13" t="str">
-        <f t="shared" si="14"/>
-        <v>0X4DE5</v>
+        <f t="shared" si="8"/>
+        <v>0X005F</v>
       </c>
     </row>
     <row r="301" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.25">
@@ -28839,12 +28839,12 @@
         <v>-4.2140000000000004</v>
       </c>
       <c r="I301" s="19">
-        <f t="shared" si="15"/>
-        <v>2.9859596366023595</v>
+        <f t="shared" si="9"/>
+        <v>1.4040363397640882E-2</v>
       </c>
       <c r="J301" s="13" t="str">
-        <f t="shared" si="14"/>
-        <v>0X4DE7</v>
+        <f t="shared" si="8"/>
+        <v>0X005D</v>
       </c>
     </row>
     <row r="302" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.25">
@@ -28873,12 +28873,12 @@
         <v>-4.2389999999999999</v>
       </c>
       <c r="I302" s="19">
-        <f t="shared" si="15"/>
-        <v>2.9861493498242195</v>
+        <f t="shared" si="9"/>
+        <v>1.3850650175780422E-2</v>
       </c>
       <c r="J302" s="13" t="str">
-        <f t="shared" si="14"/>
-        <v>0X4DE8</v>
+        <f t="shared" si="8"/>
+        <v>0X005C</v>
       </c>
     </row>
     <row r="303" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.25">
@@ -28907,12 +28907,12 @@
         <v>-4.2649999999999997</v>
       </c>
       <c r="I303" s="19">
-        <f t="shared" si="15"/>
-        <v>2.9864023382894906</v>
+        <f t="shared" si="9"/>
+        <v>1.3597661710509596E-2</v>
       </c>
       <c r="J303" s="13" t="str">
-        <f t="shared" si="14"/>
-        <v>0X4DEA</v>
+        <f t="shared" si="8"/>
+        <v>0X005A</v>
       </c>
     </row>
     <row r="304" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.25">
@@ -28941,12 +28941,12 @@
         <v>-4.2910000000000004</v>
       </c>
       <c r="I304" s="19">
-        <f t="shared" si="15"/>
-        <v>2.9866553696250793</v>
+        <f t="shared" si="9"/>
+        <v>1.3344630374920568E-2</v>
       </c>
       <c r="J304" s="20" t="str">
-        <f t="shared" si="14"/>
-        <v>0X4DEB</v>
+        <f t="shared" si="8"/>
+        <v>0X0059</v>
       </c>
     </row>
     <row r="305" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.25">
@@ -28975,12 +28975,12 @@
         <v>-4.3170000000000002</v>
       </c>
       <c r="I305" s="19">
-        <f t="shared" si="15"/>
-        <v>2.9868451712669732</v>
+        <f t="shared" si="9"/>
+        <v>1.3154828733026881E-2</v>
       </c>
       <c r="J305" s="13" t="str">
-        <f t="shared" si="14"/>
-        <v>0X4DED</v>
+        <f t="shared" si="8"/>
+        <v>0X0057</v>
       </c>
     </row>
     <row r="306" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.25">
@@ -29009,12 +29009,12 @@
         <v>-4.343</v>
       </c>
       <c r="I306" s="19">
-        <f t="shared" si="15"/>
-        <v>2.9870982776518438</v>
+        <f t="shared" si="9"/>
+        <v>1.2901722348155837E-2</v>
       </c>
       <c r="J306" s="13" t="str">
-        <f t="shared" si="14"/>
-        <v>0X4DEE</v>
+        <f t="shared" si="8"/>
+        <v>0X0056</v>
       </c>
     </row>
     <row r="307" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.25">
@@ -29043,12 +29043,12 @@
         <v>-4.3689999999999998</v>
       </c>
       <c r="I307" s="19">
-        <f t="shared" si="15"/>
-        <v>2.9872881355932202</v>
+        <f t="shared" si="9"/>
+        <v>1.2711864406779662E-2</v>
       </c>
       <c r="J307" s="13" t="str">
-        <f t="shared" si="14"/>
-        <v>0X4DEF</v>
+        <f t="shared" si="8"/>
+        <v>0X0054</v>
       </c>
     </row>
     <row r="308" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.25">
@@ -29077,12 +29077,12 @@
         <v>-4.3949999999999996</v>
       </c>
       <c r="I308" s="19">
-        <f t="shared" si="15"/>
-        <v>2.9874780176706146</v>
+        <f t="shared" si="9"/>
+        <v>1.2521982329385341E-2</v>
       </c>
       <c r="J308" s="13" t="str">
-        <f t="shared" si="14"/>
-        <v>0X4DF1</v>
+        <f t="shared" si="8"/>
+        <v>0X0053</v>
       </c>
     </row>
     <row r="309" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.25">
@@ -29111,12 +29111,12 @@
         <v>-4.4210000000000003</v>
       </c>
       <c r="I309" s="19">
-        <f t="shared" si="15"/>
-        <v>2.9876679238886297</v>
+        <f t="shared" si="9"/>
+        <v>1.2332076111370091E-2</v>
       </c>
       <c r="J309" s="20" t="str">
-        <f t="shared" si="14"/>
-        <v>0X4DF2</v>
+        <f t="shared" si="8"/>
+        <v>0X0052</v>
       </c>
     </row>
   </sheetData>

--- a/Doc/Datasheet/NTC.xlsx
+++ b/Doc/Datasheet/NTC.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Lab\CNCPowerSupply\Doc\Datasheet\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{53E201F0-C518-4BF5-9475-D9C497F7B2C0}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3FE5D444-FF99-4E54-9CB6-7BFEBBDA7C2E}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="25200" windowHeight="11685" xr2:uid="{FDA495EA-3626-4E37-8131-E5F3C3AF6CCF}"/>
   </bookViews>
@@ -18633,8 +18633,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{31343B00-3B5C-4787-BC48-72301809BDF5}">
   <dimension ref="A1:J309"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A274" workbookViewId="0">
-      <selection activeCell="J4" sqref="J4:J309"/>
+    <sheetView tabSelected="1" topLeftCell="A190" workbookViewId="0">
+      <selection activeCell="J32" sqref="J32:J309"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -18745,8 +18745,8 @@
         <v>2.9800251032036331</v>
       </c>
       <c r="J4" s="20" t="str">
-        <f>CONCATENATE("0X",DEC2HEX(INT(I4*(32767/4.906)),4))</f>
-        <v>0X4DBF</v>
+        <f>CONCATENATE("0X",DEC2HEX(INT(I4*(32767/4.096)),4))</f>
+        <v>0X5D1F</v>
       </c>
     </row>
     <row r="5" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.25">
@@ -18778,9 +18778,9 @@
         <f>3*C5/(C5+47)</f>
         <v>2.9790093921804774</v>
       </c>
-      <c r="J5" s="13" t="str">
-        <f t="shared" ref="J5:J68" si="0">CONCATENATE("0X",DEC2HEX(INT(I5*(32767/4.906)),4))</f>
-        <v>0X4DB8</v>
+      <c r="J5" s="20" t="str">
+        <f t="shared" ref="J5:J68" si="0">CONCATENATE("0X",DEC2HEX(INT(I5*(32767/4.096)),4))</f>
+        <v>0X5D17</v>
       </c>
     </row>
     <row r="6" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.25">
@@ -18812,9 +18812,9 @@
         <f t="shared" ref="I6:I69" si="1">3*C6/(C6+47)</f>
         <v>2.9779081354466319</v>
       </c>
-      <c r="J6" s="13" t="str">
+      <c r="J6" s="20" t="str">
         <f t="shared" si="0"/>
-        <v>0X4DB1</v>
+        <v>0X5D0E</v>
       </c>
     </row>
     <row r="7" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.25">
@@ -18846,9 +18846,9 @@
         <f t="shared" si="1"/>
         <v>2.9767164208680317</v>
       </c>
-      <c r="J7" s="13" t="str">
+      <c r="J7" s="20" t="str">
         <f t="shared" si="0"/>
-        <v>0X4DA9</v>
+        <v>0X5D05</v>
       </c>
     </row>
     <row r="8" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.25">
@@ -18880,9 +18880,9 @@
         <f t="shared" si="1"/>
         <v>2.9754291619253079</v>
       </c>
-      <c r="J8" s="13" t="str">
+      <c r="J8" s="20" t="str">
         <f t="shared" si="0"/>
-        <v>0X4DA0</v>
+        <v>0X5CFA</v>
       </c>
     </row>
     <row r="9" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.25">
@@ -18916,7 +18916,7 @@
       </c>
       <c r="J9" s="20" t="str">
         <f t="shared" si="0"/>
-        <v>0X4D97</v>
+        <v>0X5CEF</v>
       </c>
     </row>
     <row r="10" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.25">
@@ -18948,9 +18948,9 @@
         <f t="shared" si="1"/>
         <v>2.9725466220662855</v>
       </c>
-      <c r="J10" s="13" t="str">
+      <c r="J10" s="20" t="str">
         <f t="shared" si="0"/>
-        <v>0X4D8D</v>
+        <v>0X5CE3</v>
       </c>
     </row>
     <row r="11" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.25">
@@ -18982,9 +18982,9 @@
         <f t="shared" si="1"/>
         <v>2.9709399384174016</v>
       </c>
-      <c r="J11" s="13" t="str">
+      <c r="J11" s="20" t="str">
         <f t="shared" si="0"/>
-        <v>0X4D82</v>
+        <v>0X5CD6</v>
       </c>
     </row>
     <row r="12" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.25">
@@ -19016,9 +19016,9 @@
         <f t="shared" si="1"/>
         <v>2.9692150492559213</v>
       </c>
-      <c r="J12" s="13" t="str">
+      <c r="J12" s="20" t="str">
         <f t="shared" si="0"/>
-        <v>0X4D77</v>
+        <v>0X5CC8</v>
       </c>
     </row>
     <row r="13" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.25">
@@ -19050,9 +19050,9 @@
         <f t="shared" si="1"/>
         <v>2.9673657191924288</v>
       </c>
-      <c r="J13" s="13" t="str">
+      <c r="J13" s="20" t="str">
         <f t="shared" si="0"/>
-        <v>0X4D6A</v>
+        <v>0X5CBA</v>
       </c>
     </row>
     <row r="14" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.25">
@@ -19086,7 +19086,7 @@
       </c>
       <c r="J14" s="20" t="str">
         <f t="shared" si="0"/>
-        <v>0X4D5D</v>
+        <v>0X5CAA</v>
       </c>
     </row>
     <row r="15" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.25">
@@ -19118,9 +19118,9 @@
         <f t="shared" si="1"/>
         <v>2.9632676666892444</v>
       </c>
-      <c r="J15" s="13" t="str">
+      <c r="J15" s="20" t="str">
         <f t="shared" si="0"/>
-        <v>0X4D4F</v>
+        <v>0X5C99</v>
       </c>
     </row>
     <row r="16" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.25">
@@ -19152,9 +19152,9 @@
         <f t="shared" si="1"/>
         <v>2.9610053430976691</v>
       </c>
-      <c r="J16" s="13" t="str">
+      <c r="J16" s="20" t="str">
         <f t="shared" si="0"/>
-        <v>0X4D40</v>
+        <v>0X5C87</v>
       </c>
     </row>
     <row r="17" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.25">
@@ -19186,9 +19186,9 @@
         <f t="shared" si="1"/>
         <v>2.9585915244779888</v>
       </c>
-      <c r="J17" s="13" t="str">
+      <c r="J17" s="20" t="str">
         <f t="shared" si="0"/>
-        <v>0X4D30</v>
+        <v>0X5C74</v>
       </c>
     </row>
     <row r="18" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.25">
@@ -19220,9 +19220,9 @@
         <f t="shared" si="1"/>
         <v>2.9560190022863879</v>
       </c>
-      <c r="J18" s="13" t="str">
+      <c r="J18" s="20" t="str">
         <f t="shared" si="0"/>
-        <v>0X4D1F</v>
+        <v>0X5C5F</v>
       </c>
     </row>
     <row r="19" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.25">
@@ -19256,7 +19256,7 @@
       </c>
       <c r="J19" s="20" t="str">
         <f t="shared" si="0"/>
-        <v>0X4D0C</v>
+        <v>0X5C49</v>
       </c>
     </row>
     <row r="20" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.25">
@@ -19288,9 +19288,9 @@
         <f t="shared" si="1"/>
         <v>2.950367666470719</v>
       </c>
-      <c r="J20" s="13" t="str">
+      <c r="J20" s="20" t="str">
         <f t="shared" si="0"/>
-        <v>0X4CF9</v>
+        <v>0X5C32</v>
       </c>
     </row>
     <row r="21" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.25">
@@ -19322,9 +19322,9 @@
         <f t="shared" si="1"/>
         <v>2.9472735567538457</v>
       </c>
-      <c r="J21" s="13" t="str">
+      <c r="J21" s="20" t="str">
         <f t="shared" si="0"/>
-        <v>0X4CE4</v>
+        <v>0X5C19</v>
       </c>
     </row>
     <row r="22" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.25">
@@ -19356,9 +19356,9 @@
         <f t="shared" si="1"/>
         <v>2.9439898307777868</v>
       </c>
-      <c r="J22" s="13" t="str">
+      <c r="J22" s="20" t="str">
         <f t="shared" si="0"/>
-        <v>0X4CCE</v>
+        <v>0X5BFF</v>
       </c>
     </row>
     <row r="23" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.25">
@@ -19390,9 +19390,9 @@
         <f t="shared" si="1"/>
         <v>2.9405085882814577</v>
       </c>
-      <c r="J23" s="13" t="str">
+      <c r="J23" s="20" t="str">
         <f t="shared" si="0"/>
-        <v>0X4CB7</v>
+        <v>0X5BE3</v>
       </c>
     </row>
     <row r="24" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.25">
@@ -19426,7 +19426,7 @@
       </c>
       <c r="J24" s="20" t="str">
         <f t="shared" si="0"/>
-        <v>0X4C9E</v>
+        <v>0X5BC5</v>
       </c>
     </row>
     <row r="25" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.25">
@@ -19458,9 +19458,9 @@
         <f t="shared" si="1"/>
         <v>2.9329203893471871</v>
       </c>
-      <c r="J25" s="13" t="str">
+      <c r="J25" s="20" t="str">
         <f t="shared" si="0"/>
-        <v>0X4C84</v>
+        <v>0X5BA6</v>
       </c>
     </row>
     <row r="26" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.25">
@@ -19492,9 +19492,9 @@
         <f t="shared" si="1"/>
         <v>2.9287965095139983</v>
       </c>
-      <c r="J26" s="13" t="str">
+      <c r="J26" s="20" t="str">
         <f t="shared" si="0"/>
-        <v>0X4C69</v>
+        <v>0X5B85</v>
       </c>
     </row>
     <row r="27" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.25">
@@ -19526,9 +19526,9 @@
         <f t="shared" si="1"/>
         <v>2.9244417531656763</v>
       </c>
-      <c r="J27" s="13" t="str">
+      <c r="J27" s="20" t="str">
         <f t="shared" si="0"/>
-        <v>0X4C4C</v>
+        <v>0X5B62</v>
       </c>
     </row>
     <row r="28" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.25">
@@ -19560,9 +19560,9 @@
         <f t="shared" si="1"/>
         <v>2.9198471980626897</v>
       </c>
-      <c r="J28" s="13" t="str">
+      <c r="J28" s="20" t="str">
         <f t="shared" si="0"/>
-        <v>0X4C2D</v>
+        <v>0X5B3E</v>
       </c>
     </row>
     <row r="29" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.25">
@@ -19596,7 +19596,7 @@
       </c>
       <c r="J29" s="20" t="str">
         <f t="shared" si="0"/>
-        <v>0X4C0D</v>
+        <v>0X5B17</v>
       </c>
     </row>
     <row r="30" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.25">
@@ -19628,9 +19628,9 @@
         <f t="shared" si="1"/>
         <v>2.9099030019552967</v>
       </c>
-      <c r="J30" s="13" t="str">
+      <c r="J30" s="20" t="str">
         <f t="shared" si="0"/>
-        <v>0X4BEB</v>
+        <v>0X5AEE</v>
       </c>
     </row>
     <row r="31" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.25">
@@ -19662,9 +19662,9 @@
         <f t="shared" si="1"/>
         <v>2.904536222071767</v>
       </c>
-      <c r="J31" s="13" t="str">
+      <c r="J31" s="20" t="str">
         <f t="shared" si="0"/>
-        <v>0X4BC7</v>
+        <v>0X5AC3</v>
       </c>
     </row>
     <row r="32" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.25">
@@ -19696,9 +19696,9 @@
         <f t="shared" si="1"/>
         <v>2.898893565758621</v>
       </c>
-      <c r="J32" s="13" t="str">
+      <c r="J32" s="20" t="str">
         <f t="shared" si="0"/>
-        <v>0X4BA1</v>
+        <v>0X5A96</v>
       </c>
     </row>
     <row r="33" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.25">
@@ -19730,9 +19730,9 @@
         <f t="shared" si="1"/>
         <v>2.8929669412077277</v>
       </c>
-      <c r="J33" s="13" t="str">
+      <c r="J33" s="20" t="str">
         <f t="shared" si="0"/>
-        <v>0X4B7A</v>
+        <v>0X5A67</v>
       </c>
     </row>
     <row r="34" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.25">
@@ -19766,7 +19766,7 @@
       </c>
       <c r="J34" s="20" t="str">
         <f t="shared" si="0"/>
-        <v>0X4B50</v>
+        <v>0X5A35</v>
       </c>
     </row>
     <row r="35" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.25">
@@ -19798,9 +19798,9 @@
         <f t="shared" si="1"/>
         <v>2.8802232434866077</v>
       </c>
-      <c r="J35" s="13" t="str">
+      <c r="J35" s="20" t="str">
         <f t="shared" si="0"/>
-        <v>0X4B24</v>
+        <v>0X5A01</v>
       </c>
     </row>
     <row r="36" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.25">
@@ -19832,9 +19832,9 @@
         <f t="shared" si="1"/>
         <v>2.8733893054370765</v>
       </c>
-      <c r="J36" s="13" t="str">
+      <c r="J36" s="20" t="str">
         <f t="shared" si="0"/>
-        <v>0X4AF7</v>
+        <v>0X59CA</v>
       </c>
     </row>
     <row r="37" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.25">
@@ -19866,9 +19866,9 @@
         <f t="shared" si="1"/>
         <v>2.8662327928885176</v>
       </c>
-      <c r="J37" s="13" t="str">
+      <c r="J37" s="20" t="str">
         <f t="shared" si="0"/>
-        <v>0X4AC7</v>
+        <v>0X5991</v>
       </c>
     </row>
     <row r="38" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.25">
@@ -19900,9 +19900,9 @@
         <f t="shared" si="1"/>
         <v>2.8587481479477908</v>
       </c>
-      <c r="J38" s="13" t="str">
+      <c r="J38" s="20" t="str">
         <f t="shared" si="0"/>
-        <v>0X4A95</v>
+        <v>0X5955</v>
       </c>
     </row>
     <row r="39" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.25">
@@ -19936,7 +19936,7 @@
       </c>
       <c r="J39" s="20" t="str">
         <f t="shared" si="0"/>
-        <v>0X4A61</v>
+        <v>0X5916</v>
       </c>
     </row>
     <row r="40" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.25">
@@ -19968,9 +19968,9 @@
         <f t="shared" si="1"/>
         <v>2.8427492340995495</v>
       </c>
-      <c r="J40" s="13" t="str">
+      <c r="J40" s="20" t="str">
         <f t="shared" si="0"/>
-        <v>0X4A2A</v>
+        <v>0X58D5</v>
       </c>
     </row>
     <row r="41" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.25">
@@ -20002,9 +20002,9 @@
         <f t="shared" si="1"/>
         <v>2.8342178964720155</v>
       </c>
-      <c r="J41" s="13" t="str">
+      <c r="J41" s="20" t="str">
         <f t="shared" si="0"/>
-        <v>0X49F1</v>
+        <v>0X5891</v>
       </c>
     </row>
     <row r="42" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.25">
@@ -20036,9 +20036,9 @@
         <f t="shared" si="1"/>
         <v>2.8253197206602172</v>
       </c>
-      <c r="J42" s="13" t="str">
+      <c r="J42" s="20" t="str">
         <f t="shared" si="0"/>
-        <v>0X49B6</v>
+        <v>0X5849</v>
       </c>
     </row>
     <row r="43" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.25">
@@ -20070,9 +20070,9 @@
         <f t="shared" si="1"/>
         <v>2.8160457667695158</v>
       </c>
-      <c r="J43" s="13" t="str">
+      <c r="J43" s="20" t="str">
         <f t="shared" si="0"/>
-        <v>0X4978</v>
+        <v>0X57FF</v>
       </c>
     </row>
     <row r="44" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.25">
@@ -20106,7 +20106,7 @@
       </c>
       <c r="J44" s="20" t="str">
         <f t="shared" si="0"/>
-        <v>0X4937</v>
+        <v>0X57B2</v>
       </c>
     </row>
     <row r="45" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.25">
@@ -20138,9 +20138,9 @@
         <f t="shared" si="1"/>
         <v>2.7963343064027582</v>
       </c>
-      <c r="J45" s="13" t="str">
+      <c r="J45" s="20" t="str">
         <f t="shared" si="0"/>
-        <v>0X48F4</v>
+        <v>0X5761</v>
       </c>
     </row>
     <row r="46" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.25">
@@ -20172,9 +20172,9 @@
         <f t="shared" si="1"/>
         <v>2.7858792693168026</v>
       </c>
-      <c r="J46" s="13" t="str">
+      <c r="J46" s="20" t="str">
         <f t="shared" si="0"/>
-        <v>0X48AE</v>
+        <v>0X570E</v>
       </c>
     </row>
     <row r="47" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.25">
@@ -20206,9 +20206,9 @@
         <f t="shared" si="1"/>
         <v>2.7750130444564651</v>
       </c>
-      <c r="J47" s="13" t="str">
+      <c r="J47" s="20" t="str">
         <f t="shared" si="0"/>
-        <v>0X4866</v>
+        <v>0X56B7</v>
       </c>
     </row>
     <row r="48" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.25">
@@ -20240,9 +20240,9 @@
         <f t="shared" si="1"/>
         <v>2.7637272776020163</v>
       </c>
-      <c r="J48" s="13" t="str">
+      <c r="J48" s="20" t="str">
         <f t="shared" si="0"/>
-        <v>0X481A</v>
+        <v>0X565D</v>
       </c>
     </row>
     <row r="49" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.25">
@@ -20276,7 +20276,7 @@
       </c>
       <c r="J49" s="20" t="str">
         <f t="shared" si="0"/>
-        <v>0X47CC</v>
+        <v>0X55FF</v>
       </c>
     </row>
     <row r="50" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.25">
@@ -20308,9 +20308,9 @@
         <f t="shared" si="1"/>
         <v>2.7398639174649095</v>
       </c>
-      <c r="J50" s="13" t="str">
+      <c r="J50" s="20" t="str">
         <f t="shared" si="0"/>
-        <v>0X477B</v>
+        <v>0X559E</v>
       </c>
     </row>
     <row r="51" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.25">
@@ -20342,9 +20342,9 @@
         <f t="shared" si="1"/>
         <v>2.7272700896527047</v>
       </c>
-      <c r="J51" s="13" t="str">
+      <c r="J51" s="20" t="str">
         <f t="shared" si="0"/>
-        <v>0X4727</v>
+        <v>0X5539</v>
       </c>
     </row>
     <row r="52" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.25">
@@ -20376,9 +20376,9 @@
         <f t="shared" si="1"/>
         <v>2.7142254902755596</v>
       </c>
-      <c r="J52" s="13" t="str">
+      <c r="J52" s="20" t="str">
         <f t="shared" si="0"/>
-        <v>0X46D0</v>
+        <v>0X54D1</v>
       </c>
     </row>
     <row r="53" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.25">
@@ -20410,9 +20410,9 @@
         <f t="shared" si="1"/>
         <v>2.7007220875589537</v>
       </c>
-      <c r="J53" s="13" t="str">
+      <c r="J53" s="20" t="str">
         <f t="shared" si="0"/>
-        <v>0X4676</v>
+        <v>0X5465</v>
       </c>
     </row>
     <row r="54" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.25">
@@ -20446,7 +20446,7 @@
       </c>
       <c r="J54" s="20" t="str">
         <f t="shared" si="0"/>
-        <v>0X4618</v>
+        <v>0X53F5</v>
       </c>
     </row>
     <row r="55" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.25">
@@ -20478,9 +20478,9 @@
         <f t="shared" si="1"/>
         <v>2.6723109745611056</v>
       </c>
-      <c r="J55" s="13" t="str">
+      <c r="J55" s="20" t="str">
         <f t="shared" si="0"/>
-        <v>0X45B8</v>
+        <v>0X5381</v>
       </c>
     </row>
     <row r="56" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.25">
@@ -20512,9 +20512,9 @@
         <f t="shared" si="1"/>
         <v>2.6573911184114611</v>
       </c>
-      <c r="J56" s="13" t="str">
+      <c r="J56" s="20" t="str">
         <f t="shared" si="0"/>
-        <v>0X4554</v>
+        <v>0X530A</v>
       </c>
     </row>
     <row r="57" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.25">
@@ -20546,9 +20546,9 @@
         <f t="shared" si="1"/>
         <v>2.641986593540524</v>
       </c>
-      <c r="J57" s="13" t="str">
+      <c r="J57" s="20" t="str">
         <f t="shared" si="0"/>
-        <v>0X44ED</v>
+        <v>0X528F</v>
       </c>
     </row>
     <row r="58" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.25">
@@ -20580,9 +20580,9 @@
         <f t="shared" si="1"/>
         <v>2.6260928827708376</v>
       </c>
-      <c r="J58" s="13" t="str">
+      <c r="J58" s="20" t="str">
         <f t="shared" si="0"/>
-        <v>0X4483</v>
+        <v>0X5210</v>
       </c>
     </row>
     <row r="59" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.25">
@@ -20616,7 +20616,7 @@
       </c>
       <c r="J59" s="20" t="str">
         <f t="shared" si="0"/>
-        <v>0X4420</v>
+        <v>0X5199</v>
       </c>
     </row>
     <row r="60" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.25">
@@ -20648,9 +20648,9 @@
         <f t="shared" si="1"/>
         <v>2.5928185905747609</v>
       </c>
-      <c r="J60" s="13" t="str">
+      <c r="J60" s="20" t="str">
         <f t="shared" si="0"/>
-        <v>0X43A5</v>
+        <v>0X5105</v>
       </c>
     </row>
     <row r="61" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.25">
@@ -20682,9 +20682,9 @@
         <f t="shared" si="1"/>
         <v>2.575430366063336</v>
       </c>
-      <c r="J61" s="13" t="str">
+      <c r="J61" s="20" t="str">
         <f t="shared" si="0"/>
-        <v>0X4331</v>
+        <v>0X507A</v>
       </c>
     </row>
     <row r="62" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.25">
@@ -20716,9 +20716,9 @@
         <f t="shared" si="1"/>
         <v>2.5575373975040088</v>
       </c>
-      <c r="J62" s="13" t="str">
+      <c r="J62" s="20" t="str">
         <f t="shared" si="0"/>
-        <v>0X42B9</v>
+        <v>0X4FEB</v>
       </c>
     </row>
     <row r="63" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.25">
@@ -20750,9 +20750,9 @@
         <f t="shared" si="1"/>
         <v>2.5391358634011771</v>
       </c>
-      <c r="J63" s="13" t="str">
+      <c r="J63" s="20" t="str">
         <f t="shared" si="0"/>
-        <v>0X423E</v>
+        <v>0X4F58</v>
       </c>
     </row>
     <row r="64" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.25">
@@ -20786,7 +20786,7 @@
       </c>
       <c r="J64" s="20" t="str">
         <f t="shared" si="0"/>
-        <v>0X41C0</v>
+        <v>0X4EC1</v>
       </c>
     </row>
     <row r="65" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.25">
@@ -20818,9 +20818,9 @@
         <f t="shared" si="1"/>
         <v>2.5008089726931888</v>
       </c>
-      <c r="J65" s="13" t="str">
+      <c r="J65" s="20" t="str">
         <f t="shared" si="0"/>
-        <v>0X413E</v>
+        <v>0X4E25</v>
       </c>
     </row>
     <row r="66" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.25">
@@ -20852,9 +20852,9 @@
         <f t="shared" si="1"/>
         <v>2.4808809560626472</v>
       </c>
-      <c r="J66" s="13" t="str">
+      <c r="J66" s="20" t="str">
         <f t="shared" si="0"/>
-        <v>0X40B9</v>
+        <v>0X4D86</v>
       </c>
     </row>
     <row r="67" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.25">
@@ -20886,9 +20886,9 @@
         <f t="shared" si="1"/>
         <v>2.4604440430726369</v>
       </c>
-      <c r="J67" s="13" t="str">
+      <c r="J67" s="20" t="str">
         <f t="shared" si="0"/>
-        <v>0X4031</v>
+        <v>0X4CE2</v>
       </c>
     </row>
     <row r="68" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.25">
@@ -20920,9 +20920,9 @@
         <f t="shared" si="1"/>
         <v>2.4394997634768503</v>
       </c>
-      <c r="J68" s="13" t="str">
+      <c r="J68" s="20" t="str">
         <f t="shared" si="0"/>
-        <v>0X3FA5</v>
+        <v>0X4C3B</v>
       </c>
     </row>
     <row r="69" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.25">
@@ -20955,8 +20955,8 @@
         <v>2.41805274670849</v>
       </c>
       <c r="J69" s="20" t="str">
-        <f t="shared" ref="J69:J132" si="2">CONCATENATE("0X",DEC2HEX(INT(I69*(32767/4.906)),4))</f>
-        <v>0X3F16</v>
+        <f t="shared" ref="J69:J132" si="2">CONCATENATE("0X",DEC2HEX(INT(I69*(32767/4.096)),4))</f>
+        <v>0X4B8F</v>
       </c>
     </row>
     <row r="70" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.25">
@@ -20988,9 +20988,9 @@
         <f t="shared" ref="I70:I133" si="3">3*C70/(C70+47)</f>
         <v>2.3961042298401605</v>
       </c>
-      <c r="J70" s="13" t="str">
+      <c r="J70" s="20" t="str">
         <f t="shared" si="2"/>
-        <v>0X3E83</v>
+        <v>0X4AE0</v>
       </c>
     </row>
     <row r="71" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.25">
@@ -21022,9 +21022,9 @@
         <f t="shared" si="3"/>
         <v>2.3736590306374019</v>
       </c>
-      <c r="J71" s="13" t="str">
+      <c r="J71" s="20" t="str">
         <f t="shared" si="2"/>
-        <v>0X3DED</v>
+        <v>0X4A2C</v>
       </c>
     </row>
     <row r="72" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.25">
@@ -21056,9 +21056,9 @@
         <f t="shared" si="3"/>
         <v>2.3507241037920474</v>
       </c>
-      <c r="J72" s="13" t="str">
+      <c r="J72" s="20" t="str">
         <f t="shared" si="2"/>
-        <v>0X3D54</v>
+        <v>0X4975</v>
       </c>
     </row>
     <row r="73" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.25">
@@ -21090,9 +21090,9 @@
         <f t="shared" si="3"/>
         <v>2.3273061234226282</v>
       </c>
-      <c r="J73" s="13" t="str">
+      <c r="J73" s="20" t="str">
         <f t="shared" si="2"/>
-        <v>0X3CB7</v>
+        <v>0X48B9</v>
       </c>
     </row>
     <row r="74" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.25">
@@ -21126,7 +21126,7 @@
       </c>
       <c r="J74" s="20" t="str">
         <f t="shared" si="2"/>
-        <v>0X3C18</v>
+        <v>0X47FA</v>
       </c>
     </row>
     <row r="75" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.25">
@@ -21158,9 +21158,9 @@
         <f t="shared" si="3"/>
         <v>2.279056330754639</v>
       </c>
-      <c r="J75" s="13" t="str">
+      <c r="J75" s="20" t="str">
         <f t="shared" si="2"/>
-        <v>0X3B75</v>
+        <v>0X4737</v>
       </c>
     </row>
     <row r="76" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.25">
@@ -21192,9 +21192,9 @@
         <f t="shared" si="3"/>
         <v>2.2542365709691752</v>
       </c>
-      <c r="J76" s="13" t="str">
+      <c r="J76" s="20" t="str">
         <f t="shared" si="2"/>
-        <v>0X3ACF</v>
+        <v>0X4671</v>
       </c>
     </row>
     <row r="77" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.25">
@@ -21226,9 +21226,9 @@
         <f t="shared" si="3"/>
         <v>2.2289773286525145</v>
       </c>
-      <c r="J77" s="13" t="str">
+      <c r="J77" s="20" t="str">
         <f t="shared" si="2"/>
-        <v>0X3A27</v>
+        <v>0X45A7</v>
       </c>
     </row>
     <row r="78" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.25">
@@ -21260,9 +21260,9 @@
         <f t="shared" si="3"/>
         <v>2.2032818009221589</v>
       </c>
-      <c r="J78" s="13" t="str">
+      <c r="J78" s="20" t="str">
         <f t="shared" si="2"/>
-        <v>0X397B</v>
+        <v>0X44D9</v>
       </c>
     </row>
     <row r="79" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.25">
@@ -21296,7 +21296,7 @@
       </c>
       <c r="J79" s="20" t="str">
         <f t="shared" si="2"/>
-        <v>0X38CD</v>
+        <v>0X4408</v>
       </c>
     </row>
     <row r="80" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.25">
@@ -21328,9 +21328,9 @@
         <f t="shared" si="3"/>
         <v>2.1506433424895186</v>
       </c>
-      <c r="J80" s="13" t="str">
+      <c r="J80" s="20" t="str">
         <f t="shared" si="2"/>
-        <v>0X381C</v>
+        <v>0X4334</v>
       </c>
     </row>
     <row r="81" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.25">
@@ -21362,9 +21362,9 @@
         <f t="shared" si="3"/>
         <v>2.1237283184905755</v>
       </c>
-      <c r="J81" s="13" t="str">
+      <c r="J81" s="20" t="str">
         <f t="shared" si="2"/>
-        <v>0X3768</v>
+        <v>0X425D</v>
       </c>
     </row>
     <row r="82" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.25">
@@ -21396,9 +21396,9 @@
         <f t="shared" si="3"/>
         <v>2.0964376574024826</v>
       </c>
-      <c r="J82" s="13" t="str">
+      <c r="J82" s="20" t="str">
         <f t="shared" si="2"/>
-        <v>0X36B2</v>
+        <v>0X4182</v>
       </c>
     </row>
     <row r="83" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.25">
@@ -21430,9 +21430,9 @@
         <f t="shared" si="3"/>
         <v>2.0687967665453679</v>
       </c>
-      <c r="J83" s="13" t="str">
+      <c r="J83" s="20" t="str">
         <f t="shared" si="2"/>
-        <v>0X35F9</v>
+        <v>0X40A5</v>
       </c>
     </row>
     <row r="84" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.25">
@@ -21461,12 +21461,12 @@
         <v>-0.23200000000000001</v>
       </c>
       <c r="I84" s="19">
-        <f t="shared" si="3"/>
+        <f>3*C84/(C84+47)</f>
         <v>2.0408163265306123</v>
       </c>
       <c r="J84" s="20" t="str">
         <f t="shared" si="2"/>
-        <v>0X353E</v>
+        <v>0X3FC6</v>
       </c>
     </row>
     <row r="85" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.25">
@@ -21498,9 +21498,9 @@
         <f t="shared" si="3"/>
         <v>2.0125082290980907</v>
       </c>
-      <c r="J85" s="13" t="str">
+      <c r="J85" s="20" t="str">
         <f t="shared" si="2"/>
-        <v>0X3481</v>
+        <v>0X3EE3</v>
       </c>
     </row>
     <row r="86" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.25">
@@ -21532,9 +21532,9 @@
         <f t="shared" si="3"/>
         <v>1.983908277904689</v>
       </c>
-      <c r="J86" s="13" t="str">
+      <c r="J86" s="20" t="str">
         <f t="shared" si="2"/>
-        <v>0X33C2</v>
+        <v>0X3DFE</v>
       </c>
     </row>
     <row r="87" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.25">
@@ -21566,9 +21566,9 @@
         <f t="shared" si="3"/>
         <v>1.9550291998932794</v>
       </c>
-      <c r="J87" s="13" t="str">
+      <c r="J87" s="20" t="str">
         <f t="shared" si="2"/>
-        <v>0X3301</v>
+        <v>0X3D17</v>
       </c>
     </row>
     <row r="88" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.25">
@@ -21600,9 +21600,9 @@
         <f t="shared" si="3"/>
         <v>1.9258943262843564</v>
       </c>
-      <c r="J88" s="13" t="str">
+      <c r="J88" s="20" t="str">
         <f t="shared" si="2"/>
-        <v>0X323E</v>
+        <v>0X3C2E</v>
       </c>
     </row>
     <row r="89" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.25">
@@ -21636,7 +21636,7 @@
       </c>
       <c r="J89" s="20" t="str">
         <f t="shared" si="2"/>
-        <v>0X317A</v>
+        <v>0X3B43</v>
       </c>
     </row>
     <row r="90" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.25">
@@ -21668,9 +21668,9 @@
         <f t="shared" si="3"/>
         <v>1.8669511342542369</v>
       </c>
-      <c r="J90" s="13" t="str">
+      <c r="J90" s="20" t="str">
         <f t="shared" si="2"/>
-        <v>0X30B5</v>
+        <v>0X3A57</v>
       </c>
     </row>
     <row r="91" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.25">
@@ -21702,9 +21702,9 @@
         <f t="shared" si="3"/>
         <v>1.8371901235382408</v>
       </c>
-      <c r="J91" s="13" t="str">
+      <c r="J91" s="20" t="str">
         <f t="shared" si="2"/>
-        <v>0X2FEE</v>
+        <v>0X3969</v>
       </c>
     </row>
     <row r="92" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.25">
@@ -21736,9 +21736,9 @@
         <f t="shared" si="3"/>
         <v>1.8072579621875398</v>
       </c>
-      <c r="J92" s="13" t="str">
+      <c r="J92" s="20" t="str">
         <f t="shared" si="2"/>
-        <v>0X2F26</v>
+        <v>0X3879</v>
       </c>
     </row>
     <row r="93" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.25">
@@ -21770,9 +21770,9 @@
         <f t="shared" si="3"/>
         <v>1.7771986575202283</v>
       </c>
-      <c r="J93" s="13" t="str">
+      <c r="J93" s="20" t="str">
         <f t="shared" si="2"/>
-        <v>0X2E5D</v>
+        <v>0X3789</v>
       </c>
     </row>
     <row r="94" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.25">
@@ -21806,7 +21806,7 @@
       </c>
       <c r="J94" s="20" t="str">
         <f t="shared" si="2"/>
-        <v>0X2D94</v>
+        <v>0X3697</v>
       </c>
     </row>
     <row r="95" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.25">
@@ -21838,9 +21838,9 @@
         <f t="shared" si="3"/>
         <v>1.7167585867962651</v>
       </c>
-      <c r="J95" s="13" t="str">
+      <c r="J95" s="20" t="str">
         <f t="shared" si="2"/>
-        <v>0X2CCA</v>
+        <v>0X35A5</v>
       </c>
     </row>
     <row r="96" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.25">
@@ -21872,9 +21872,9 @@
         <f t="shared" si="3"/>
         <v>1.6864292302102644</v>
       </c>
-      <c r="J96" s="13" t="str">
+      <c r="J96" s="20" t="str">
         <f t="shared" si="2"/>
-        <v>0X2BFF</v>
+        <v>0X34B3</v>
       </c>
     </row>
     <row r="97" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.25">
@@ -21906,9 +21906,9 @@
         <f t="shared" si="3"/>
         <v>1.6560677113119067</v>
       </c>
-      <c r="J97" s="13" t="str">
+      <c r="J97" s="20" t="str">
         <f t="shared" si="2"/>
-        <v>0X2B34</v>
+        <v>0X33C0</v>
       </c>
     </row>
     <row r="98" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.25">
@@ -21940,9 +21940,9 @@
         <f t="shared" si="3"/>
         <v>1.6256908096727973</v>
       </c>
-      <c r="J98" s="13" t="str">
+      <c r="J98" s="20" t="str">
         <f t="shared" si="2"/>
-        <v>0X2A69</v>
+        <v>0X32CD</v>
       </c>
     </row>
     <row r="99" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.25">
@@ -21976,7 +21976,7 @@
       </c>
       <c r="J99" s="20" t="str">
         <f t="shared" si="2"/>
-        <v>0X299F</v>
+        <v>0X31DA</v>
       </c>
     </row>
     <row r="100" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.25">
@@ -22008,9 +22008,9 @@
         <f t="shared" si="3"/>
         <v>1.5650169450126705</v>
       </c>
-      <c r="J100" s="13" t="str">
+      <c r="J100" s="20" t="str">
         <f t="shared" si="2"/>
-        <v>0X28D4</v>
+        <v>0X30E7</v>
       </c>
     </row>
     <row r="101" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.25">
@@ -22042,9 +22042,9 @@
         <f t="shared" si="3"/>
         <v>1.5347604697079915</v>
       </c>
-      <c r="J101" s="13" t="str">
+      <c r="J101" s="20" t="str">
         <f t="shared" si="2"/>
-        <v>0X280A</v>
+        <v>0X2FF5</v>
       </c>
     </row>
     <row r="102" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.25">
@@ -22076,9 +22076,9 @@
         <f t="shared" si="3"/>
         <v>1.5045975670544816</v>
       </c>
-      <c r="J102" s="13" t="str">
+      <c r="J102" s="20" t="str">
         <f t="shared" si="2"/>
-        <v>0X2741</v>
+        <v>0X2F04</v>
       </c>
     </row>
     <row r="103" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.25">
@@ -22110,9 +22110,9 @@
         <f t="shared" si="3"/>
         <v>1.4745542669205469</v>
       </c>
-      <c r="J103" s="13" t="str">
+      <c r="J103" s="20" t="str">
         <f t="shared" si="2"/>
-        <v>0X2678</v>
+        <v>0X2E14</v>
       </c>
     </row>
     <row r="104" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.25">
@@ -22146,7 +22146,7 @@
       </c>
       <c r="J104" s="20" t="str">
         <f t="shared" si="2"/>
-        <v>0X25B0</v>
+        <v>0X2D24</v>
       </c>
     </row>
     <row r="105" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.25">
@@ -22178,9 +22178,9 @@
         <f t="shared" si="3"/>
         <v>1.4148754384387086</v>
       </c>
-      <c r="J105" s="13" t="str">
+      <c r="J105" s="20" t="str">
         <f t="shared" si="2"/>
-        <v>0X24E9</v>
+        <v>0X2C36</v>
       </c>
     </row>
     <row r="106" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.25">
@@ -22212,9 +22212,9 @@
         <f t="shared" si="3"/>
         <v>1.3853051315231952</v>
       </c>
-      <c r="J106" s="13" t="str">
+      <c r="J106" s="20" t="str">
         <f t="shared" si="2"/>
-        <v>0X2424</v>
+        <v>0X2B4A</v>
       </c>
     </row>
     <row r="107" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.25">
@@ -22246,9 +22246,9 @@
         <f t="shared" si="3"/>
         <v>1.355953546942773</v>
       </c>
-      <c r="J107" s="13" t="str">
+      <c r="J107" s="20" t="str">
         <f t="shared" si="2"/>
-        <v>0X2360</v>
+        <v>0X2A5F</v>
       </c>
     </row>
     <row r="108" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.25">
@@ -22280,9 +22280,9 @@
         <f t="shared" si="3"/>
         <v>1.3268066927732287</v>
       </c>
-      <c r="J108" s="13" t="str">
+      <c r="J108" s="20" t="str">
         <f t="shared" si="2"/>
-        <v>0X229D</v>
+        <v>0X2976</v>
       </c>
     </row>
     <row r="109" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.25">
@@ -22316,7 +22316,7 @@
       </c>
       <c r="J109" s="20" t="str">
         <f t="shared" si="2"/>
-        <v>0X21DC</v>
+        <v>0X288F</v>
       </c>
     </row>
     <row r="110" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.25">
@@ -22348,9 +22348,9 @@
         <f t="shared" si="3"/>
         <v>1.2692803397611363</v>
       </c>
-      <c r="J110" s="13" t="str">
+      <c r="J110" s="20" t="str">
         <f t="shared" si="2"/>
-        <v>0X211D</v>
+        <v>0X27A9</v>
       </c>
     </row>
     <row r="111" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.25">
@@ -22382,9 +22382,9 @@
         <f t="shared" si="3"/>
         <v>1.2409301861370325</v>
       </c>
-      <c r="J111" s="13" t="str">
+      <c r="J111" s="20" t="str">
         <f t="shared" si="2"/>
-        <v>0X2060</v>
+        <v>0X26C7</v>
       </c>
     </row>
     <row r="112" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.25">
@@ -22416,9 +22416,9 @@
         <f t="shared" si="3"/>
         <v>1.2128824558290452</v>
       </c>
-      <c r="J112" s="13" t="str">
+      <c r="J112" s="20" t="str">
         <f t="shared" si="2"/>
-        <v>0X1FA4</v>
+        <v>0X25E6</v>
       </c>
     </row>
     <row r="113" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.25">
@@ -22450,9 +22450,9 @@
         <f t="shared" si="3"/>
         <v>1.1851646866513073</v>
       </c>
-      <c r="J113" s="13" t="str">
+      <c r="J113" s="20" t="str">
         <f t="shared" si="2"/>
-        <v>0X1EEB</v>
+        <v>0X2509</v>
       </c>
     </row>
     <row r="114" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.25">
@@ -22486,7 +22486,7 @@
       </c>
       <c r="J114" s="20" t="str">
         <f t="shared" si="2"/>
-        <v>0X1E34</v>
+        <v>0X242D</v>
       </c>
     </row>
     <row r="115" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.25">
@@ -22518,9 +22518,9 @@
         <f t="shared" si="3"/>
         <v>1.1307172212647485</v>
       </c>
-      <c r="J115" s="13" t="str">
+      <c r="J115" s="20" t="str">
         <f t="shared" si="2"/>
-        <v>0X1D80</v>
+        <v>0X2355</v>
       </c>
     </row>
     <row r="116" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.25">
@@ -22552,9 +22552,9 @@
         <f t="shared" si="3"/>
         <v>1.1040232358003443</v>
       </c>
-      <c r="J116" s="13" t="str">
+      <c r="J116" s="20" t="str">
         <f t="shared" si="2"/>
-        <v>0X1CCD</v>
+        <v>0X227F</v>
       </c>
     </row>
     <row r="117" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.25">
@@ -22586,9 +22586,9 @@
         <f t="shared" si="3"/>
         <v>1.0777096114519429</v>
       </c>
-      <c r="J117" s="13" t="str">
+      <c r="J117" s="20" t="str">
         <f t="shared" si="2"/>
-        <v>0X1C1D</v>
+        <v>0X21AD</v>
       </c>
     </row>
     <row r="118" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.25">
@@ -22620,9 +22620,9 @@
         <f t="shared" si="3"/>
         <v>1.051786553182082</v>
       </c>
-      <c r="J118" s="13" t="str">
+      <c r="J118" s="20" t="str">
         <f t="shared" si="2"/>
-        <v>0X1B70</v>
+        <v>0X20DE</v>
       </c>
     </row>
     <row r="119" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.25">
@@ -22656,7 +22656,7 @@
       </c>
       <c r="J119" s="20" t="str">
         <f t="shared" si="2"/>
-        <v>0X1AC6</v>
+        <v>0X2011</v>
       </c>
     </row>
     <row r="120" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.25">
@@ -22688,9 +22688,9 @@
         <f t="shared" si="3"/>
         <v>1.0011057712754647</v>
       </c>
-      <c r="J120" s="13" t="str">
+      <c r="J120" s="20" t="str">
         <f t="shared" si="2"/>
-        <v>0X1A1E</v>
+        <v>0X1F48</v>
       </c>
     </row>
     <row r="121" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.25">
@@ -22722,9 +22722,9 @@
         <f t="shared" si="3"/>
         <v>0.9764057521742876</v>
       </c>
-      <c r="J121" s="13" t="str">
+      <c r="J121" s="20" t="str">
         <f t="shared" si="2"/>
-        <v>0X1979</v>
+        <v>0X1E83</v>
       </c>
     </row>
     <row r="122" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.25">
@@ -22756,9 +22756,9 @@
         <f t="shared" si="3"/>
         <v>0.95209946115524824</v>
       </c>
-      <c r="J122" s="13" t="str">
+      <c r="J122" s="20" t="str">
         <f t="shared" si="2"/>
-        <v>0X18D7</v>
+        <v>0X1DC0</v>
       </c>
     </row>
     <row r="123" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.25">
@@ -22790,9 +22790,9 @@
         <f t="shared" si="3"/>
         <v>0.92820723805045757</v>
       </c>
-      <c r="J123" s="13" t="str">
+      <c r="J123" s="20" t="str">
         <f t="shared" si="2"/>
-        <v>0X1837</v>
+        <v>0X1D01</v>
       </c>
     </row>
     <row r="124" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.25">
@@ -22826,7 +22826,7 @@
       </c>
       <c r="J124" s="20" t="str">
         <f t="shared" si="2"/>
-        <v>0X179A</v>
+        <v>0X1C46</v>
       </c>
     </row>
     <row r="125" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.25">
@@ -22858,9 +22858,9 @@
         <f t="shared" si="3"/>
         <v>0.88176969879065592</v>
       </c>
-      <c r="J125" s="13" t="str">
+      <c r="J125" s="20" t="str">
         <f t="shared" si="2"/>
-        <v>0X1701</v>
+        <v>0X1B8D</v>
       </c>
     </row>
     <row r="126" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.25">
@@ -22892,9 +22892,9 @@
         <f t="shared" si="3"/>
         <v>0.85919256638780495</v>
       </c>
-      <c r="J126" s="13" t="str">
+      <c r="J126" s="20" t="str">
         <f t="shared" si="2"/>
-        <v>0X166A</v>
+        <v>0X1AD9</v>
       </c>
     </row>
     <row r="127" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.25">
@@ -22926,9 +22926,9 @@
         <f t="shared" si="3"/>
         <v>0.83705839942321569</v>
       </c>
-      <c r="J127" s="13" t="str">
+      <c r="J127" s="20" t="str">
         <f t="shared" si="2"/>
-        <v>0X15D6</v>
+        <v>0X1A28</v>
       </c>
     </row>
     <row r="128" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.25">
@@ -22960,9 +22960,9 @@
         <f t="shared" si="3"/>
         <v>0.81537603421028171</v>
       </c>
-      <c r="J128" s="13" t="str">
+      <c r="J128" s="20" t="str">
         <f t="shared" si="2"/>
-        <v>0X1545</v>
+        <v>0X197A</v>
       </c>
     </row>
     <row r="129" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.25">
@@ -22996,7 +22996,7 @@
       </c>
       <c r="J129" s="20" t="str">
         <f t="shared" si="2"/>
-        <v>0X14B8</v>
+        <v>0X18D1</v>
       </c>
     </row>
     <row r="130" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.25">
@@ -23028,9 +23028,9 @@
         <f t="shared" si="3"/>
         <v>0.77335607352662517</v>
       </c>
-      <c r="J130" s="13" t="str">
+      <c r="J130" s="20" t="str">
         <f t="shared" si="2"/>
-        <v>0X142D</v>
+        <v>0X182A</v>
       </c>
     </row>
     <row r="131" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.25">
@@ -23062,9 +23062,9 @@
         <f t="shared" si="3"/>
         <v>0.75302385619352685</v>
       </c>
-      <c r="J131" s="13" t="str">
+      <c r="J131" s="20" t="str">
         <f t="shared" si="2"/>
-        <v>0X13A5</v>
+        <v>0X1788</v>
       </c>
     </row>
     <row r="132" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.25">
@@ -23096,9 +23096,9 @@
         <f t="shared" si="3"/>
         <v>0.73311897106109314</v>
       </c>
-      <c r="J132" s="13" t="str">
+      <c r="J132" s="20" t="str">
         <f t="shared" si="2"/>
-        <v>0X1320</v>
+        <v>0X16E8</v>
       </c>
     </row>
     <row r="133" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.25">
@@ -23130,9 +23130,9 @@
         <f t="shared" si="3"/>
         <v>0.71367417424721502</v>
       </c>
-      <c r="J133" s="13" t="str">
-        <f t="shared" ref="J133:J196" si="4">CONCATENATE("0X",DEC2HEX(INT(I133*(32767/4.906)),4))</f>
-        <v>0X129E</v>
+      <c r="J133" s="20" t="str">
+        <f t="shared" ref="J133:J196" si="4">CONCATENATE("0X",DEC2HEX(INT(I133*(32767/4.096)),4))</f>
+        <v>0X164D</v>
       </c>
     </row>
     <row r="134" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.25">
@@ -23166,7 +23166,7 @@
       </c>
       <c r="J134" s="20" t="str">
         <f t="shared" si="4"/>
-        <v>0X121F</v>
+        <v>0X15B5</v>
       </c>
     </row>
     <row r="135" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.25">
@@ -23198,9 +23198,9 @@
         <f t="shared" si="5"/>
         <v>0.67606678423681044</v>
       </c>
-      <c r="J135" s="13" t="str">
+      <c r="J135" s="20" t="str">
         <f t="shared" si="4"/>
-        <v>0X11A3</v>
+        <v>0X1520</v>
       </c>
     </row>
     <row r="136" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.25">
@@ -23232,9 +23232,9 @@
         <f t="shared" si="5"/>
         <v>0.65792402371974812</v>
       </c>
-      <c r="J136" s="13" t="str">
+      <c r="J136" s="20" t="str">
         <f t="shared" si="4"/>
-        <v>0X112A</v>
+        <v>0X148F</v>
       </c>
     </row>
     <row r="137" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.25">
@@ -23266,9 +23266,9 @@
         <f t="shared" si="5"/>
         <v>0.64020685846261993</v>
       </c>
-      <c r="J137" s="13" t="str">
+      <c r="J137" s="20" t="str">
         <f t="shared" si="4"/>
-        <v>0X10B3</v>
+        <v>0X1401</v>
       </c>
     </row>
     <row r="138" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.25">
@@ -23300,9 +23300,9 @@
         <f t="shared" si="5"/>
         <v>0.62290107222334612</v>
       </c>
-      <c r="J138" s="13" t="str">
+      <c r="J138" s="20" t="str">
         <f t="shared" si="4"/>
-        <v>0X1040</v>
+        <v>0X1377</v>
       </c>
     </row>
     <row r="139" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.25">
@@ -23336,7 +23336,7 @@
       </c>
       <c r="J139" s="20" t="str">
         <f t="shared" si="4"/>
-        <v>0X0FCF</v>
+        <v>0X12F0</v>
       </c>
     </row>
     <row r="140" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.25">
@@ -23368,9 +23368,9 @@
         <f t="shared" si="5"/>
         <v>0.58957877461706776</v>
       </c>
-      <c r="J140" s="13" t="str">
+      <c r="J140" s="20" t="str">
         <f t="shared" si="4"/>
-        <v>0X0F61</v>
+        <v>0X126C</v>
       </c>
     </row>
     <row r="141" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.25">
@@ -23402,9 +23402,9 @@
         <f t="shared" si="5"/>
         <v>0.57352561565334104</v>
       </c>
-      <c r="J141" s="13" t="str">
+      <c r="J141" s="20" t="str">
         <f t="shared" si="4"/>
-        <v>0X0EF6</v>
+        <v>0X11EC</v>
       </c>
     </row>
     <row r="142" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.25">
@@ -23436,9 +23436,9 @@
         <f t="shared" si="5"/>
         <v>0.55789181980359215</v>
       </c>
-      <c r="J142" s="13" t="str">
+      <c r="J142" s="20" t="str">
         <f t="shared" si="4"/>
-        <v>0X0E8E</v>
+        <v>0X116E</v>
       </c>
     </row>
     <row r="143" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.25">
@@ -23470,9 +23470,9 @@
         <f t="shared" si="5"/>
         <v>0.54265497830216636</v>
       </c>
-      <c r="J143" s="13" t="str">
+      <c r="J143" s="20" t="str">
         <f t="shared" si="4"/>
-        <v>0X0E28</v>
+        <v>0X10F5</v>
       </c>
     </row>
     <row r="144" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.25">
@@ -23506,7 +23506,7 @@
       </c>
       <c r="J144" s="20" t="str">
         <f t="shared" si="4"/>
-        <v>0X0DC5</v>
+        <v>0X107E</v>
       </c>
     </row>
     <row r="145" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.25">
@@ -23538,9 +23538,9 @@
         <f t="shared" si="5"/>
         <v>0.5133590815300777</v>
       </c>
-      <c r="J145" s="13" t="str">
+      <c r="J145" s="20" t="str">
         <f t="shared" si="4"/>
-        <v>0X0D64</v>
+        <v>0X100A</v>
       </c>
     </row>
     <row r="146" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.25">
@@ -23572,9 +23572,9 @@
         <f t="shared" si="5"/>
         <v>0.49924622669953711</v>
       </c>
-      <c r="J146" s="13" t="str">
+      <c r="J146" s="20" t="str">
         <f t="shared" si="4"/>
-        <v>0X0D06</v>
+        <v>0X0F99</v>
       </c>
     </row>
     <row r="147" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.25">
@@ -23606,9 +23606,9 @@
         <f t="shared" si="5"/>
         <v>0.48555531778300881</v>
       </c>
-      <c r="J147" s="13" t="str">
+      <c r="J147" s="20" t="str">
         <f t="shared" si="4"/>
-        <v>0X0CAB</v>
+        <v>0X0F2C</v>
       </c>
     </row>
     <row r="148" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.25">
@@ -23640,9 +23640,9 @@
         <f t="shared" si="5"/>
         <v>0.47221226245966291</v>
       </c>
-      <c r="J148" s="13" t="str">
+      <c r="J148" s="20" t="str">
         <f t="shared" si="4"/>
-        <v>0X0C51</v>
+        <v>0X0EC1</v>
       </c>
     </row>
     <row r="149" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.25">
@@ -23676,7 +23676,7 @@
       </c>
       <c r="J149" s="20" t="str">
         <f t="shared" si="4"/>
-        <v>0X0BFB</v>
+        <v>0X0E59</v>
       </c>
     </row>
     <row r="150" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.25">
@@ -23708,9 +23708,9 @@
         <f t="shared" si="5"/>
         <v>0.44657732705541481</v>
       </c>
-      <c r="J150" s="13" t="str">
+      <c r="J150" s="20" t="str">
         <f t="shared" si="4"/>
-        <v>0X0BA6</v>
+        <v>0X0DF4</v>
       </c>
     </row>
     <row r="151" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.25">
@@ -23742,9 +23742,9 @@
         <f t="shared" si="5"/>
         <v>0.43431108523182183</v>
       </c>
-      <c r="J151" s="13" t="str">
+      <c r="J151" s="20" t="str">
         <f t="shared" si="4"/>
-        <v>0X0B54</v>
+        <v>0X0D92</v>
       </c>
     </row>
     <row r="152" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.25">
@@ -23776,9 +23776,9 @@
         <f t="shared" si="5"/>
         <v>0.422350596881227</v>
       </c>
-      <c r="J152" s="13" t="str">
+      <c r="J152" s="20" t="str">
         <f t="shared" si="4"/>
-        <v>0X0B04</v>
+        <v>0X0D32</v>
       </c>
     </row>
     <row r="153" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.25">
@@ -23810,9 +23810,9 @@
         <f t="shared" si="5"/>
         <v>0.41070608759526217</v>
       </c>
-      <c r="J153" s="13" t="str">
+      <c r="J153" s="20" t="str">
         <f t="shared" si="4"/>
-        <v>0X0AB7</v>
+        <v>0X0CD5</v>
       </c>
     </row>
     <row r="154" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.25">
@@ -23846,7 +23846,7 @@
       </c>
       <c r="J154" s="20" t="str">
         <f t="shared" si="4"/>
-        <v>0X0A6B</v>
+        <v>0X0C7B</v>
       </c>
     </row>
     <row r="155" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.25">
@@ -23878,9 +23878,9 @@
         <f t="shared" si="5"/>
         <v>0.38840526023337651</v>
       </c>
-      <c r="J155" s="13" t="str">
+      <c r="J155" s="20" t="str">
         <f t="shared" si="4"/>
-        <v>0X0A22</v>
+        <v>0X0C23</v>
       </c>
     </row>
     <row r="156" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.25">
@@ -23912,9 +23912,9 @@
         <f t="shared" si="5"/>
         <v>0.37771991816998329</v>
       </c>
-      <c r="J156" s="13" t="str">
+      <c r="J156" s="20" t="str">
         <f t="shared" si="4"/>
-        <v>0X09DA</v>
+        <v>0X0BCD</v>
       </c>
     </row>
     <row r="157" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.25">
@@ -23946,9 +23946,9 @@
         <f t="shared" si="5"/>
         <v>0.36734007991336493</v>
       </c>
-      <c r="J157" s="13" t="str">
+      <c r="J157" s="20" t="str">
         <f t="shared" si="4"/>
-        <v>0X0995</v>
+        <v>0X0B7A</v>
       </c>
     </row>
     <row r="158" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.25">
@@ -23980,9 +23980,9 @@
         <f t="shared" si="5"/>
         <v>0.35727405630318254</v>
       </c>
-      <c r="J158" s="13" t="str">
+      <c r="J158" s="20" t="str">
         <f t="shared" si="4"/>
-        <v>0X0952</v>
+        <v>0X0B2A</v>
       </c>
     </row>
     <row r="159" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.25">
@@ -24016,7 +24016,7 @@
       </c>
       <c r="J159" s="20" t="str">
         <f t="shared" si="4"/>
-        <v>0X0916</v>
+        <v>0X0AE2</v>
       </c>
     </row>
     <row r="160" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.25">
@@ -24048,9 +24048,9 @@
         <f t="shared" si="5"/>
         <v>0.33791488879658649</v>
       </c>
-      <c r="J160" s="13" t="str">
+      <c r="J160" s="20" t="str">
         <f t="shared" si="4"/>
-        <v>0X08D0</v>
+        <v>0X0A8F</v>
       </c>
     </row>
     <row r="161" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.25">
@@ -24082,9 +24082,9 @@
         <f t="shared" si="5"/>
         <v>0.328685372184226</v>
       </c>
-      <c r="J161" s="13" t="str">
+      <c r="J161" s="20" t="str">
         <f t="shared" si="4"/>
-        <v>0X0893</v>
+        <v>0X0A45</v>
       </c>
     </row>
     <row r="162" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.25">
@@ -24116,9 +24116,9 @@
         <f t="shared" si="5"/>
         <v>0.31969737292324063</v>
       </c>
-      <c r="J162" s="13" t="str">
+      <c r="J162" s="20" t="str">
         <f t="shared" si="4"/>
-        <v>0X0857</v>
+        <v>0X09FD</v>
       </c>
     </row>
     <row r="163" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.25">
@@ -24150,9 +24150,9 @@
         <f t="shared" si="5"/>
         <v>0.31095642223705539</v>
       </c>
-      <c r="J163" s="13" t="str">
+      <c r="J163" s="20" t="str">
         <f t="shared" si="4"/>
-        <v>0X081C</v>
+        <v>0X09B7</v>
       </c>
     </row>
     <row r="164" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.25">
@@ -24186,7 +24186,7 @@
       </c>
       <c r="J164" s="20" t="str">
         <f t="shared" si="4"/>
-        <v>0X07E4</v>
+        <v>0X0973</v>
       </c>
     </row>
     <row r="165" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.25">
@@ -24218,9 +24218,9 @@
         <f t="shared" si="5"/>
         <v>0.2942373011456314</v>
       </c>
-      <c r="J165" s="13" t="str">
+      <c r="J165" s="20" t="str">
         <f t="shared" si="4"/>
-        <v>0X07AD</v>
+        <v>0X0931</v>
       </c>
     </row>
     <row r="166" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.25">
@@ -24252,9 +24252,9 @@
         <f t="shared" si="5"/>
         <v>0.28621744904440205</v>
       </c>
-      <c r="J166" s="13" t="str">
+      <c r="J166" s="20" t="str">
         <f t="shared" si="4"/>
-        <v>0X0777</v>
+        <v>0X08F1</v>
       </c>
     </row>
     <row r="167" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.25">
@@ -24286,9 +24286,9 @@
         <f t="shared" si="5"/>
         <v>0.27846513154085201</v>
       </c>
-      <c r="J167" s="13" t="str">
+      <c r="J167" s="20" t="str">
         <f t="shared" si="4"/>
-        <v>0X0743</v>
+        <v>0X08B3</v>
       </c>
     </row>
     <row r="168" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.25">
@@ -24320,9 +24320,9 @@
         <f t="shared" si="5"/>
         <v>0.27093252816165375</v>
       </c>
-      <c r="J168" s="13" t="str">
+      <c r="J168" s="20" t="str">
         <f t="shared" si="4"/>
-        <v>0X0711</v>
+        <v>0X0877</v>
       </c>
     </row>
     <row r="169" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.25">
@@ -24356,7 +24356,7 @@
       </c>
       <c r="J169" s="20" t="str">
         <f t="shared" si="4"/>
-        <v>0X06E0</v>
+        <v>0X083C</v>
       </c>
     </row>
     <row r="170" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.25">
@@ -24388,9 +24388,9 @@
         <f t="shared" si="5"/>
         <v>0.25648908432890999</v>
       </c>
-      <c r="J170" s="13" t="str">
+      <c r="J170" s="20" t="str">
         <f t="shared" si="4"/>
-        <v>0X06B1</v>
+        <v>0X0803</v>
       </c>
     </row>
     <row r="171" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.25">
@@ -24422,9 +24422,9 @@
         <f t="shared" si="5"/>
         <v>0.24953183520599254</v>
       </c>
-      <c r="J171" s="13" t="str">
+      <c r="J171" s="20" t="str">
         <f t="shared" si="4"/>
-        <v>0X0682</v>
+        <v>0X07CC</v>
       </c>
     </row>
     <row r="172" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.25">
@@ -24456,9 +24456,9 @@
         <f t="shared" si="5"/>
         <v>0.24286272976143916</v>
       </c>
-      <c r="J172" s="13" t="str">
+      <c r="J172" s="20" t="str">
         <f t="shared" si="4"/>
-        <v>0X0656</v>
+        <v>0X0796</v>
       </c>
     </row>
     <row r="173" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.25">
@@ -24490,9 +24490,9 @@
         <f t="shared" si="5"/>
         <v>0.23632372253474199</v>
       </c>
-      <c r="J173" s="13" t="str">
+      <c r="J173" s="20" t="str">
         <f t="shared" si="4"/>
-        <v>0X062A</v>
+        <v>0X0762</v>
       </c>
     </row>
     <row r="174" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.25">
@@ -24526,7 +24526,7 @@
       </c>
       <c r="J174" s="20" t="str">
         <f t="shared" si="4"/>
-        <v>0X0600</v>
+        <v>0X0730</v>
       </c>
     </row>
     <row r="175" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.25">
@@ -24558,9 +24558,9 @@
         <f t="shared" si="5"/>
         <v>0.22386296515062024</v>
       </c>
-      <c r="J175" s="13" t="str">
+      <c r="J175" s="20" t="str">
         <f t="shared" si="4"/>
-        <v>0X05D7</v>
+        <v>0X06FE</v>
       </c>
     </row>
     <row r="176" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.25">
@@ -24592,9 +24592,9 @@
         <f t="shared" si="5"/>
         <v>0.21789230678163413</v>
       </c>
-      <c r="J176" s="13" t="str">
+      <c r="J176" s="20" t="str">
         <f t="shared" si="4"/>
-        <v>0X05AF</v>
+        <v>0X06CF</v>
       </c>
     </row>
     <row r="177" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.25">
@@ -24626,9 +24626,9 @@
         <f t="shared" si="5"/>
         <v>0.21211641885479279</v>
       </c>
-      <c r="J177" s="13" t="str">
+      <c r="J177" s="20" t="str">
         <f t="shared" si="4"/>
-        <v>0X0588</v>
+        <v>0X06A0</v>
       </c>
     </row>
     <row r="178" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.25">
@@ -24660,9 +24660,9 @@
         <f t="shared" si="5"/>
         <v>0.20648254546895431</v>
       </c>
-      <c r="J178" s="13" t="str">
+      <c r="J178" s="20" t="str">
         <f t="shared" si="4"/>
-        <v>0X0563</v>
+        <v>0X0673</v>
       </c>
     </row>
     <row r="179" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.25">
@@ -24696,7 +24696,7 @@
       </c>
       <c r="J179" s="20" t="str">
         <f t="shared" si="4"/>
-        <v>0X053E</v>
+        <v>0X0648</v>
       </c>
     </row>
     <row r="180" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.25">
@@ -24728,9 +24728,9 @@
         <f t="shared" si="5"/>
         <v>0.19570405727923626</v>
       </c>
-      <c r="J180" s="13" t="str">
+      <c r="J180" s="20" t="str">
         <f t="shared" si="4"/>
-        <v>0X051B</v>
+        <v>0X061D</v>
       </c>
     </row>
     <row r="181" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.25">
@@ -24762,9 +24762,9 @@
         <f t="shared" si="5"/>
         <v>0.19056348131027337</v>
       </c>
-      <c r="J181" s="13" t="str">
+      <c r="J181" s="20" t="str">
         <f t="shared" si="4"/>
-        <v>0X04F8</v>
+        <v>0X05F4</v>
       </c>
     </row>
     <row r="182" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.25">
@@ -24796,9 +24796,9 @@
         <f t="shared" si="5"/>
         <v>0.18557256631868899</v>
       </c>
-      <c r="J182" s="13" t="str">
+      <c r="J182" s="20" t="str">
         <f t="shared" si="4"/>
-        <v>0X04D7</v>
+        <v>0X05CC</v>
       </c>
     </row>
     <row r="183" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.25">
@@ -24830,9 +24830,9 @@
         <f t="shared" si="5"/>
         <v>0.18073300941755144</v>
       </c>
-      <c r="J183" s="13" t="str">
+      <c r="J183" s="20" t="str">
         <f t="shared" si="4"/>
-        <v>0X04B7</v>
+        <v>0X05A5</v>
       </c>
     </row>
     <row r="184" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.25">
@@ -24866,7 +24866,7 @@
       </c>
       <c r="J184" s="20" t="str">
         <f t="shared" si="4"/>
-        <v>0X0497</v>
+        <v>0X057F</v>
       </c>
     </row>
     <row r="185" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.25">
@@ -24898,9 +24898,9 @@
         <f t="shared" si="5"/>
         <v>0.17145780256374249</v>
       </c>
-      <c r="J185" s="13" t="str">
+      <c r="J185" s="20" t="str">
         <f t="shared" si="4"/>
-        <v>0X0479</v>
+        <v>0X055B</v>
       </c>
     </row>
     <row r="186" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.25">
@@ -24932,9 +24932,9 @@
         <f t="shared" si="5"/>
         <v>0.16696805304400242</v>
       </c>
-      <c r="J186" s="13" t="str">
+      <c r="J186" s="20" t="str">
         <f t="shared" si="4"/>
-        <v>0X045B</v>
+        <v>0X0537</v>
       </c>
     </row>
     <row r="187" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.25">
@@ -24966,9 +24966,9 @@
         <f t="shared" si="5"/>
         <v>0.16269242378508902</v>
       </c>
-      <c r="J187" s="13" t="str">
+      <c r="J187" s="20" t="str">
         <f t="shared" si="4"/>
-        <v>0X043E</v>
+        <v>0X0515</v>
       </c>
     </row>
     <row r="188" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.25">
@@ -25000,9 +25000,9 @@
         <f t="shared" si="5"/>
         <v>0.15846113540638035</v>
       </c>
-      <c r="J188" s="13" t="str">
+      <c r="J188" s="20" t="str">
         <f t="shared" si="4"/>
-        <v>0X0422</v>
+        <v>0X04F3</v>
       </c>
     </row>
     <row r="189" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.25">
@@ -25036,7 +25036,7 @@
       </c>
       <c r="J189" s="20" t="str">
         <f t="shared" si="4"/>
-        <v>0X0407</v>
+        <v>0X04D3</v>
       </c>
     </row>
     <row r="190" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.25">
@@ -25068,9 +25068,9 @@
         <f t="shared" si="5"/>
         <v>0.15042137386067378</v>
       </c>
-      <c r="J190" s="13" t="str">
+      <c r="J190" s="20" t="str">
         <f t="shared" si="4"/>
-        <v>0X03EC</v>
+        <v>0X04B3</v>
       </c>
     </row>
     <row r="191" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.25">
@@ -25102,9 +25102,9 @@
         <f t="shared" si="5"/>
         <v>0.14661540018213093</v>
       </c>
-      <c r="J191" s="13" t="str">
+      <c r="J191" s="20" t="str">
         <f t="shared" si="4"/>
-        <v>0X03D3</v>
+        <v>0X0494</v>
       </c>
     </row>
     <row r="192" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.25">
@@ -25136,9 +25136,9 @@
         <f t="shared" si="5"/>
         <v>0.14285714285714288</v>
       </c>
-      <c r="J192" s="13" t="str">
+      <c r="J192" s="20" t="str">
         <f t="shared" si="4"/>
-        <v>0X03BA</v>
+        <v>0X0476</v>
       </c>
     </row>
     <row r="193" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.25">
@@ -25170,9 +25170,9 @@
         <f t="shared" si="5"/>
         <v>0.1392631066385327</v>
       </c>
-      <c r="J193" s="13" t="str">
+      <c r="J193" s="20" t="str">
         <f t="shared" si="4"/>
-        <v>0X03A2</v>
+        <v>0X045A</v>
       </c>
     </row>
     <row r="194" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.25">
@@ -25206,7 +25206,7 @@
       </c>
       <c r="J194" s="20" t="str">
         <f t="shared" si="4"/>
-        <v>0X038A</v>
+        <v>0X043D</v>
       </c>
     </row>
     <row r="195" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.25">
@@ -25238,9 +25238,9 @@
         <f t="shared" si="5"/>
         <v>0.13228115847705826</v>
       </c>
-      <c r="J195" s="13" t="str">
+      <c r="J195" s="20" t="str">
         <f t="shared" si="4"/>
-        <v>0X0373</v>
+        <v>0X0422</v>
       </c>
     </row>
     <row r="196" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.25">
@@ -25272,9 +25272,9 @@
         <f t="shared" si="5"/>
         <v>0.12895278043615485</v>
       </c>
-      <c r="J196" s="13" t="str">
+      <c r="J196" s="20" t="str">
         <f t="shared" si="4"/>
-        <v>0X035D</v>
+        <v>0X0407</v>
       </c>
     </row>
     <row r="197" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.25">
@@ -25306,9 +25306,9 @@
         <f t="shared" si="5"/>
         <v>0.12573385518590999</v>
       </c>
-      <c r="J197" s="13" t="str">
-        <f t="shared" ref="J197:J260" si="6">CONCATENATE("0X",DEC2HEX(INT(I197*(32767/4.906)),4))</f>
-        <v>0X0347</v>
+      <c r="J197" s="20" t="str">
+        <f t="shared" ref="J197:J260" si="6">CONCATENATE("0X",DEC2HEX(INT(I197*(32767/4.096)),4))</f>
+        <v>0X03ED</v>
       </c>
     </row>
     <row r="198" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.25">
@@ -25340,9 +25340,9 @@
         <f t="shared" ref="I198:I261" si="7">3*C198/(C198+47)</f>
         <v>0.12262514539926128</v>
       </c>
-      <c r="J198" s="13" t="str">
+      <c r="J198" s="20" t="str">
         <f t="shared" si="6"/>
-        <v>0X0333</v>
+        <v>0X03D4</v>
       </c>
     </row>
     <row r="199" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.25">
@@ -25376,7 +25376,7 @@
       </c>
       <c r="J199" s="20" t="str">
         <f t="shared" si="6"/>
-        <v>0X031E</v>
+        <v>0X03BC</v>
       </c>
     </row>
     <row r="200" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.25">
@@ -25408,9 +25408,9 @@
         <f t="shared" si="7"/>
         <v>0.1165644171779141</v>
       </c>
-      <c r="J200" s="13" t="str">
+      <c r="J200" s="20" t="str">
         <f t="shared" si="6"/>
-        <v>0X030A</v>
+        <v>0X03A4</v>
       </c>
     </row>
     <row r="201" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.25">
@@ -25442,9 +25442,9 @@
         <f t="shared" si="7"/>
         <v>0.11373126995824123</v>
       </c>
-      <c r="J201" s="13" t="str">
+      <c r="J201" s="20" t="str">
         <f t="shared" si="6"/>
-        <v>0X02F7</v>
+        <v>0X038D</v>
       </c>
     </row>
     <row r="202" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.25">
@@ -25476,9 +25476,9 @@
         <f t="shared" si="7"/>
         <v>0.11089254979100073</v>
       </c>
-      <c r="J202" s="13" t="str">
+      <c r="J202" s="20" t="str">
         <f t="shared" si="6"/>
-        <v>0X02E4</v>
+        <v>0X0377</v>
       </c>
     </row>
     <row r="203" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.25">
@@ -25510,9 +25510,9 @@
         <f t="shared" si="7"/>
         <v>0.10816686492473029</v>
       </c>
-      <c r="J203" s="13" t="str">
+      <c r="J203" s="20" t="str">
         <f t="shared" si="6"/>
-        <v>0X02D2</v>
+        <v>0X0361</v>
       </c>
     </row>
     <row r="204" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.25">
@@ -25546,7 +25546,7 @@
       </c>
       <c r="J204" s="20" t="str">
         <f t="shared" si="6"/>
-        <v>0X02C0</v>
+        <v>0X034C</v>
       </c>
     </row>
     <row r="205" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.25">
@@ -25578,9 +25578,9 @@
         <f t="shared" si="7"/>
         <v>0.10293815492089582</v>
       </c>
-      <c r="J205" s="13" t="str">
+      <c r="J205" s="20" t="str">
         <f t="shared" si="6"/>
-        <v>0X02AF</v>
+        <v>0X0337</v>
       </c>
     </row>
     <row r="206" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.25">
@@ -25612,9 +25612,9 @@
         <f t="shared" si="7"/>
         <v>0.1004359628197746</v>
       </c>
-      <c r="J206" s="13" t="str">
+      <c r="J206" s="20" t="str">
         <f t="shared" si="6"/>
-        <v>0X029E</v>
+        <v>0X0323</v>
       </c>
     </row>
     <row r="207" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.25">
@@ -25646,9 +25646,9 @@
         <f t="shared" si="7"/>
         <v>9.8048900963200791E-2</v>
       </c>
-      <c r="J207" s="13" t="str">
+      <c r="J207" s="20" t="str">
         <f t="shared" si="6"/>
-        <v>0X028E</v>
+        <v>0X0310</v>
       </c>
     </row>
     <row r="208" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.25">
@@ -25680,9 +25680,9 @@
         <f t="shared" si="7"/>
         <v>9.5657905577984675E-2</v>
       </c>
-      <c r="J208" s="13" t="str">
+      <c r="J208" s="20" t="str">
         <f t="shared" si="6"/>
-        <v>0X027E</v>
+        <v>0X02FD</v>
       </c>
     </row>
     <row r="209" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.25">
@@ -25716,7 +25716,7 @@
       </c>
       <c r="J209" s="20" t="str">
         <f t="shared" si="6"/>
-        <v>0X026F</v>
+        <v>0X02EB</v>
       </c>
     </row>
     <row r="210" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.25">
@@ -25748,9 +25748,9 @@
         <f t="shared" si="7"/>
         <v>9.1104142597788415E-2</v>
       </c>
-      <c r="J210" s="13" t="str">
+      <c r="J210" s="20" t="str">
         <f t="shared" si="6"/>
-        <v>0X0260</v>
+        <v>0X02D8</v>
       </c>
     </row>
     <row r="211" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.25">
@@ -25782,9 +25782,9 @@
         <f t="shared" si="7"/>
         <v>8.8942109174993803E-2</v>
       </c>
-      <c r="J211" s="13" t="str">
+      <c r="J211" s="20" t="str">
         <f t="shared" si="6"/>
-        <v>0X0252</v>
+        <v>0X02C7</v>
       </c>
     </row>
     <row r="212" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.25">
@@ -25816,9 +25816,9 @@
         <f t="shared" si="7"/>
         <v>8.6837048821305343E-2</v>
       </c>
-      <c r="J212" s="13" t="str">
+      <c r="J212" s="20" t="str">
         <f t="shared" si="6"/>
-        <v>0X0243</v>
+        <v>0X02B6</v>
       </c>
     </row>
     <row r="213" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.25">
@@ -25850,9 +25850,9 @@
         <f t="shared" si="7"/>
         <v>8.4789215787623801E-2</v>
       </c>
-      <c r="J213" s="13" t="str">
+      <c r="J213" s="20" t="str">
         <f t="shared" si="6"/>
-        <v>0X0236</v>
+        <v>0X02A6</v>
       </c>
     </row>
     <row r="214" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.25">
@@ -25886,7 +25886,7 @@
       </c>
       <c r="J214" s="20" t="str">
         <f t="shared" si="6"/>
-        <v>0X0228</v>
+        <v>0X0295</v>
       </c>
     </row>
     <row r="215" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.25">
@@ -25918,9 +25918,9 @@
         <f t="shared" si="7"/>
         <v>8.0805780418624865E-2</v>
       </c>
-      <c r="J215" s="13" t="str">
+      <c r="J215" s="20" t="str">
         <f t="shared" si="6"/>
-        <v>0X021B</v>
+        <v>0X0286</v>
       </c>
     </row>
     <row r="216" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.25">
@@ -25952,9 +25952,9 @@
         <f t="shared" si="7"/>
         <v>7.8931013051584828E-2</v>
       </c>
-      <c r="J216" s="13" t="str">
+      <c r="J216" s="20" t="str">
         <f t="shared" si="6"/>
-        <v>0X020F</v>
+        <v>0X0277</v>
       </c>
     </row>
     <row r="217" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.25">
@@ -25986,9 +25986,9 @@
         <f t="shared" si="7"/>
         <v>7.7053836107713686E-2</v>
       </c>
-      <c r="J217" s="13" t="str">
+      <c r="J217" s="20" t="str">
         <f t="shared" si="6"/>
-        <v>0X0202</v>
+        <v>0X0268</v>
       </c>
     </row>
     <row r="218" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.25">
@@ -26020,9 +26020,9 @@
         <f t="shared" si="7"/>
         <v>7.5295581829495958E-2</v>
       </c>
-      <c r="J218" s="13" t="str">
+      <c r="J218" s="20" t="str">
         <f t="shared" si="6"/>
-        <v>0X01F6</v>
+        <v>0X025A</v>
       </c>
     </row>
     <row r="219" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.25">
@@ -26056,7 +26056,7 @@
       </c>
       <c r="J219" s="20" t="str">
         <f t="shared" si="6"/>
-        <v>0X01EB</v>
+        <v>0X024C</v>
       </c>
     </row>
     <row r="220" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.25">
@@ -26088,9 +26088,9 @@
         <f t="shared" si="7"/>
         <v>7.18335306211451E-2</v>
       </c>
-      <c r="J220" s="13" t="str">
+      <c r="J220" s="20" t="str">
         <f t="shared" si="6"/>
-        <v>0X01DF</v>
+        <v>0X023E</v>
       </c>
     </row>
     <row r="221" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.25">
@@ -26122,9 +26122,9 @@
         <f t="shared" si="7"/>
         <v>7.0190749283131779E-2</v>
       </c>
-      <c r="J221" s="13" t="str">
+      <c r="J221" s="20" t="str">
         <f t="shared" si="6"/>
-        <v>0X01D4</v>
+        <v>0X0231</v>
       </c>
     </row>
     <row r="222" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.25">
@@ -26156,9 +26156,9 @@
         <f t="shared" si="7"/>
         <v>6.8546123620033678E-2</v>
       </c>
-      <c r="J222" s="13" t="str">
+      <c r="J222" s="20" t="str">
         <f t="shared" si="6"/>
-        <v>0X01C9</v>
+        <v>0X0224</v>
       </c>
     </row>
     <row r="223" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.25">
@@ -26190,9 +26190,9 @@
         <f t="shared" si="7"/>
         <v>6.6960663990181593E-2</v>
       </c>
-      <c r="J223" s="13" t="str">
+      <c r="J223" s="20" t="str">
         <f t="shared" si="6"/>
-        <v>0X01BF</v>
+        <v>0X0217</v>
       </c>
     </row>
     <row r="224" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.25">
@@ -26226,7 +26226,7 @@
       </c>
       <c r="J224" s="20" t="str">
         <f t="shared" si="6"/>
-        <v>0X01B5</v>
+        <v>0X020B</v>
       </c>
     </row>
     <row r="225" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.25">
@@ -26258,9 +26258,9 @@
         <f t="shared" si="7"/>
         <v>6.3968015992003996E-2</v>
       </c>
-      <c r="J225" s="13" t="str">
+      <c r="J225" s="20" t="str">
         <f t="shared" si="6"/>
-        <v>0X01AB</v>
+        <v>0X01FF</v>
       </c>
     </row>
     <row r="226" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.25">
@@ -26292,9 +26292,9 @@
         <f t="shared" si="7"/>
         <v>6.25E-2</v>
       </c>
-      <c r="J226" s="13" t="str">
+      <c r="J226" s="20" t="str">
         <f t="shared" si="6"/>
-        <v>0X01A1</v>
+        <v>0X01F3</v>
       </c>
     </row>
     <row r="227" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.25">
@@ -26326,9 +26326,9 @@
         <f t="shared" si="7"/>
         <v>6.1091773141296879E-2</v>
       </c>
-      <c r="J227" s="13" t="str">
+      <c r="J227" s="20" t="str">
         <f t="shared" si="6"/>
-        <v>0X0198</v>
+        <v>0X01E8</v>
       </c>
     </row>
     <row r="228" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.25">
@@ -26360,9 +26360,9 @@
         <f t="shared" si="7"/>
         <v>5.9743509540193931E-2</v>
       </c>
-      <c r="J228" s="13" t="str">
+      <c r="J228" s="20" t="str">
         <f t="shared" si="6"/>
-        <v>0X018F</v>
+        <v>0X01DD</v>
       </c>
     </row>
     <row r="229" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.25">
@@ -26396,7 +26396,7 @@
       </c>
       <c r="J229" s="20" t="str">
         <f t="shared" si="6"/>
-        <v>0X0186</v>
+        <v>0X01D3</v>
       </c>
     </row>
     <row r="230" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.25">
@@ -26428,9 +26428,9 @@
         <f t="shared" si="7"/>
         <v>5.7104691935214565E-2</v>
       </c>
-      <c r="J230" s="13" t="str">
+      <c r="J230" s="20" t="str">
         <f t="shared" si="6"/>
-        <v>0X017D</v>
+        <v>0X01C8</v>
       </c>
     </row>
     <row r="231" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.25">
@@ -26462,9 +26462,9 @@
         <f t="shared" si="7"/>
         <v>5.5814244847674929E-2</v>
       </c>
-      <c r="J231" s="13" t="str">
+      <c r="J231" s="20" t="str">
         <f t="shared" si="6"/>
-        <v>0X0174</v>
+        <v>0X01BE</v>
       </c>
     </row>
     <row r="232" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.25">
@@ -26496,9 +26496,9 @@
         <f t="shared" si="7"/>
         <v>5.4584195024127341E-2</v>
       </c>
-      <c r="J232" s="13" t="str">
+      <c r="J232" s="20" t="str">
         <f t="shared" si="6"/>
-        <v>0X016C</v>
+        <v>0X01B4</v>
       </c>
     </row>
     <row r="233" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.25">
@@ -26530,9 +26530,9 @@
         <f t="shared" si="7"/>
         <v>5.3414695310540841E-2</v>
       </c>
-      <c r="J233" s="13" t="str">
+      <c r="J233" s="20" t="str">
         <f t="shared" si="6"/>
-        <v>0X0164</v>
+        <v>0X01AB</v>
       </c>
     </row>
     <row r="234" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.25">
@@ -26566,7 +26566,7 @@
       </c>
       <c r="J234" s="20" t="str">
         <f t="shared" si="6"/>
-        <v>0X015C</v>
+        <v>0X01A1</v>
       </c>
     </row>
     <row r="235" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.25">
@@ -26598,9 +26598,9 @@
         <f t="shared" si="7"/>
         <v>5.1072907516626923E-2</v>
       </c>
-      <c r="J235" s="13" t="str">
+      <c r="J235" s="20" t="str">
         <f t="shared" si="6"/>
-        <v>0X0155</v>
+        <v>0X0198</v>
       </c>
     </row>
     <row r="236" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.25">
@@ -26632,9 +26632,9 @@
         <f t="shared" si="7"/>
         <v>4.9962339944765254E-2</v>
       </c>
-      <c r="J236" s="13" t="str">
+      <c r="J236" s="20" t="str">
         <f t="shared" si="6"/>
-        <v>0X014D</v>
+        <v>0X018F</v>
       </c>
     </row>
     <row r="237" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.25">
@@ -26666,9 +26666,9 @@
         <f t="shared" si="7"/>
         <v>4.8850935577043827E-2</v>
       </c>
-      <c r="J237" s="13" t="str">
+      <c r="J237" s="20" t="str">
         <f t="shared" si="6"/>
-        <v>0X0146</v>
+        <v>0X0186</v>
       </c>
     </row>
     <row r="238" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.25">
@@ -26700,9 +26700,9 @@
         <f t="shared" si="7"/>
         <v>4.7800506689558424E-2</v>
       </c>
-      <c r="J238" s="13" t="str">
+      <c r="J238" s="20" t="str">
         <f t="shared" si="6"/>
-        <v>0X013F</v>
+        <v>0X017E</v>
       </c>
     </row>
     <row r="239" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.25">
@@ -26736,7 +26736,7 @@
       </c>
       <c r="J239" s="20" t="str">
         <f t="shared" si="6"/>
-        <v>0X0138</v>
+        <v>0X0175</v>
       </c>
     </row>
     <row r="240" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.25">
@@ -26768,9 +26768,9 @@
         <f t="shared" si="7"/>
         <v>4.5759302715387196E-2</v>
       </c>
-      <c r="J240" s="13" t="str">
+      <c r="J240" s="20" t="str">
         <f t="shared" si="6"/>
-        <v>0X0131</v>
+        <v>0X016E</v>
       </c>
     </row>
     <row r="241" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.25">
@@ -26802,9 +26802,9 @@
         <f t="shared" si="7"/>
         <v>4.4768611670020123E-2</v>
       </c>
-      <c r="J241" s="13" t="str">
+      <c r="J241" s="20" t="str">
         <f t="shared" si="6"/>
-        <v>0X012B</v>
+        <v>0X0166</v>
       </c>
     </row>
     <row r="242" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.25">
@@ -26836,9 +26836,9 @@
         <f t="shared" si="7"/>
         <v>4.3839235172023393E-2</v>
       </c>
-      <c r="J242" s="13" t="str">
+      <c r="J242" s="20" t="str">
         <f t="shared" si="6"/>
-        <v>0X0124</v>
+        <v>0X015E</v>
       </c>
     </row>
     <row r="243" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.25">
@@ -26870,9 +26870,9 @@
         <f t="shared" si="7"/>
         <v>4.2909273939851521E-2</v>
       </c>
-      <c r="J243" s="13" t="str">
+      <c r="J243" s="20" t="str">
         <f t="shared" si="6"/>
-        <v>0X011E</v>
+        <v>0X0157</v>
       </c>
     </row>
     <row r="244" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.25">
@@ -26906,7 +26906,7 @@
       </c>
       <c r="J244" s="20" t="str">
         <f t="shared" si="6"/>
-        <v>0X0118</v>
+        <v>0X014F</v>
       </c>
     </row>
     <row r="245" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.25">
@@ -26938,9 +26938,9 @@
         <f t="shared" si="7"/>
         <v>4.1109688791891384E-2</v>
       </c>
-      <c r="J245" s="13" t="str">
+      <c r="J245" s="20" t="str">
         <f t="shared" si="6"/>
-        <v>0X0112</v>
+        <v>0X0148</v>
       </c>
     </row>
     <row r="246" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.25">
@@ -26972,9 +26972,9 @@
         <f t="shared" si="7"/>
         <v>4.0240139381599108E-2</v>
       </c>
-      <c r="J246" s="13" t="str">
+      <c r="J246" s="20" t="str">
         <f t="shared" si="6"/>
-        <v>0X010C</v>
+        <v>0X0141</v>
       </c>
     </row>
     <row r="247" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.25">
@@ -27006,9 +27006,9 @@
         <f t="shared" si="7"/>
         <v>3.937007874015748E-2</v>
       </c>
-      <c r="J247" s="13" t="str">
+      <c r="J247" s="20" t="str">
         <f t="shared" si="6"/>
-        <v>0X0106</v>
+        <v>0X013A</v>
       </c>
     </row>
     <row r="248" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.25">
@@ -27040,9 +27040,9 @@
         <f t="shared" si="7"/>
         <v>3.856170713265563E-2</v>
       </c>
-      <c r="J248" s="13" t="str">
+      <c r="J248" s="20" t="str">
         <f t="shared" si="6"/>
-        <v>0X0101</v>
+        <v>0X0134</v>
       </c>
     </row>
     <row r="249" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.25">
@@ -27076,7 +27076,7 @@
       </c>
       <c r="J249" s="20" t="str">
         <f t="shared" si="6"/>
-        <v>0X00FC</v>
+        <v>0X012E</v>
       </c>
     </row>
     <row r="250" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.25">
@@ -27108,9 +27108,9 @@
         <f t="shared" si="7"/>
         <v>3.7005904974047529E-2</v>
       </c>
-      <c r="J250" s="13" t="str">
+      <c r="J250" s="20" t="str">
         <f t="shared" si="6"/>
-        <v>0X00F7</v>
+        <v>0X0128</v>
       </c>
     </row>
     <row r="251" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.25">
@@ -27142,9 +27142,9 @@
         <f t="shared" si="7"/>
         <v>3.619624164459579E-2</v>
       </c>
-      <c r="J251" s="13" t="str">
+      <c r="J251" s="20" t="str">
         <f t="shared" si="6"/>
-        <v>0X00F1</v>
+        <v>0X0121</v>
       </c>
     </row>
     <row r="252" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.25">
@@ -27176,9 +27176,9 @@
         <f t="shared" si="7"/>
         <v>3.5448467263782014E-2</v>
       </c>
-      <c r="J252" s="13" t="str">
+      <c r="J252" s="20" t="str">
         <f t="shared" si="6"/>
-        <v>0X00EC</v>
+        <v>0X011B</v>
       </c>
     </row>
     <row r="253" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.25">
@@ -27210,9 +27210,9 @@
         <f t="shared" si="7"/>
         <v>3.4762675863809385E-2</v>
       </c>
-      <c r="J253" s="13" t="str">
+      <c r="J253" s="20" t="str">
         <f t="shared" si="6"/>
-        <v>0X00E8</v>
+        <v>0X0116</v>
       </c>
     </row>
     <row r="254" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.25">
@@ -27246,7 +27246,7 @@
       </c>
       <c r="J254" s="20" t="str">
         <f t="shared" si="6"/>
-        <v>0X00E3</v>
+        <v>0X0110</v>
       </c>
     </row>
     <row r="255" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.25">
@@ -27278,9 +27278,9 @@
         <f t="shared" si="7"/>
         <v>3.3327722605621952E-2</v>
       </c>
-      <c r="J255" s="13" t="str">
+      <c r="J255" s="20" t="str">
         <f t="shared" si="6"/>
-        <v>0X00DE</v>
+        <v>0X010A</v>
       </c>
     </row>
     <row r="256" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.25">
@@ -27312,9 +27312,9 @@
         <f t="shared" si="7"/>
         <v>3.2640949554896145E-2</v>
       </c>
-      <c r="J256" s="13" t="str">
+      <c r="J256" s="20" t="str">
         <f t="shared" si="6"/>
-        <v>0X00DA</v>
+        <v>0X0105</v>
       </c>
     </row>
     <row r="257" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.25">
@@ -27346,9 +27346,9 @@
         <f t="shared" si="7"/>
         <v>3.2016334434925381E-2</v>
       </c>
-      <c r="J257" s="13" t="str">
+      <c r="J257" s="20" t="str">
         <f t="shared" si="6"/>
-        <v>0X00D5</v>
+        <v>0X0100</v>
       </c>
     </row>
     <row r="258" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.25">
@@ -27380,9 +27380,9 @@
         <f t="shared" si="7"/>
         <v>3.1391456302503319E-2</v>
       </c>
-      <c r="J258" s="13" t="str">
+      <c r="J258" s="20" t="str">
         <f t="shared" si="6"/>
-        <v>0X00D1</v>
+        <v>0X00FB</v>
       </c>
     </row>
     <row r="259" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.25">
@@ -27416,7 +27416,7 @@
       </c>
       <c r="J259" s="20" t="str">
         <f t="shared" si="6"/>
-        <v>0X00CD</v>
+        <v>0X00F6</v>
       </c>
     </row>
     <row r="260" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.25">
@@ -27448,9 +27448,9 @@
         <f t="shared" si="7"/>
         <v>3.0140910335530891E-2</v>
       </c>
-      <c r="J260" s="13" t="str">
+      <c r="J260" s="20" t="str">
         <f t="shared" si="6"/>
-        <v>0X00C9</v>
+        <v>0X00F1</v>
       </c>
     </row>
     <row r="261" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.25">
@@ -27482,9 +27482,9 @@
         <f t="shared" si="7"/>
         <v>2.9515242168243201E-2</v>
       </c>
-      <c r="J261" s="13" t="str">
-        <f t="shared" ref="J261:J309" si="8">CONCATENATE("0X",DEC2HEX(INT(I261*(32767/4.906)),4))</f>
-        <v>0X00C5</v>
+      <c r="J261" s="20" t="str">
+        <f t="shared" ref="J261:J309" si="8">CONCATENATE("0X",DEC2HEX(INT(I261*(32767/4.096)),4))</f>
+        <v>0X00EC</v>
       </c>
     </row>
     <row r="262" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.25">
@@ -27516,9 +27516,9 @@
         <f t="shared" ref="I262:I309" si="9">3*C262/(C262+47)</f>
         <v>2.8951915377807749E-2</v>
       </c>
-      <c r="J262" s="13" t="str">
+      <c r="J262" s="20" t="str">
         <f t="shared" si="8"/>
-        <v>0X00C1</v>
+        <v>0X00E7</v>
       </c>
     </row>
     <row r="263" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.25">
@@ -27550,9 +27550,9 @@
         <f t="shared" si="9"/>
         <v>2.8388374886720479E-2</v>
       </c>
-      <c r="J263" s="13" t="str">
+      <c r="J263" s="20" t="str">
         <f t="shared" si="8"/>
-        <v>0X00BD</v>
+        <v>0X00E3</v>
       </c>
     </row>
     <row r="264" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.25">
@@ -27586,7 +27586,7 @@
       </c>
       <c r="J264" s="20" t="str">
         <f t="shared" si="8"/>
-        <v>0X00B9</v>
+        <v>0X00DE</v>
       </c>
     </row>
     <row r="265" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.25">
@@ -27618,9 +27618,9 @@
         <f t="shared" si="9"/>
         <v>2.7260652315995868E-2</v>
       </c>
-      <c r="J265" s="13" t="str">
+      <c r="J265" s="20" t="str">
         <f t="shared" si="8"/>
-        <v>0X00B6</v>
+        <v>0X00DA</v>
       </c>
     </row>
     <row r="266" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.25">
@@ -27652,9 +27652,9 @@
         <f t="shared" si="9"/>
         <v>2.6759167492566894E-2</v>
       </c>
-      <c r="J266" s="13" t="str">
+      <c r="J266" s="20" t="str">
         <f t="shared" si="8"/>
-        <v>0X00B2</v>
+        <v>0X00D6</v>
       </c>
     </row>
     <row r="267" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.25">
@@ -27686,9 +27686,9 @@
         <f t="shared" si="9"/>
         <v>2.6194794786350024E-2</v>
       </c>
-      <c r="J267" s="13" t="str">
+      <c r="J267" s="20" t="str">
         <f t="shared" si="8"/>
-        <v>0X00AE</v>
+        <v>0X00D1</v>
       </c>
     </row>
     <row r="268" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.25">
@@ -27720,9 +27720,9 @@
         <f t="shared" si="9"/>
         <v>2.5692950259460827E-2</v>
       </c>
-      <c r="J268" s="13" t="str">
+      <c r="J268" s="20" t="str">
         <f t="shared" si="8"/>
-        <v>0X00AB</v>
+        <v>0X00CD</v>
       </c>
     </row>
     <row r="269" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.25">
@@ -27756,7 +27756,7 @@
       </c>
       <c r="J269" s="20" t="str">
         <f t="shared" si="8"/>
-        <v>0X00A8</v>
+        <v>0X00C9</v>
       </c>
     </row>
     <row r="270" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.25">
@@ -27788,9 +27788,9 @@
         <f t="shared" si="9"/>
         <v>2.4751535101601572E-2</v>
       </c>
-      <c r="J270" s="13" t="str">
+      <c r="J270" s="20" t="str">
         <f t="shared" si="8"/>
-        <v>0X00A5</v>
+        <v>0X00C6</v>
       </c>
     </row>
     <row r="271" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.25">
@@ -27822,9 +27822,9 @@
         <f t="shared" si="9"/>
         <v>2.4249203300761874E-2</v>
       </c>
-      <c r="J271" s="13" t="str">
+      <c r="J271" s="20" t="str">
         <f t="shared" si="8"/>
-        <v>0X00A1</v>
+        <v>0X00C1</v>
       </c>
     </row>
     <row r="272" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.25">
@@ -27856,9 +27856,9 @@
         <f t="shared" si="9"/>
         <v>2.3809523809523812E-2</v>
       </c>
-      <c r="J272" s="13" t="str">
+      <c r="J272" s="20" t="str">
         <f t="shared" si="8"/>
-        <v>0X009F</v>
+        <v>0X00BE</v>
       </c>
     </row>
     <row r="273" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.25">
@@ -27890,9 +27890,9 @@
         <f t="shared" si="9"/>
         <v>2.330687383887857E-2</v>
       </c>
-      <c r="J273" s="13" t="str">
+      <c r="J273" s="20" t="str">
         <f t="shared" si="8"/>
-        <v>0X009B</v>
+        <v>0X00BA</v>
       </c>
     </row>
     <row r="274" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.25">
@@ -27926,7 +27926,7 @@
       </c>
       <c r="J274" s="20" t="str">
         <f t="shared" si="8"/>
-        <v>0X0098</v>
+        <v>0X00B6</v>
       </c>
     </row>
     <row r="275" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.25">
@@ -27958,9 +27958,9 @@
         <f t="shared" si="9"/>
         <v>2.2489705416534684E-2</v>
       </c>
-      <c r="J275" s="13" t="str">
+      <c r="J275" s="20" t="str">
         <f t="shared" si="8"/>
-        <v>0X0096</v>
+        <v>0X00B3</v>
       </c>
     </row>
     <row r="276" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.25">
@@ -27992,9 +27992,9 @@
         <f t="shared" si="9"/>
         <v>2.2049505786939261E-2</v>
       </c>
-      <c r="J276" s="13" t="str">
+      <c r="J276" s="20" t="str">
         <f t="shared" si="8"/>
-        <v>0X0093</v>
+        <v>0X00B0</v>
       </c>
     </row>
     <row r="277" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.25">
@@ -28026,9 +28026,9 @@
         <f t="shared" si="9"/>
         <v>2.1609175978538689E-2</v>
       </c>
-      <c r="J277" s="13" t="str">
+      <c r="J277" s="20" t="str">
         <f t="shared" si="8"/>
-        <v>0X0090</v>
+        <v>0X00AC</v>
       </c>
     </row>
     <row r="278" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.25">
@@ -28060,9 +28060,9 @@
         <f t="shared" si="9"/>
         <v>2.1231646773000951E-2</v>
       </c>
-      <c r="J278" s="13" t="str">
+      <c r="J278" s="20" t="str">
         <f t="shared" si="8"/>
-        <v>0X008D</v>
+        <v>0X00A9</v>
       </c>
     </row>
     <row r="279" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.25">
@@ -28096,7 +28096,7 @@
       </c>
       <c r="J279" s="20" t="str">
         <f t="shared" si="8"/>
-        <v>0X008B</v>
+        <v>0X00A6</v>
       </c>
     </row>
     <row r="280" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.25">
@@ -28128,9 +28128,9 @@
         <f t="shared" si="9"/>
         <v>2.0476301164338694E-2</v>
       </c>
-      <c r="J280" s="13" t="str">
+      <c r="J280" s="20" t="str">
         <f t="shared" si="8"/>
-        <v>0X0088</v>
+        <v>0X00A3</v>
       </c>
     </row>
     <row r="281" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.25">
@@ -28162,9 +28162,9 @@
         <f t="shared" si="9"/>
         <v>2.0098484688378385E-2</v>
       </c>
-      <c r="J281" s="13" t="str">
+      <c r="J281" s="20" t="str">
         <f t="shared" si="8"/>
-        <v>0X0086</v>
+        <v>0X00A0</v>
       </c>
     </row>
     <row r="282" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.25">
@@ -28196,9 +28196,9 @@
         <f t="shared" si="9"/>
         <v>1.9720572382743971E-2</v>
       </c>
-      <c r="J282" s="13" t="str">
+      <c r="J282" s="20" t="str">
         <f t="shared" si="8"/>
-        <v>0X0083</v>
+        <v>0X009D</v>
       </c>
     </row>
     <row r="283" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.25">
@@ -28230,9 +28230,9 @@
         <f t="shared" si="9"/>
         <v>1.9342564210971358E-2</v>
       </c>
-      <c r="J283" s="13" t="str">
+      <c r="J283" s="20" t="str">
         <f t="shared" si="8"/>
-        <v>0X0081</v>
+        <v>0X009A</v>
       </c>
     </row>
     <row r="284" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.25">
@@ -28266,7 +28266,7 @@
       </c>
       <c r="J284" s="20" t="str">
         <f t="shared" si="8"/>
-        <v>0X007E</v>
+        <v>0X0097</v>
       </c>
     </row>
     <row r="285" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.25">
@@ -28298,9 +28298,9 @@
         <f t="shared" si="9"/>
         <v>1.864930012263712E-2</v>
       </c>
-      <c r="J285" s="13" t="str">
+      <c r="J285" s="20" t="str">
         <f t="shared" si="8"/>
-        <v>0X007C</v>
+        <v>0X0095</v>
       </c>
     </row>
     <row r="286" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.25">
@@ -28332,9 +28332,9 @@
         <f t="shared" si="9"/>
         <v>1.8334073463173253E-2</v>
       </c>
-      <c r="J286" s="13" t="str">
+      <c r="J286" s="20" t="str">
         <f t="shared" si="8"/>
-        <v>0X007A</v>
+        <v>0X0092</v>
       </c>
     </row>
     <row r="287" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.25">
@@ -28366,9 +28366,9 @@
         <f t="shared" si="9"/>
         <v>1.7955713469957488E-2</v>
       </c>
-      <c r="J287" s="13" t="str">
+      <c r="J287" s="20" t="str">
         <f t="shared" si="8"/>
-        <v>0X0077</v>
+        <v>0X008F</v>
       </c>
     </row>
     <row r="288" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.25">
@@ -28400,9 +28400,9 @@
         <f t="shared" si="9"/>
         <v>1.764034011591015E-2</v>
       </c>
-      <c r="J288" s="13" t="str">
+      <c r="J288" s="20" t="str">
         <f t="shared" si="8"/>
-        <v>0X0075</v>
+        <v>0X008D</v>
       </c>
     </row>
     <row r="289" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.25">
@@ -28436,7 +28436,7 @@
       </c>
       <c r="J289" s="20" t="str">
         <f t="shared" si="8"/>
-        <v>0X0073</v>
+        <v>0X008A</v>
       </c>
     </row>
     <row r="290" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.25">
@@ -28468,9 +28468,9 @@
         <f t="shared" si="9"/>
         <v>1.7009393247017009E-2</v>
       </c>
-      <c r="J290" s="13" t="str">
+      <c r="J290" s="20" t="str">
         <f t="shared" si="8"/>
-        <v>0X0071</v>
+        <v>0X0088</v>
       </c>
     </row>
     <row r="291" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.25">
@@ -28502,9 +28502,9 @@
         <f t="shared" si="9"/>
         <v>1.6756939742721733E-2</v>
       </c>
-      <c r="J291" s="13" t="str">
+      <c r="J291" s="20" t="str">
         <f t="shared" si="8"/>
-        <v>0X006F</v>
+        <v>0X0086</v>
       </c>
     </row>
     <row r="292" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.25">
@@ -28536,9 +28536,9 @@
         <f t="shared" si="9"/>
         <v>1.6441312765822384E-2</v>
       </c>
-      <c r="J292" s="13" t="str">
+      <c r="J292" s="20" t="str">
         <f t="shared" si="8"/>
-        <v>0X006D</v>
+        <v>0X0083</v>
       </c>
     </row>
     <row r="293" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.25">
@@ -28570,9 +28570,9 @@
         <f t="shared" si="9"/>
         <v>1.6125618995217337E-2</v>
       </c>
-      <c r="J293" s="13" t="str">
+      <c r="J293" s="20" t="str">
         <f t="shared" si="8"/>
-        <v>0X006B</v>
+        <v>0X0081</v>
       </c>
     </row>
     <row r="294" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.25">
@@ -28606,7 +28606,7 @@
       </c>
       <c r="J294" s="20" t="str">
         <f t="shared" si="8"/>
-        <v>0X006A</v>
+        <v>0X007E</v>
       </c>
     </row>
     <row r="295" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.25">
@@ -28638,9 +28638,9 @@
         <f t="shared" si="9"/>
         <v>1.562036997841087E-2</v>
       </c>
-      <c r="J295" s="13" t="str">
+      <c r="J295" s="20" t="str">
         <f t="shared" si="8"/>
-        <v>0X0068</v>
+        <v>0X007C</v>
       </c>
     </row>
     <row r="296" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.25">
@@ -28672,9 +28672,9 @@
         <f t="shared" si="9"/>
         <v>1.5304502444910141E-2</v>
       </c>
-      <c r="J296" s="13" t="str">
+      <c r="J296" s="20" t="str">
         <f t="shared" si="8"/>
-        <v>0X0066</v>
+        <v>0X007A</v>
       </c>
     </row>
     <row r="297" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.25">
@@ -28706,9 +28706,9 @@
         <f t="shared" si="9"/>
         <v>1.5051760272667612E-2</v>
       </c>
-      <c r="J297" s="13" t="str">
+      <c r="J297" s="20" t="str">
         <f t="shared" si="8"/>
-        <v>0X0064</v>
+        <v>0X0078</v>
       </c>
     </row>
     <row r="298" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.25">
@@ -28740,9 +28740,9 @@
         <f t="shared" si="9"/>
         <v>1.4798975292697905E-2</v>
       </c>
-      <c r="J298" s="13" t="str">
+      <c r="J298" s="20" t="str">
         <f t="shared" si="8"/>
-        <v>0X0062</v>
+        <v>0X0076</v>
       </c>
     </row>
     <row r="299" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.25">
@@ -28776,7 +28776,7 @@
       </c>
       <c r="J299" s="20" t="str">
         <f t="shared" si="8"/>
-        <v>0X0061</v>
+        <v>0X0074</v>
       </c>
     </row>
     <row r="300" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.25">
@@ -28808,9 +28808,9 @@
         <f t="shared" si="9"/>
         <v>1.4293276866066703E-2</v>
       </c>
-      <c r="J300" s="13" t="str">
+      <c r="J300" s="20" t="str">
         <f t="shared" si="8"/>
-        <v>0X005F</v>
+        <v>0X0072</v>
       </c>
     </row>
     <row r="301" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.25">
@@ -28842,9 +28842,9 @@
         <f t="shared" si="9"/>
         <v>1.4040363397640882E-2</v>
       </c>
-      <c r="J301" s="13" t="str">
+      <c r="J301" s="20" t="str">
         <f t="shared" si="8"/>
-        <v>0X005D</v>
+        <v>0X0070</v>
       </c>
     </row>
     <row r="302" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.25">
@@ -28876,9 +28876,9 @@
         <f t="shared" si="9"/>
         <v>1.3850650175780422E-2</v>
       </c>
-      <c r="J302" s="13" t="str">
+      <c r="J302" s="20" t="str">
         <f t="shared" si="8"/>
-        <v>0X005C</v>
+        <v>0X006E</v>
       </c>
     </row>
     <row r="303" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.25">
@@ -28910,9 +28910,9 @@
         <f t="shared" si="9"/>
         <v>1.3597661710509596E-2</v>
       </c>
-      <c r="J303" s="13" t="str">
+      <c r="J303" s="20" t="str">
         <f t="shared" si="8"/>
-        <v>0X005A</v>
+        <v>0X006C</v>
       </c>
     </row>
     <row r="304" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.25">
@@ -28946,7 +28946,7 @@
       </c>
       <c r="J304" s="20" t="str">
         <f t="shared" si="8"/>
-        <v>0X0059</v>
+        <v>0X006A</v>
       </c>
     </row>
     <row r="305" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.25">
@@ -28978,9 +28978,9 @@
         <f t="shared" si="9"/>
         <v>1.3154828733026881E-2</v>
       </c>
-      <c r="J305" s="13" t="str">
+      <c r="J305" s="20" t="str">
         <f t="shared" si="8"/>
-        <v>0X0057</v>
+        <v>0X0069</v>
       </c>
     </row>
     <row r="306" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.25">
@@ -29012,9 +29012,9 @@
         <f t="shared" si="9"/>
         <v>1.2901722348155837E-2</v>
       </c>
-      <c r="J306" s="13" t="str">
+      <c r="J306" s="20" t="str">
         <f t="shared" si="8"/>
-        <v>0X0056</v>
+        <v>0X0067</v>
       </c>
     </row>
     <row r="307" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.25">
@@ -29046,9 +29046,9 @@
         <f t="shared" si="9"/>
         <v>1.2711864406779662E-2</v>
       </c>
-      <c r="J307" s="13" t="str">
+      <c r="J307" s="20" t="str">
         <f t="shared" si="8"/>
-        <v>0X0054</v>
+        <v>0X0065</v>
       </c>
     </row>
     <row r="308" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.25">
@@ -29080,9 +29080,9 @@
         <f t="shared" si="9"/>
         <v>1.2521982329385341E-2</v>
       </c>
-      <c r="J308" s="13" t="str">
+      <c r="J308" s="20" t="str">
         <f t="shared" si="8"/>
-        <v>0X0053</v>
+        <v>0X0064</v>
       </c>
     </row>
     <row r="309" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.25">
@@ -29116,7 +29116,7 @@
       </c>
       <c r="J309" s="20" t="str">
         <f t="shared" si="8"/>
-        <v>0X0052</v>
+        <v>0X0062</v>
       </c>
     </row>
   </sheetData>
